--- a/ec_2025_faro/xlsx/gasto_diario_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_diario_all.xlsx
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1302.5</v>
+        <v>2227.5</v>
       </c>
     </row>
     <row r="47">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>534</v>
+        <v>770</v>
       </c>
     </row>
     <row r="50">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>116.5</v>
+        <v>408</v>
       </c>
     </row>
     <row r="61">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>298</v>
       </c>
     </row>
     <row r="62">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1182.42</v>
+        <v>1975.3</v>
       </c>
     </row>
     <row r="80">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="82">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>384.01</v>
+        <v>347.56</v>
       </c>
     </row>
     <row r="83">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>384.01</v>
+        <v>347.56</v>
       </c>
     </row>
     <row r="84">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>384.01</v>
+        <v>347.56</v>
       </c>
     </row>
     <row r="85">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>533.91</v>
+        <v>497.46</v>
       </c>
     </row>
     <row r="86">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>546.28</v>
+        <v>509.83</v>
       </c>
     </row>
     <row r="87">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>941.66</v>
+        <v>905.21</v>
       </c>
     </row>
     <row r="88">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>941.66</v>
+        <v>905.21</v>
       </c>
     </row>
     <row r="89">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1347.27</v>
+        <v>1310.82</v>
       </c>
     </row>
     <row r="90">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>975.85</v>
+        <v>939.4</v>
       </c>
     </row>
     <row r="91">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1100.48</v>
+        <v>1064.03</v>
       </c>
     </row>
     <row r="92">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>825.64</v>
+        <v>789.2</v>
       </c>
     </row>
     <row r="93">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>963.35</v>
+        <v>926.9</v>
       </c>
     </row>
     <row r="94">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>901.5599999999999</v>
+        <v>865.11</v>
       </c>
     </row>
     <row r="95">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>837.67</v>
+        <v>797.39</v>
       </c>
     </row>
     <row r="96">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>882.96</v>
+        <v>849.37</v>
       </c>
     </row>
     <row r="97">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>570.63</v>
+        <v>495.41</v>
       </c>
     </row>
     <row r="98">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>903.63</v>
+        <v>828.41</v>
       </c>
     </row>
     <row r="99">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1343.54</v>
+        <v>1226.74</v>
       </c>
     </row>
     <row r="100">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>2014.54</v>
+        <v>1591.82</v>
       </c>
     </row>
     <row r="101">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>767.77</v>
+        <v>1209.32</v>
       </c>
     </row>
     <row r="102">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>947.87</v>
+        <v>911.4299999999999</v>
       </c>
     </row>
     <row r="103">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>947.87</v>
+        <v>911.4299999999999</v>
       </c>
     </row>
     <row r="104">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>947.87</v>
+        <v>911.4299999999999</v>
       </c>
     </row>
     <row r="105">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1237.57</v>
+        <v>1201.13</v>
       </c>
     </row>
     <row r="106">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1249.95</v>
+        <v>1213.5</v>
       </c>
     </row>
     <row r="107">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1645.32</v>
+        <v>1608.88</v>
       </c>
     </row>
     <row r="108">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1645.32</v>
+        <v>1608.88</v>
       </c>
     </row>
     <row r="109">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>3232.77</v>
+        <v>3196.32</v>
       </c>
     </row>
     <row r="110">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>2932.24</v>
+        <v>2895.79</v>
       </c>
     </row>
     <row r="111">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>3597.61</v>
+        <v>3561.16</v>
       </c>
     </row>
     <row r="112">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>2839.78</v>
+        <v>2803.33</v>
       </c>
     </row>
     <row r="113">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>3176.36</v>
+        <v>3139.91</v>
       </c>
     </row>
     <row r="114">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>2825.49</v>
+        <v>2789.04</v>
       </c>
     </row>
     <row r="115">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2127.37</v>
+        <v>2039.5</v>
       </c>
     </row>
     <row r="116">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2392.27</v>
+        <v>2274.48</v>
       </c>
     </row>
     <row r="117">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>2129.77</v>
+        <v>1860.45</v>
       </c>
     </row>
     <row r="118">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>2629.1</v>
+        <v>2359.79</v>
       </c>
     </row>
     <row r="119">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>4759.69</v>
+        <v>4448.79</v>
       </c>
     </row>
     <row r="120">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>6426.19</v>
+        <v>5197.2</v>
       </c>
     </row>
     <row r="121">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1523.94</v>
+        <v>3454.5</v>
       </c>
     </row>
     <row r="122">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>168.2</v>
       </c>
     </row>
     <row r="126">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>39.24</v>
+        <v>71.8</v>
       </c>
     </row>
     <row r="127">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>26334</v>
+        <v>45683.1</v>
       </c>
     </row>
     <row r="129">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>28567</v>
+        <v>48455.5</v>
       </c>
     </row>
     <row r="133">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>34221</v>
+        <v>44590</v>
       </c>
     </row>
     <row r="134">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>710000</v>
+        <v>841500</v>
       </c>
     </row>
     <row r="135">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>10197</v>
+        <v>32819.5</v>
       </c>
     </row>
     <row r="136">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>25.05</v>
+        <v>61.81</v>
       </c>
     </row>
     <row r="137">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>11000</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="138">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>4.5</v>
+        <v>20.92</v>
       </c>
     </row>
     <row r="139">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>87.5</v>
+        <v>366</v>
       </c>
     </row>
     <row r="140">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>33515.5</v>
+        <v>102085.14</v>
       </c>
     </row>
     <row r="161">
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>417.6</v>
+        <v>414.91</v>
       </c>
     </row>
     <row r="177">
@@ -3972,7 +3972,7 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>238.2</v>
+        <v>235.51</v>
       </c>
     </row>
     <row r="178">
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>238.2</v>
+        <v>235.51</v>
       </c>
     </row>
     <row r="179">
@@ -4012,7 +4012,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>881.7</v>
+        <v>829.51</v>
       </c>
     </row>
     <row r="180">
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>752.4</v>
+        <v>700.21</v>
       </c>
     </row>
     <row r="181">
@@ -4052,7 +4052,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>0</v>
+        <v>106.21</v>
       </c>
     </row>
     <row r="182">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>646.47</v>
+        <v>635.87</v>
       </c>
     </row>
     <row r="196">
@@ -4352,7 +4352,7 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>720.97</v>
+        <v>702.73</v>
       </c>
     </row>
     <row r="197">
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>461.77</v>
+        <v>443.53</v>
       </c>
     </row>
     <row r="198">
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>461.77</v>
+        <v>443.53</v>
       </c>
     </row>
     <row r="199">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>808.27</v>
+        <v>790.03</v>
       </c>
     </row>
     <row r="200">
@@ -4432,7 +4432,7 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>634.77</v>
+        <v>680.88</v>
       </c>
     </row>
     <row r="201">
@@ -4452,7 +4452,7 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>0</v>
+        <v>217.71</v>
       </c>
     </row>
     <row r="202">
@@ -4532,7 +4532,7 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>3605</v>
+        <v>6606</v>
       </c>
     </row>
     <row r="206">
@@ -4552,7 +4552,7 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>414.04</v>
+        <v>716.4299999999999</v>
       </c>
     </row>
     <row r="207">
@@ -4572,7 +4572,7 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>2364</v>
+        <v>4016.5</v>
       </c>
     </row>
     <row r="208">
@@ -4592,7 +4592,7 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>119.85</v>
+        <v>189.2</v>
       </c>
     </row>
     <row r="209">
@@ -4612,7 +4612,7 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>627.6</v>
+        <v>1066.6</v>
       </c>
     </row>
     <row r="210">
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>152.25</v>
+        <v>393.11</v>
       </c>
     </row>
     <row r="211">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>576.45</v>
+        <v>826.47</v>
       </c>
     </row>
     <row r="213">
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>416.28</v>
+        <v>605.3</v>
       </c>
     </row>
     <row r="214">
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>770.26</v>
+        <v>1238.39</v>
       </c>
     </row>
     <row r="215">
@@ -4732,7 +4732,7 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>56.2</v>
+        <v>98.56</v>
       </c>
     </row>
     <row r="216">
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>6953.11</v>
+        <v>11025.38</v>
       </c>
     </row>
     <row r="217">
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>9.5</v>
+        <v>111.18</v>
       </c>
     </row>
     <row r="218">
@@ -4792,7 +4792,7 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>224.96</v>
+        <v>697.65</v>
       </c>
     </row>
     <row r="219">
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>41.65</v>
+        <v>218.36</v>
       </c>
     </row>
     <row r="220">
@@ -4832,7 +4832,7 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>44.28</v>
+        <v>189.06</v>
       </c>
     </row>
     <row r="221">
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>0</v>
+        <v>75.38</v>
       </c>
     </row>
     <row r="222">
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>9.279999999999999</v>
+        <v>11.75</v>
       </c>
     </row>
     <row r="239">
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>76.98999999999999</v>
+        <v>259.86</v>
       </c>
     </row>
     <row r="241">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="242">
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>409.41</v>
+        <v>645.52</v>
       </c>
     </row>
     <row r="286">
@@ -6152,7 +6152,7 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>85.56</v>
+        <v>150.5</v>
       </c>
     </row>
     <row r="287">
@@ -6172,7 +6172,7 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>793.74</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="288">
@@ -6192,7 +6192,7 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>5389.2</v>
+        <v>8577.9</v>
       </c>
     </row>
     <row r="289">
@@ -6212,7 +6212,7 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>366.61</v>
+        <v>529.12</v>
       </c>
     </row>
     <row r="290">
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>557.48</v>
+        <v>851.8</v>
       </c>
     </row>
     <row r="291">
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>5015.7</v>
+        <v>7526.7</v>
       </c>
     </row>
     <row r="292">
@@ -6272,7 +6272,7 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>249.84</v>
+        <v>350.8</v>
       </c>
     </row>
     <row r="293">
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>11356.74</v>
+        <v>15715.1</v>
       </c>
     </row>
     <row r="294">
@@ -6312,7 +6312,7 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>323.5</v>
+        <v>477.2</v>
       </c>
     </row>
     <row r="295">
@@ -6332,7 +6332,7 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>60.92</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="296">
@@ -6352,7 +6352,7 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>4177.5</v>
+        <v>7941</v>
       </c>
     </row>
     <row r="297">
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>0</v>
+        <v>46.35</v>
       </c>
     </row>
     <row r="298">
@@ -6392,7 +6392,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>28.65</v>
+        <v>272.87</v>
       </c>
     </row>
     <row r="299">
@@ -6412,7 +6412,7 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>28.24</v>
+        <v>180</v>
       </c>
     </row>
     <row r="300">
@@ -6432,7 +6432,7 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>394.05</v>
+        <v>1360.74</v>
       </c>
     </row>
     <row r="301">
@@ -6452,7 +6452,7 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>7.62</v>
+        <v>2183.41</v>
       </c>
     </row>
     <row r="302">
@@ -6812,7 +6812,7 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>11.17</v>
+        <v>31.46</v>
       </c>
     </row>
     <row r="320">
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="D320" t="n">
-        <v>0.43</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="321">
@@ -7252,7 +7252,7 @@
         </is>
       </c>
       <c r="D341" t="n">
-        <v>53.62</v>
+        <v>152.62</v>
       </c>
     </row>
     <row r="342">
@@ -7632,7 +7632,7 @@
         </is>
       </c>
       <c r="D360" t="n">
-        <v>1575.75</v>
+        <v>1410.75</v>
       </c>
     </row>
     <row r="361">
@@ -7652,7 +7652,7 @@
         </is>
       </c>
       <c r="D361" t="n">
-        <v>598.12</v>
+        <v>631.12</v>
       </c>
     </row>
     <row r="362">
@@ -7732,7 +7732,7 @@
         </is>
       </c>
       <c r="D365" t="n">
-        <v>130.86</v>
+        <v>218.6</v>
       </c>
     </row>
     <row r="366">
@@ -7752,7 +7752,7 @@
         </is>
       </c>
       <c r="D366" t="n">
-        <v>32.76</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="367">
@@ -7792,7 +7792,7 @@
         </is>
       </c>
       <c r="D368" t="n">
-        <v>99.02</v>
+        <v>196.2</v>
       </c>
     </row>
     <row r="369">
@@ -7812,7 +7812,7 @@
         </is>
       </c>
       <c r="D369" t="n">
-        <v>186.3</v>
+        <v>327.8</v>
       </c>
     </row>
     <row r="370">
@@ -7832,7 +7832,7 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>294.48</v>
+        <v>563.87</v>
       </c>
     </row>
     <row r="371">
@@ -7852,7 +7852,7 @@
         </is>
       </c>
       <c r="D371" t="n">
-        <v>60</v>
+        <v>96.7</v>
       </c>
     </row>
     <row r="372">
@@ -7872,7 +7872,7 @@
         </is>
       </c>
       <c r="D372" t="n">
-        <v>143.64</v>
+        <v>291.4</v>
       </c>
     </row>
     <row r="373">
@@ -7892,7 +7892,7 @@
         </is>
       </c>
       <c r="D373" t="n">
-        <v>368.45</v>
+        <v>594.22</v>
       </c>
     </row>
     <row r="374">
@@ -7952,7 +7952,7 @@
         </is>
       </c>
       <c r="D376" t="n">
-        <v>31.98</v>
+        <v>64.89</v>
       </c>
     </row>
     <row r="377">
@@ -7972,7 +7972,7 @@
         </is>
       </c>
       <c r="D377" t="n">
-        <v>354.84</v>
+        <v>959</v>
       </c>
     </row>
     <row r="378">
@@ -7992,7 +7992,7 @@
         </is>
       </c>
       <c r="D378" t="n">
-        <v>0</v>
+        <v>149.34</v>
       </c>
     </row>
     <row r="379">
@@ -8012,7 +8012,7 @@
         </is>
       </c>
       <c r="D379" t="n">
-        <v>69.31999999999999</v>
+        <v>333.04</v>
       </c>
     </row>
     <row r="380">
@@ -8032,7 +8032,7 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>417.09</v>
+        <v>1400.82</v>
       </c>
     </row>
     <row r="381">
@@ -8052,7 +8052,7 @@
         </is>
       </c>
       <c r="D381" t="n">
-        <v>0</v>
+        <v>18.16</v>
       </c>
     </row>
     <row r="382">
@@ -8392,7 +8392,7 @@
         </is>
       </c>
       <c r="D398" t="n">
-        <v>2.4</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="399">
@@ -8812,7 +8812,7 @@
         </is>
       </c>
       <c r="D419" t="n">
-        <v>1530.64</v>
+        <v>1701.51</v>
       </c>
     </row>
     <row r="420">
@@ -8832,7 +8832,7 @@
         </is>
       </c>
       <c r="D420" t="n">
-        <v>1455.39</v>
+        <v>1701.26</v>
       </c>
     </row>
     <row r="421">
@@ -8852,7 +8852,7 @@
         </is>
       </c>
       <c r="D421" t="n">
-        <v>346.67</v>
+        <v>592.54</v>
       </c>
     </row>
     <row r="422">
@@ -9212,7 +9212,7 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>1340.39</v>
+        <v>1377.93</v>
       </c>
     </row>
     <row r="440">
@@ -9232,7 +9232,7 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>1339.89</v>
+        <v>1452.43</v>
       </c>
     </row>
     <row r="441">
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>231.17</v>
+        <v>343.71</v>
       </c>
     </row>
     <row r="442">
@@ -9352,7 +9352,7 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>1037.5</v>
+        <v>1858.5</v>
       </c>
     </row>
     <row r="447">
@@ -9372,7 +9372,7 @@
         </is>
       </c>
       <c r="D447" t="n">
-        <v>4752</v>
+        <v>7790</v>
       </c>
     </row>
     <row r="448">
@@ -9392,7 +9392,7 @@
         </is>
       </c>
       <c r="D448" t="n">
-        <v>868.5599999999999</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="449">
@@ -9412,7 +9412,7 @@
         </is>
       </c>
       <c r="D449" t="n">
-        <v>566.88</v>
+        <v>895.76</v>
       </c>
     </row>
     <row r="450">
@@ -9432,7 +9432,7 @@
         </is>
       </c>
       <c r="D450" t="n">
-        <v>237.6</v>
+        <v>335.34</v>
       </c>
     </row>
     <row r="451">
@@ -9472,7 +9472,7 @@
         </is>
       </c>
       <c r="D452" t="n">
-        <v>2406</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="453">
@@ -9492,7 +9492,7 @@
         </is>
       </c>
       <c r="D453" t="n">
-        <v>3880</v>
+        <v>6043.5</v>
       </c>
     </row>
     <row r="454">
@@ -9512,7 +9512,7 @@
         </is>
       </c>
       <c r="D454" t="n">
-        <v>0</v>
+        <v>954</v>
       </c>
     </row>
     <row r="455">
@@ -9592,7 +9592,7 @@
         </is>
       </c>
       <c r="D458" t="n">
-        <v>0</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="459">
@@ -9612,7 +9612,7 @@
         </is>
       </c>
       <c r="D459" t="n">
-        <v>100.5</v>
+        <v>696</v>
       </c>
     </row>
     <row r="460">
@@ -9992,7 +9992,7 @@
         </is>
       </c>
       <c r="D478" t="n">
-        <v>0.54</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="479">
@@ -10012,7 +10012,7 @@
         </is>
       </c>
       <c r="D479" t="n">
-        <v>3.3</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="480">
@@ -10392,7 +10392,7 @@
         </is>
       </c>
       <c r="D498" t="n">
-        <v>103.89</v>
+        <v>99.77</v>
       </c>
     </row>
     <row r="499">
@@ -10412,7 +10412,7 @@
         </is>
       </c>
       <c r="D499" t="n">
-        <v>103.89</v>
+        <v>99.77</v>
       </c>
     </row>
     <row r="500">
@@ -10432,7 +10432,7 @@
         </is>
       </c>
       <c r="D500" t="n">
-        <v>75.90000000000001</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="501">
@@ -10452,7 +10452,7 @@
         </is>
       </c>
       <c r="D501" t="n">
-        <v>49.5</v>
+        <v>53.62</v>
       </c>
     </row>
     <row r="502">
@@ -10792,7 +10792,7 @@
         </is>
       </c>
       <c r="D518" t="n">
-        <v>103.89</v>
+        <v>99.77</v>
       </c>
     </row>
     <row r="519">
@@ -10812,7 +10812,7 @@
         </is>
       </c>
       <c r="D519" t="n">
-        <v>103.89</v>
+        <v>99.77</v>
       </c>
     </row>
     <row r="520">
@@ -10832,7 +10832,7 @@
         </is>
       </c>
       <c r="D520" t="n">
-        <v>75.90000000000001</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="521">
@@ -10852,7 +10852,7 @@
         </is>
       </c>
       <c r="D521" t="n">
-        <v>49.5</v>
+        <v>53.62</v>
       </c>
     </row>
     <row r="522">
@@ -10972,7 +10972,7 @@
         </is>
       </c>
       <c r="D527" t="n">
-        <v>498</v>
+        <v>895</v>
       </c>
     </row>
     <row r="528">
@@ -10992,7 +10992,7 @@
         </is>
       </c>
       <c r="D528" t="n">
-        <v>2957</v>
+        <v>5248</v>
       </c>
     </row>
     <row r="529">
@@ -11012,7 +11012,7 @@
         </is>
       </c>
       <c r="D529" t="n">
-        <v>1409</v>
+        <v>1878.75</v>
       </c>
     </row>
     <row r="530">
@@ -11052,7 +11052,7 @@
         </is>
       </c>
       <c r="D531" t="n">
-        <v>1563</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="532">
@@ -11072,7 +11072,7 @@
         </is>
       </c>
       <c r="D532" t="n">
-        <v>2094.3</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="533">
@@ -11092,7 +11092,7 @@
         </is>
       </c>
       <c r="D533" t="n">
-        <v>250.2</v>
+        <v>348</v>
       </c>
     </row>
     <row r="534">
@@ -11112,7 +11112,7 @@
         </is>
       </c>
       <c r="D534" t="n">
-        <v>426.06</v>
+        <v>791.6799999999999</v>
       </c>
     </row>
     <row r="535">
@@ -11132,7 +11132,7 @@
         </is>
       </c>
       <c r="D535" t="n">
-        <v>3732</v>
+        <v>6748</v>
       </c>
     </row>
     <row r="536">
@@ -11172,7 +11172,7 @@
         </is>
       </c>
       <c r="D537" t="n">
-        <v>1045</v>
+        <v>3768</v>
       </c>
     </row>
     <row r="538">
@@ -11192,7 +11192,7 @@
         </is>
       </c>
       <c r="D538" t="n">
-        <v>1071</v>
+        <v>5967.5</v>
       </c>
     </row>
     <row r="539">
@@ -11212,7 +11212,7 @@
         </is>
       </c>
       <c r="D539" t="n">
-        <v>1188.5</v>
+        <v>5446</v>
       </c>
     </row>
     <row r="540">
@@ -11232,7 +11232,7 @@
         </is>
       </c>
       <c r="D540" t="n">
-        <v>1565.5</v>
+        <v>5590.5</v>
       </c>
     </row>
     <row r="541">
@@ -11252,7 +11252,7 @@
         </is>
       </c>
       <c r="D541" t="n">
-        <v>548</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="542">
@@ -12532,7 +12532,7 @@
         </is>
       </c>
       <c r="D605" t="n">
-        <v>1515</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="606">
@@ -12572,7 +12572,7 @@
         </is>
       </c>
       <c r="D607" t="n">
-        <v>54.12</v>
+        <v>90.09999999999999</v>
       </c>
     </row>
     <row r="608">
@@ -12592,7 +12592,7 @@
         </is>
       </c>
       <c r="D608" t="n">
-        <v>116.55</v>
+        <v>197.01</v>
       </c>
     </row>
     <row r="609">
@@ -12612,7 +12612,7 @@
         </is>
       </c>
       <c r="D609" t="n">
-        <v>707.16</v>
+        <v>1151.6</v>
       </c>
     </row>
     <row r="610">
@@ -12632,7 +12632,7 @@
         </is>
       </c>
       <c r="D610" t="n">
-        <v>26.46</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="611">
@@ -12652,7 +12652,7 @@
         </is>
       </c>
       <c r="D611" t="n">
-        <v>304.3</v>
+        <v>524.45</v>
       </c>
     </row>
     <row r="612">
@@ -12672,7 +12672,7 @@
         </is>
       </c>
       <c r="D612" t="n">
-        <v>442.92</v>
+        <v>689.1</v>
       </c>
     </row>
     <row r="613">
@@ -12692,7 +12692,7 @@
         </is>
       </c>
       <c r="D613" t="n">
-        <v>255.96</v>
+        <v>365.4</v>
       </c>
     </row>
     <row r="614">
@@ -12712,7 +12712,7 @@
         </is>
       </c>
       <c r="D614" t="n">
-        <v>128.85</v>
+        <v>218.51</v>
       </c>
     </row>
     <row r="615">
@@ -12732,7 +12732,7 @@
         </is>
       </c>
       <c r="D615" t="n">
-        <v>69.31999999999999</v>
+        <v>171.84</v>
       </c>
     </row>
     <row r="616">
@@ -12792,7 +12792,7 @@
         </is>
       </c>
       <c r="D618" t="n">
-        <v>16.5</v>
+        <v>149.5</v>
       </c>
     </row>
     <row r="619">
@@ -12832,7 +12832,7 @@
         </is>
       </c>
       <c r="D620" t="n">
-        <v>56.81</v>
+        <v>219.04</v>
       </c>
     </row>
     <row r="621">
@@ -12852,7 +12852,7 @@
         </is>
       </c>
       <c r="D621" t="n">
-        <v>19.51</v>
+        <v>181.41</v>
       </c>
     </row>
     <row r="622">
@@ -13192,7 +13192,7 @@
         </is>
       </c>
       <c r="D638" t="n">
-        <v>15.2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="639">
@@ -13232,7 +13232,7 @@
         </is>
       </c>
       <c r="D640" t="n">
-        <v>87.51000000000001</v>
+        <v>177.07</v>
       </c>
     </row>
     <row r="641">
@@ -13252,7 +13252,7 @@
         </is>
       </c>
       <c r="D641" t="n">
-        <v>33.83</v>
+        <v>113.52</v>
       </c>
     </row>
     <row r="642">
@@ -14152,7 +14152,7 @@
         </is>
       </c>
       <c r="D686" t="n">
-        <v>121.9</v>
+        <v>223.83</v>
       </c>
     </row>
     <row r="687">
@@ -14172,7 +14172,7 @@
         </is>
       </c>
       <c r="D687" t="n">
-        <v>414.12</v>
+        <v>670.02</v>
       </c>
     </row>
     <row r="688">
@@ -14212,7 +14212,7 @@
         </is>
       </c>
       <c r="D689" t="n">
-        <v>206.25</v>
+        <v>374.58</v>
       </c>
     </row>
     <row r="690">
@@ -14232,7 +14232,7 @@
         </is>
       </c>
       <c r="D690" t="n">
-        <v>327.48</v>
+        <v>630</v>
       </c>
     </row>
     <row r="691">
@@ -14252,7 +14252,7 @@
         </is>
       </c>
       <c r="D691" t="n">
-        <v>1173.84</v>
+        <v>1841.6</v>
       </c>
     </row>
     <row r="692">
@@ -14292,7 +14292,7 @@
         </is>
       </c>
       <c r="D693" t="n">
-        <v>38.28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="694">
@@ -14332,7 +14332,7 @@
         </is>
       </c>
       <c r="D695" t="n">
-        <v>18126</v>
+        <v>39968</v>
       </c>
     </row>
     <row r="696">
@@ -14352,7 +14352,7 @@
         </is>
       </c>
       <c r="D696" t="n">
-        <v>283.72</v>
+        <v>520</v>
       </c>
     </row>
     <row r="697">
@@ -14432,7 +14432,7 @@
         </is>
       </c>
       <c r="D700" t="n">
-        <v>416.59</v>
+        <v>2430.18</v>
       </c>
     </row>
     <row r="701">
@@ -14832,7 +14832,7 @@
         </is>
       </c>
       <c r="D720" t="n">
-        <v>5.82</v>
+        <v>19.38</v>
       </c>
     </row>
     <row r="721">
@@ -15712,7 +15712,7 @@
         </is>
       </c>
       <c r="D764" t="n">
-        <v>377.5</v>
+        <v>859.5</v>
       </c>
     </row>
     <row r="765">
@@ -15732,7 +15732,7 @@
         </is>
       </c>
       <c r="D765" t="n">
-        <v>623.8200000000001</v>
+        <v>1002.4</v>
       </c>
     </row>
     <row r="766">
@@ -15752,7 +15752,7 @@
         </is>
       </c>
       <c r="D766" t="n">
-        <v>1217.58</v>
+        <v>2433.7</v>
       </c>
     </row>
     <row r="767">
@@ -15772,7 +15772,7 @@
         </is>
       </c>
       <c r="D767" t="n">
-        <v>7744.86</v>
+        <v>12475</v>
       </c>
     </row>
     <row r="768">
@@ -15812,7 +15812,7 @@
         </is>
       </c>
       <c r="D769" t="n">
-        <v>2668</v>
+        <v>4511</v>
       </c>
     </row>
     <row r="770">
@@ -15832,7 +15832,7 @@
         </is>
       </c>
       <c r="D770" t="n">
-        <v>2715.94</v>
+        <v>4397.5</v>
       </c>
     </row>
     <row r="771">
@@ -15872,7 +15872,7 @@
         </is>
       </c>
       <c r="D772" t="n">
-        <v>888</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="773">
@@ -15912,7 +15912,7 @@
         </is>
       </c>
       <c r="D774" t="n">
-        <v>1667.5</v>
+        <v>2596.5</v>
       </c>
     </row>
     <row r="775">
@@ -15932,7 +15932,7 @@
         </is>
       </c>
       <c r="D775" t="n">
-        <v>1560</v>
+        <v>8434.5</v>
       </c>
     </row>
     <row r="776">
@@ -15952,7 +15952,7 @@
         </is>
       </c>
       <c r="D776" t="n">
-        <v>1018.38</v>
+        <v>3143.06</v>
       </c>
     </row>
     <row r="777">
@@ -15972,7 +15972,7 @@
         </is>
       </c>
       <c r="D777" t="n">
-        <v>68.56</v>
+        <v>417</v>
       </c>
     </row>
     <row r="778">
@@ -15992,7 +15992,7 @@
         </is>
       </c>
       <c r="D778" t="n">
-        <v>27.87</v>
+        <v>272.5</v>
       </c>
     </row>
     <row r="779">
@@ -16012,7 +16012,7 @@
         </is>
       </c>
       <c r="D779" t="n">
-        <v>348</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="780">
@@ -16032,7 +16032,7 @@
         </is>
       </c>
       <c r="D780" t="n">
-        <v>419</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="781">
@@ -16052,7 +16052,7 @@
         </is>
       </c>
       <c r="D781" t="n">
-        <v>80.5</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="782">
@@ -16392,7 +16392,7 @@
         </is>
       </c>
       <c r="D798" t="n">
-        <v>3.68</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="799">
@@ -16432,7 +16432,7 @@
         </is>
       </c>
       <c r="D800" t="n">
-        <v>1.2</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="801">
@@ -16452,7 +16452,7 @@
         </is>
       </c>
       <c r="D801" t="n">
-        <v>2.7</v>
+        <v>10.68</v>
       </c>
     </row>
     <row r="802">
@@ -17312,7 +17312,7 @@
         </is>
       </c>
       <c r="D844" t="n">
-        <v>19.3</v>
+        <v>34.65</v>
       </c>
     </row>
     <row r="845">
@@ -17372,7 +17372,7 @@
         </is>
       </c>
       <c r="D847" t="n">
-        <v>35.7</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="848">
@@ -17392,7 +17392,7 @@
         </is>
       </c>
       <c r="D848" t="n">
-        <v>17.94</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="849">
@@ -17532,7 +17532,7 @@
         </is>
       </c>
       <c r="D855" t="n">
-        <v>87.51000000000001</v>
+        <v>323.18</v>
       </c>
     </row>
     <row r="856">
@@ -17572,7 +17572,7 @@
         </is>
       </c>
       <c r="D857" t="n">
-        <v>15.36</v>
+        <v>50.04</v>
       </c>
     </row>
     <row r="858">
@@ -17612,7 +17612,7 @@
         </is>
       </c>
       <c r="D859" t="n">
-        <v>7.37</v>
+        <v>32.96</v>
       </c>
     </row>
     <row r="860">
@@ -17632,7 +17632,7 @@
         </is>
       </c>
       <c r="D860" t="n">
-        <v>161</v>
+        <v>528</v>
       </c>
     </row>
     <row r="861">
@@ -17652,7 +17652,7 @@
         </is>
       </c>
       <c r="D861" t="n">
-        <v>0</v>
+        <v>7.28</v>
       </c>
     </row>
     <row r="862">
@@ -18012,7 +18012,7 @@
         </is>
       </c>
       <c r="D879" t="n">
-        <v>0.66</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="880">
@@ -18252,7 +18252,7 @@
         </is>
       </c>
       <c r="D891" t="n">
-        <v>1215.33</v>
+        <v>1219.88</v>
       </c>
     </row>
     <row r="892">
@@ -18272,7 +18272,7 @@
         </is>
       </c>
       <c r="D892" t="n">
-        <v>1890.87</v>
+        <v>1895.42</v>
       </c>
     </row>
     <row r="893">
@@ -18292,7 +18292,7 @@
         </is>
       </c>
       <c r="D893" t="n">
-        <v>2875.44</v>
+        <v>2879.99</v>
       </c>
     </row>
     <row r="894">
@@ -18312,7 +18312,7 @@
         </is>
       </c>
       <c r="D894" t="n">
-        <v>2801.19</v>
+        <v>2805.74</v>
       </c>
     </row>
     <row r="895">
@@ -18332,7 +18332,7 @@
         </is>
       </c>
       <c r="D895" t="n">
-        <v>1960.58</v>
+        <v>1965.13</v>
       </c>
     </row>
     <row r="896">
@@ -18352,7 +18352,7 @@
         </is>
       </c>
       <c r="D896" t="n">
-        <v>2059.13</v>
+        <v>2112.27</v>
       </c>
     </row>
     <row r="897">
@@ -18372,7 +18372,7 @@
         </is>
       </c>
       <c r="D897" t="n">
-        <v>2337.53</v>
+        <v>2470.76</v>
       </c>
     </row>
     <row r="898">
@@ -18392,7 +18392,7 @@
         </is>
       </c>
       <c r="D898" t="n">
-        <v>2255.03</v>
+        <v>2388.26</v>
       </c>
     </row>
     <row r="899">
@@ -18412,7 +18412,7 @@
         </is>
       </c>
       <c r="D899" t="n">
-        <v>2449.5</v>
+        <v>2578.6</v>
       </c>
     </row>
     <row r="900">
@@ -18432,7 +18432,7 @@
         </is>
       </c>
       <c r="D900" t="n">
-        <v>2014.44</v>
+        <v>2628.46</v>
       </c>
     </row>
     <row r="901">
@@ -18452,7 +18452,7 @@
         </is>
       </c>
       <c r="D901" t="n">
-        <v>1505.98</v>
+        <v>2199.4</v>
       </c>
     </row>
     <row r="902">
@@ -18652,7 +18652,7 @@
         </is>
       </c>
       <c r="D911" t="n">
-        <v>1537.68</v>
+        <v>1542.23</v>
       </c>
     </row>
     <row r="912">
@@ -18672,7 +18672,7 @@
         </is>
       </c>
       <c r="D912" t="n">
-        <v>2468.97</v>
+        <v>2473.52</v>
       </c>
     </row>
     <row r="913">
@@ -18692,7 +18692,7 @@
         </is>
       </c>
       <c r="D913" t="n">
-        <v>3783.88</v>
+        <v>3788.42</v>
       </c>
     </row>
     <row r="914">
@@ -18712,7 +18712,7 @@
         </is>
       </c>
       <c r="D914" t="n">
-        <v>3453.88</v>
+        <v>3458.42</v>
       </c>
     </row>
     <row r="915">
@@ -18732,7 +18732,7 @@
         </is>
       </c>
       <c r="D915" t="n">
-        <v>2247.31</v>
+        <v>2251.86</v>
       </c>
     </row>
     <row r="916">
@@ -18752,7 +18752,7 @@
         </is>
       </c>
       <c r="D916" t="n">
-        <v>2411.85</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="917">
@@ -18772,7 +18772,7 @@
         </is>
       </c>
       <c r="D917" t="n">
-        <v>2756.25</v>
+        <v>2889.48</v>
       </c>
     </row>
     <row r="918">
@@ -18792,7 +18792,7 @@
         </is>
       </c>
       <c r="D918" t="n">
-        <v>2665.5</v>
+        <v>2798.73</v>
       </c>
     </row>
     <row r="919">
@@ -18812,7 +18812,7 @@
         </is>
       </c>
       <c r="D919" t="n">
-        <v>2810.14</v>
+        <v>2939.24</v>
       </c>
     </row>
     <row r="920">
@@ -18832,7 +18832,7 @@
         </is>
       </c>
       <c r="D920" t="n">
-        <v>2490.58</v>
+        <v>3305.1</v>
       </c>
     </row>
     <row r="921">
@@ -18852,7 +18852,7 @@
         </is>
       </c>
       <c r="D921" t="n">
-        <v>1916.13</v>
+        <v>2810.05</v>
       </c>
     </row>
     <row r="922">
@@ -18932,7 +18932,7 @@
         </is>
       </c>
       <c r="D925" t="n">
-        <v>195.24</v>
+        <v>297.6</v>
       </c>
     </row>
     <row r="926">
@@ -18992,7 +18992,7 @@
         </is>
       </c>
       <c r="D928" t="n">
-        <v>15.48</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="929">
@@ -19012,7 +19012,7 @@
         </is>
       </c>
       <c r="D929" t="n">
-        <v>180.78</v>
+        <v>264.5</v>
       </c>
     </row>
     <row r="930">
@@ -19052,7 +19052,7 @@
         </is>
       </c>
       <c r="D931" t="n">
-        <v>223.32</v>
+        <v>356.4</v>
       </c>
     </row>
     <row r="932">
@@ -19072,7 +19072,7 @@
         </is>
       </c>
       <c r="D932" t="n">
-        <v>52.56</v>
+        <v>80.40000000000001</v>
       </c>
     </row>
     <row r="933">
@@ -19092,7 +19092,7 @@
         </is>
       </c>
       <c r="D933" t="n">
-        <v>140.4</v>
+        <v>179.1</v>
       </c>
     </row>
     <row r="934">
@@ -19112,7 +19112,7 @@
         </is>
       </c>
       <c r="D934" t="n">
-        <v>1530</v>
+        <v>2753.5</v>
       </c>
     </row>
     <row r="935">
@@ -19132,7 +19132,7 @@
         </is>
       </c>
       <c r="D935" t="n">
-        <v>281.31</v>
+        <v>521.84</v>
       </c>
     </row>
     <row r="936">
@@ -19192,7 +19192,7 @@
         </is>
       </c>
       <c r="D938" t="n">
-        <v>5.14</v>
+        <v>28.35</v>
       </c>
     </row>
     <row r="939">
@@ -19212,7 +19212,7 @@
         </is>
       </c>
       <c r="D939" t="n">
-        <v>1.45</v>
+        <v>50.44</v>
       </c>
     </row>
     <row r="940">
@@ -19232,7 +19232,7 @@
         </is>
       </c>
       <c r="D940" t="n">
-        <v>26.86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="941">
@@ -19252,7 +19252,7 @@
         </is>
       </c>
       <c r="D941" t="n">
-        <v>0</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="942">
@@ -19592,7 +19592,7 @@
         </is>
       </c>
       <c r="D958" t="n">
-        <v>0</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="959">
@@ -19612,7 +19612,7 @@
         </is>
       </c>
       <c r="D959" t="n">
-        <v>4.14</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="960">
@@ -20612,7 +20612,7 @@
         </is>
       </c>
       <c r="D1009" t="n">
-        <v>0</v>
+        <v>275.3</v>
       </c>
     </row>
     <row r="1010">
@@ -20632,7 +20632,7 @@
         </is>
       </c>
       <c r="D1010" t="n">
-        <v>128.16</v>
+        <v>174.7</v>
       </c>
     </row>
     <row r="1011">
@@ -20652,7 +20652,7 @@
         </is>
       </c>
       <c r="D1011" t="n">
-        <v>26.52</v>
+        <v>36.9</v>
       </c>
     </row>
     <row r="1012">
@@ -20672,7 +20672,7 @@
         </is>
       </c>
       <c r="D1012" t="n">
-        <v>129.84</v>
+        <v>191.2</v>
       </c>
     </row>
     <row r="1013">
@@ -22152,7 +22152,7 @@
         </is>
       </c>
       <c r="D1086" t="n">
-        <v>764.88</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="1087">
@@ -22172,7 +22172,7 @@
         </is>
       </c>
       <c r="D1087" t="n">
-        <v>1414.26</v>
+        <v>8241.4</v>
       </c>
     </row>
     <row r="1088">
@@ -22212,7 +22212,7 @@
         </is>
       </c>
       <c r="D1089" t="n">
-        <v>1050.48</v>
+        <v>1883.9</v>
       </c>
     </row>
     <row r="1090">
@@ -22232,7 +22232,7 @@
         </is>
       </c>
       <c r="D1090" t="n">
-        <v>3135.34</v>
+        <v>12331.82</v>
       </c>
     </row>
     <row r="1091">
@@ -22272,7 +22272,7 @@
         </is>
       </c>
       <c r="D1092" t="n">
-        <v>13249.44</v>
+        <v>46867.21</v>
       </c>
     </row>
     <row r="1093">
@@ -22292,7 +22292,7 @@
         </is>
       </c>
       <c r="D1093" t="n">
-        <v>449.34</v>
+        <v>2887.3</v>
       </c>
     </row>
     <row r="1094">
@@ -22312,7 +22312,7 @@
         </is>
       </c>
       <c r="D1094" t="n">
-        <v>1469.44</v>
+        <v>7530.7</v>
       </c>
     </row>
     <row r="1095">
@@ -22332,7 +22332,7 @@
         </is>
       </c>
       <c r="D1095" t="n">
-        <v>1297.5</v>
+        <v>30090.43</v>
       </c>
     </row>
     <row r="1096">
@@ -22352,7 +22352,7 @@
         </is>
       </c>
       <c r="D1096" t="n">
-        <v>95.7</v>
+        <v>628.39</v>
       </c>
     </row>
     <row r="1097">
@@ -22372,7 +22372,7 @@
         </is>
       </c>
       <c r="D1097" t="n">
-        <v>589.53</v>
+        <v>12243.6</v>
       </c>
     </row>
     <row r="1098">
@@ -22392,7 +22392,7 @@
         </is>
       </c>
       <c r="D1098" t="n">
-        <v>158.65</v>
+        <v>10742.5</v>
       </c>
     </row>
     <row r="1099">
@@ -22412,7 +22412,7 @@
         </is>
       </c>
       <c r="D1099" t="n">
-        <v>390.56</v>
+        <v>3594.5</v>
       </c>
     </row>
     <row r="1100">
@@ -22432,7 +22432,7 @@
         </is>
       </c>
       <c r="D1100" t="n">
-        <v>1630</v>
+        <v>6311</v>
       </c>
     </row>
     <row r="1101">
@@ -22452,7 +22452,7 @@
         </is>
       </c>
       <c r="D1101" t="n">
-        <v>1316</v>
+        <v>4719.5</v>
       </c>
     </row>
     <row r="1102">
@@ -23752,7 +23752,7 @@
         </is>
       </c>
       <c r="D1166" t="n">
-        <v>67.75</v>
+        <v>107.36</v>
       </c>
     </row>
     <row r="1167">
@@ -23832,7 +23832,7 @@
         </is>
       </c>
       <c r="D1170" t="n">
-        <v>10.62</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="1171">
@@ -23872,7 +23872,7 @@
         </is>
       </c>
       <c r="D1172" t="n">
-        <v>28.02</v>
+        <v>40.41</v>
       </c>
     </row>
     <row r="1173">
@@ -23892,7 +23892,7 @@
         </is>
       </c>
       <c r="D1173" t="n">
-        <v>49.97</v>
+        <v>80.66</v>
       </c>
     </row>
     <row r="1174">
@@ -23932,7 +23932,7 @@
         </is>
       </c>
       <c r="D1175" t="n">
-        <v>25.32</v>
+        <v>51.68</v>
       </c>
     </row>
     <row r="1176">
@@ -23952,7 +23952,7 @@
         </is>
       </c>
       <c r="D1176" t="n">
-        <v>14.96</v>
+        <v>22.47</v>
       </c>
     </row>
     <row r="1177">
@@ -24032,7 +24032,7 @@
         </is>
       </c>
       <c r="D1180" t="n">
-        <v>8.449999999999999</v>
+        <v>58.08</v>
       </c>
     </row>
     <row r="1181">
@@ -24052,7 +24052,7 @@
         </is>
       </c>
       <c r="D1181" t="n">
-        <v>0</v>
+        <v>5.54</v>
       </c>
     </row>
     <row r="1182">
@@ -24812,7 +24812,7 @@
         </is>
       </c>
       <c r="D1219" t="n">
-        <v>166.09</v>
+        <v>174.46</v>
       </c>
     </row>
     <row r="1220">
@@ -24832,7 +24832,7 @@
         </is>
       </c>
       <c r="D1220" t="n">
-        <v>94.88</v>
+        <v>103.25</v>
       </c>
     </row>
     <row r="1221">
@@ -24852,7 +24852,7 @@
         </is>
       </c>
       <c r="D1221" t="n">
-        <v>16.5</v>
+        <v>24.88</v>
       </c>
     </row>
     <row r="1222">
@@ -25212,7 +25212,7 @@
         </is>
       </c>
       <c r="D1239" t="n">
-        <v>166.09</v>
+        <v>174.46</v>
       </c>
     </row>
     <row r="1240">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="D1240" t="n">
-        <v>94.88</v>
+        <v>103.25</v>
       </c>
     </row>
     <row r="1241">
@@ -25252,7 +25252,7 @@
         </is>
       </c>
       <c r="D1241" t="n">
-        <v>16.5</v>
+        <v>24.88</v>
       </c>
     </row>
     <row r="1242">
@@ -25372,7 +25372,7 @@
         </is>
       </c>
       <c r="D1247" t="n">
-        <v>250.74</v>
+        <v>429.1</v>
       </c>
     </row>
     <row r="1248">
@@ -25392,7 +25392,7 @@
         </is>
       </c>
       <c r="D1248" t="n">
-        <v>138.84</v>
+        <v>214.3</v>
       </c>
     </row>
     <row r="1249">
@@ -25412,7 +25412,7 @@
         </is>
       </c>
       <c r="D1249" t="n">
-        <v>1157.94</v>
+        <v>1916.8</v>
       </c>
     </row>
     <row r="1250">
@@ -25432,7 +25432,7 @@
         </is>
       </c>
       <c r="D1250" t="n">
-        <v>54.06</v>
+        <v>92.90000000000001</v>
       </c>
     </row>
     <row r="1251">
@@ -25452,7 +25452,7 @@
         </is>
       </c>
       <c r="D1251" t="n">
-        <v>54.36</v>
+        <v>82</v>
       </c>
     </row>
     <row r="1252">
@@ -25472,7 +25472,7 @@
         </is>
       </c>
       <c r="D1252" t="n">
-        <v>2062.2</v>
+        <v>3420.2</v>
       </c>
     </row>
     <row r="1253">
@@ -25512,7 +25512,7 @@
         </is>
       </c>
       <c r="D1254" t="n">
-        <v>267.86</v>
+        <v>368.21</v>
       </c>
     </row>
     <row r="1255">
@@ -25532,7 +25532,7 @@
         </is>
       </c>
       <c r="D1255" t="n">
-        <v>891.45</v>
+        <v>1545.37</v>
       </c>
     </row>
     <row r="1256">
@@ -25592,7 +25592,7 @@
         </is>
       </c>
       <c r="D1258" t="n">
-        <v>5.08</v>
+        <v>29.4</v>
       </c>
     </row>
     <row r="1259">
@@ -25632,7 +25632,7 @@
         </is>
       </c>
       <c r="D1260" t="n">
-        <v>361.27</v>
+        <v>1251.06</v>
       </c>
     </row>
     <row r="1261">
@@ -25652,7 +25652,7 @@
         </is>
       </c>
       <c r="D1261" t="n">
-        <v>19.1</v>
+        <v>108.38</v>
       </c>
     </row>
     <row r="1262">

--- a/ec_2025_faro/xlsx/gasto_diario_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_diario_all.xlsx
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2227.5</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="53">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>770</v>
+        <v>852.5</v>
       </c>
     </row>
     <row r="56">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>408</v>
+        <v>566</v>
       </c>
     </row>
     <row r="67">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>298</v>
+        <v>519</v>
       </c>
     </row>
     <row r="68">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>3345.5</v>
       </c>
     </row>
     <row r="70">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.28</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="91">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>2979.02</v>
       </c>
     </row>
     <row r="94">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>737.5599999999999</v>
+        <v>790.88</v>
       </c>
     </row>
     <row r="108">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>770.15</v>
+        <v>828.3200000000001</v>
       </c>
     </row>
     <row r="109">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>416.2</v>
+        <v>462.47</v>
       </c>
     </row>
     <row r="110">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>749.2</v>
+        <v>795.47</v>
       </c>
     </row>
     <row r="111">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>1147.53</v>
+        <v>1193.8</v>
       </c>
     </row>
     <row r="112">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1482.76</v>
+        <v>1659.03</v>
       </c>
     </row>
     <row r="113">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1100.26</v>
+        <v>1276.53</v>
       </c>
     </row>
     <row r="114">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>784.4299999999999</v>
+        <v>1002.2</v>
       </c>
     </row>
     <row r="115">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>326.48</v>
+        <v>627.5</v>
       </c>
     </row>
     <row r="116">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>326.48</v>
+        <v>154.85</v>
       </c>
     </row>
     <row r="117">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1979.68</v>
+        <v>2032.99</v>
       </c>
     </row>
     <row r="131">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>2195.27</v>
+        <v>2253.43</v>
       </c>
     </row>
     <row r="132">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1781.24</v>
+        <v>1827.51</v>
       </c>
     </row>
     <row r="133">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2280.58</v>
+        <v>2326.85</v>
       </c>
     </row>
     <row r="134">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>4369.58</v>
+        <v>4415.85</v>
       </c>
     </row>
     <row r="135">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>5028.44</v>
+        <v>5284.71</v>
       </c>
     </row>
     <row r="136">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>3285.73</v>
+        <v>3542.01</v>
       </c>
     </row>
     <row r="137">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1886.23</v>
+        <v>2500.33</v>
       </c>
     </row>
     <row r="138">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>697.9400000000001</v>
+        <v>1594.3</v>
       </c>
     </row>
     <row r="139">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>697.9400000000001</v>
+        <v>274.65</v>
       </c>
     </row>
     <row r="140">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>168.2</v>
+        <v>187.44</v>
       </c>
     </row>
     <row r="144">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>71.8</v>
+        <v>79.42</v>
       </c>
     </row>
     <row r="145">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>45683.1</v>
+        <v>50400.35</v>
       </c>
     </row>
     <row r="147">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>48455.5</v>
+        <v>53788</v>
       </c>
     </row>
     <row r="151">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>44590</v>
+        <v>49362.5</v>
       </c>
     </row>
     <row r="152">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>841500</v>
+        <v>945000</v>
       </c>
     </row>
     <row r="153">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>32819.5</v>
+        <v>38016</v>
       </c>
     </row>
     <row r="154">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>61.81</v>
+        <v>71.84</v>
       </c>
     </row>
     <row r="155">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>36000</v>
+        <v>48818</v>
       </c>
     </row>
     <row r="156">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>20.92</v>
+        <v>26.9</v>
       </c>
     </row>
     <row r="157">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>366</v>
+        <v>1262.5</v>
       </c>
     </row>
     <row r="158">
@@ -4052,7 +4052,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>102085.14</v>
+        <v>136409.4</v>
       </c>
     </row>
     <row r="182">
@@ -4432,7 +4432,7 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>414.91</v>
+        <v>407.82</v>
       </c>
     </row>
     <row r="201">
@@ -4452,7 +4452,7 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>235.51</v>
+        <v>228.42</v>
       </c>
     </row>
     <row r="202">
@@ -4472,7 +4472,7 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>235.51</v>
+        <v>228.42</v>
       </c>
     </row>
     <row r="203">
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>829.51</v>
+        <v>812.52</v>
       </c>
     </row>
     <row r="204">
@@ -4512,7 +4512,7 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>700.21</v>
+        <v>683.22</v>
       </c>
     </row>
     <row r="205">
@@ -4532,7 +4532,7 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>106.21</v>
+        <v>89.22</v>
       </c>
     </row>
     <row r="206">
@@ -4552,7 +4552,7 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>304.21</v>
+        <v>287.23</v>
       </c>
     </row>
     <row r="207">
@@ -4572,7 +4572,7 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>198</v>
+        <v>287.23</v>
       </c>
     </row>
     <row r="208">
@@ -4892,7 +4892,7 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>702.73</v>
+        <v>700.96</v>
       </c>
     </row>
     <row r="224">
@@ -4912,7 +4912,7 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>443.53</v>
+        <v>441.76</v>
       </c>
     </row>
     <row r="225">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>443.53</v>
+        <v>441.76</v>
       </c>
     </row>
     <row r="226">
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>790.03</v>
+        <v>788.26</v>
       </c>
     </row>
     <row r="227">
@@ -4972,7 +4972,7 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>680.88</v>
+        <v>679.11</v>
       </c>
     </row>
     <row r="228">
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>217.71</v>
+        <v>199.45</v>
       </c>
     </row>
     <row r="229">
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>712.71</v>
+        <v>694.45</v>
       </c>
     </row>
     <row r="230">
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>495</v>
+        <v>540.38</v>
       </c>
     </row>
     <row r="231">
@@ -5132,7 +5132,7 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>6606</v>
+        <v>7350</v>
       </c>
     </row>
     <row r="236">
@@ -5152,7 +5152,7 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>716.4299999999999</v>
+        <v>794.21</v>
       </c>
     </row>
     <row r="237">
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>4016.5</v>
+        <v>4445.98</v>
       </c>
     </row>
     <row r="238">
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>189.2</v>
+        <v>213.57</v>
       </c>
     </row>
     <row r="239">
@@ -5212,7 +5212,7 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>1066.6</v>
+        <v>1191.06</v>
       </c>
     </row>
     <row r="240">
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>393.11</v>
+        <v>440.62</v>
       </c>
     </row>
     <row r="241">
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>826.47</v>
+        <v>928.7</v>
       </c>
     </row>
     <row r="243">
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>605.3</v>
+        <v>673.97</v>
       </c>
     </row>
     <row r="244">
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>1238.39</v>
+        <v>1390.7</v>
       </c>
     </row>
     <row r="245">
@@ -5332,7 +5332,7 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>98.56</v>
+        <v>113.04</v>
       </c>
     </row>
     <row r="246">
@@ -5352,7 +5352,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>11025.38</v>
+        <v>12441.34</v>
       </c>
     </row>
     <row r="247">
@@ -5372,7 +5372,7 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>111.18</v>
+        <v>132.23</v>
       </c>
     </row>
     <row r="248">
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>697.65</v>
+        <v>854.6</v>
       </c>
     </row>
     <row r="249">
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>218.36</v>
+        <v>278.75</v>
       </c>
     </row>
     <row r="250">
@@ -5432,7 +5432,7 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>189.06</v>
+        <v>263.44</v>
       </c>
     </row>
     <row r="251">
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>75.38</v>
+        <v>118.47</v>
       </c>
     </row>
     <row r="252">
@@ -5472,7 +5472,7 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>27.38</v>
+        <v>58.26</v>
       </c>
     </row>
     <row r="253">
@@ -5512,7 +5512,7 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>0</v>
+        <v>179.5</v>
       </c>
     </row>
     <row r="255">
@@ -5892,7 +5892,7 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>259.86</v>
+        <v>348.04</v>
       </c>
     </row>
     <row r="274">
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="275">
@@ -6972,7 +6972,7 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>645.52</v>
+        <v>723.4</v>
       </c>
     </row>
     <row r="328">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>150.5</v>
+        <v>166.65</v>
       </c>
     </row>
     <row r="329">
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>1326</v>
+        <v>1459.81</v>
       </c>
     </row>
     <row r="330">
@@ -7032,7 +7032,7 @@
         </is>
       </c>
       <c r="D330" t="n">
-        <v>8577.9</v>
+        <v>9597.459999999999</v>
       </c>
     </row>
     <row r="331">
@@ -7052,7 +7052,7 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>529.12</v>
+        <v>602.1</v>
       </c>
     </row>
     <row r="332">
@@ -7072,7 +7072,7 @@
         </is>
       </c>
       <c r="D332" t="n">
-        <v>851.8</v>
+        <v>965</v>
       </c>
     </row>
     <row r="333">
@@ -7092,7 +7092,7 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>7526.7</v>
+        <v>8348.450000000001</v>
       </c>
     </row>
     <row r="334">
@@ -7112,7 +7112,7 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>350.8</v>
+        <v>388.63</v>
       </c>
     </row>
     <row r="335">
@@ -7132,7 +7132,7 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>15715.1</v>
+        <v>17436.77</v>
       </c>
     </row>
     <row r="336">
@@ -7152,7 +7152,7 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>477.2</v>
+        <v>527.9299999999999</v>
       </c>
     </row>
     <row r="337">
@@ -7172,7 +7172,7 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>99.2</v>
+        <v>112.86</v>
       </c>
     </row>
     <row r="338">
@@ -7192,7 +7192,7 @@
         </is>
       </c>
       <c r="D338" t="n">
-        <v>7941</v>
+        <v>9331</v>
       </c>
     </row>
     <row r="339">
@@ -7212,7 +7212,7 @@
         </is>
       </c>
       <c r="D339" t="n">
-        <v>46.35</v>
+        <v>56.58</v>
       </c>
     </row>
     <row r="340">
@@ -7232,7 +7232,7 @@
         </is>
       </c>
       <c r="D340" t="n">
-        <v>272.87</v>
+        <v>320.88</v>
       </c>
     </row>
     <row r="341">
@@ -7252,7 +7252,7 @@
         </is>
       </c>
       <c r="D341" t="n">
-        <v>180</v>
+        <v>227.58</v>
       </c>
     </row>
     <row r="342">
@@ -7272,7 +7272,7 @@
         </is>
       </c>
       <c r="D342" t="n">
-        <v>1360.74</v>
+        <v>1842.12</v>
       </c>
     </row>
     <row r="343">
@@ -7292,7 +7292,7 @@
         </is>
       </c>
       <c r="D343" t="n">
-        <v>2183.41</v>
+        <v>3322.73</v>
       </c>
     </row>
     <row r="344">
@@ -7312,7 +7312,7 @@
         </is>
       </c>
       <c r="D344" t="n">
-        <v>193.66</v>
+        <v>306.78</v>
       </c>
     </row>
     <row r="345">
@@ -7332,7 +7332,7 @@
         </is>
       </c>
       <c r="D345" t="n">
-        <v>145</v>
+        <v>487.04</v>
       </c>
     </row>
     <row r="346">
@@ -7352,7 +7352,7 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>0</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="347">
@@ -7712,7 +7712,7 @@
         </is>
       </c>
       <c r="D364" t="n">
-        <v>31.46</v>
+        <v>32.1</v>
       </c>
     </row>
     <row r="365">
@@ -7732,7 +7732,7 @@
         </is>
       </c>
       <c r="D365" t="n">
-        <v>1.41</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="366">
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>0.31</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="368">
@@ -7792,7 +7792,7 @@
         </is>
       </c>
       <c r="D368" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="369">
@@ -7812,7 +7812,7 @@
         </is>
       </c>
       <c r="D369" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="370">
@@ -8152,7 +8152,7 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>44.2</v>
+        <v>45.38</v>
       </c>
     </row>
     <row r="387">
@@ -8172,7 +8172,7 @@
         </is>
       </c>
       <c r="D387" t="n">
-        <v>448.45</v>
+        <v>451.28</v>
       </c>
     </row>
     <row r="388">
@@ -8192,7 +8192,7 @@
         </is>
       </c>
       <c r="D388" t="n">
-        <v>359.35</v>
+        <v>364.65</v>
       </c>
     </row>
     <row r="389">
@@ -8212,7 +8212,7 @@
         </is>
       </c>
       <c r="D389" t="n">
-        <v>49.97</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="390">
@@ -8232,7 +8232,7 @@
         </is>
       </c>
       <c r="D390" t="n">
-        <v>49.97</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="391">
@@ -8252,7 +8252,7 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>49.97</v>
+        <v>113.02</v>
       </c>
     </row>
     <row r="392">
@@ -8272,7 +8272,7 @@
         </is>
       </c>
       <c r="D392" t="n">
-        <v>49.97</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="393">
@@ -8612,7 +8612,7 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>530.95</v>
+        <v>532.12</v>
       </c>
     </row>
     <row r="410">
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>1380.7</v>
+        <v>1383.52</v>
       </c>
     </row>
     <row r="411">
@@ -8652,7 +8652,7 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>1352.65</v>
+        <v>1324.95</v>
       </c>
     </row>
     <row r="412">
@@ -8672,7 +8672,7 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>424.52</v>
+        <v>405.08</v>
       </c>
     </row>
     <row r="413">
@@ -8692,7 +8692,7 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>490.52</v>
+        <v>471.08</v>
       </c>
     </row>
     <row r="414">
@@ -8712,7 +8712,7 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>160.52</v>
+        <v>322.58</v>
       </c>
     </row>
     <row r="415">
@@ -8732,7 +8732,7 @@
         </is>
       </c>
       <c r="D415" t="n">
-        <v>160.52</v>
+        <v>160.05</v>
       </c>
     </row>
     <row r="416">
@@ -8812,7 +8812,7 @@
         </is>
       </c>
       <c r="D419" t="n">
-        <v>218.6</v>
+        <v>242.99</v>
       </c>
     </row>
     <row r="420">
@@ -8832,7 +8832,7 @@
         </is>
       </c>
       <c r="D420" t="n">
-        <v>52.8</v>
+        <v>58.19</v>
       </c>
     </row>
     <row r="421">
@@ -8872,7 +8872,7 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>196.2</v>
+        <v>220</v>
       </c>
     </row>
     <row r="423">
@@ -8892,7 +8892,7 @@
         </is>
       </c>
       <c r="D423" t="n">
-        <v>327.8</v>
+        <v>363</v>
       </c>
     </row>
     <row r="424">
@@ -8912,7 +8912,7 @@
         </is>
       </c>
       <c r="D424" t="n">
-        <v>563.87</v>
+        <v>618.65</v>
       </c>
     </row>
     <row r="425">
@@ -8932,7 +8932,7 @@
         </is>
       </c>
       <c r="D425" t="n">
-        <v>96.7</v>
+        <v>99.33</v>
       </c>
     </row>
     <row r="426">
@@ -8952,7 +8952,7 @@
         </is>
       </c>
       <c r="D426" t="n">
-        <v>291.4</v>
+        <v>326.26</v>
       </c>
     </row>
     <row r="427">
@@ -8972,7 +8972,7 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>594.22</v>
+        <v>645.6900000000001</v>
       </c>
     </row>
     <row r="428">
@@ -9032,7 +9032,7 @@
         </is>
       </c>
       <c r="D430" t="n">
-        <v>64.89</v>
+        <v>74.23999999999999</v>
       </c>
     </row>
     <row r="431">
@@ -9052,7 +9052,7 @@
         </is>
       </c>
       <c r="D431" t="n">
-        <v>959</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="432">
@@ -9072,7 +9072,7 @@
         </is>
       </c>
       <c r="D432" t="n">
-        <v>149.34</v>
+        <v>177.73</v>
       </c>
     </row>
     <row r="433">
@@ -9092,7 +9092,7 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>333.04</v>
+        <v>426.1</v>
       </c>
     </row>
     <row r="434">
@@ -9112,7 +9112,7 @@
         </is>
       </c>
       <c r="D434" t="n">
-        <v>1400.82</v>
+        <v>1885.88</v>
       </c>
     </row>
     <row r="435">
@@ -9132,7 +9132,7 @@
         </is>
       </c>
       <c r="D435" t="n">
-        <v>18.16</v>
+        <v>28.14</v>
       </c>
     </row>
     <row r="436">
@@ -9152,7 +9152,7 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>9.52</v>
+        <v>21.06</v>
       </c>
     </row>
     <row r="437">
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>5.15</v>
+        <v>12.96</v>
       </c>
     </row>
     <row r="438">
@@ -9632,7 +9632,7 @@
         </is>
       </c>
       <c r="D460" t="n">
-        <v>0.3</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="461">
@@ -10012,7 +10012,7 @@
         </is>
       </c>
       <c r="D479" t="n">
-        <v>1535.68</v>
+        <v>1544.87</v>
       </c>
     </row>
     <row r="480">
@@ -10032,7 +10032,7 @@
         </is>
       </c>
       <c r="D480" t="n">
-        <v>1401.33</v>
+        <v>1420.52</v>
       </c>
     </row>
     <row r="481">
@@ -10052,7 +10052,7 @@
         </is>
       </c>
       <c r="D481" t="n">
-        <v>292.61</v>
+        <v>311.8</v>
       </c>
     </row>
     <row r="482">
@@ -10072,7 +10072,7 @@
         </is>
       </c>
       <c r="D482" t="n">
-        <v>292.61</v>
+        <v>460.97</v>
       </c>
     </row>
     <row r="483">
@@ -10092,7 +10092,7 @@
         </is>
       </c>
       <c r="D483" t="n">
-        <v>255.23</v>
+        <v>460.97</v>
       </c>
     </row>
     <row r="484">
@@ -10112,7 +10112,7 @@
         </is>
       </c>
       <c r="D484" t="n">
-        <v>255.23</v>
+        <v>431.07</v>
       </c>
     </row>
     <row r="485">
@@ -10472,7 +10472,7 @@
         </is>
       </c>
       <c r="D502" t="n">
-        <v>1311.76</v>
+        <v>1320.96</v>
       </c>
     </row>
     <row r="503">
@@ -10492,7 +10492,7 @@
         </is>
       </c>
       <c r="D503" t="n">
-        <v>1281.86</v>
+        <v>1301.06</v>
       </c>
     </row>
     <row r="504">
@@ -10512,7 +10512,7 @@
         </is>
       </c>
       <c r="D504" t="n">
-        <v>173.14</v>
+        <v>192.33</v>
       </c>
     </row>
     <row r="505">
@@ -10532,7 +10532,7 @@
         </is>
       </c>
       <c r="D505" t="n">
-        <v>173.14</v>
+        <v>275.17</v>
       </c>
     </row>
     <row r="506">
@@ -10552,7 +10552,7 @@
         </is>
       </c>
       <c r="D506" t="n">
-        <v>135.77</v>
+        <v>275.17</v>
       </c>
     </row>
     <row r="507">
@@ -10572,7 +10572,7 @@
         </is>
       </c>
       <c r="D507" t="n">
-        <v>135.77</v>
+        <v>245.27</v>
       </c>
     </row>
     <row r="508">
@@ -10672,7 +10672,7 @@
         </is>
       </c>
       <c r="D512" t="n">
-        <v>1858.5</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="513">
@@ -10692,7 +10692,7 @@
         </is>
       </c>
       <c r="D513" t="n">
-        <v>7790</v>
+        <v>8607.5</v>
       </c>
     </row>
     <row r="514">
@@ -10712,7 +10712,7 @@
         </is>
       </c>
       <c r="D514" t="n">
-        <v>1400</v>
+        <v>1556.5</v>
       </c>
     </row>
     <row r="515">
@@ -10732,7 +10732,7 @@
         </is>
       </c>
       <c r="D515" t="n">
-        <v>895.76</v>
+        <v>993.52</v>
       </c>
     </row>
     <row r="516">
@@ -10752,7 +10752,7 @@
         </is>
       </c>
       <c r="D516" t="n">
-        <v>335.34</v>
+        <v>377.2</v>
       </c>
     </row>
     <row r="517">
@@ -10792,7 +10792,7 @@
         </is>
       </c>
       <c r="D518" t="n">
-        <v>2960</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="519">
@@ -10812,7 +10812,7 @@
         </is>
       </c>
       <c r="D519" t="n">
-        <v>6043.5</v>
+        <v>6740</v>
       </c>
     </row>
     <row r="520">
@@ -10832,7 +10832,7 @@
         </is>
       </c>
       <c r="D520" t="n">
-        <v>954</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="521">
@@ -10912,7 +10912,7 @@
         </is>
       </c>
       <c r="D524" t="n">
-        <v>1685</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="525">
@@ -10932,7 +10932,7 @@
         </is>
       </c>
       <c r="D525" t="n">
-        <v>696</v>
+        <v>880</v>
       </c>
     </row>
     <row r="526">
@@ -10992,7 +10992,7 @@
         </is>
       </c>
       <c r="D528" t="n">
-        <v>85.76000000000001</v>
+        <v>205.8</v>
       </c>
     </row>
     <row r="529">
@@ -11012,7 +11012,7 @@
         </is>
       </c>
       <c r="D529" t="n">
-        <v>0</v>
+        <v>14.18</v>
       </c>
     </row>
     <row r="530">
@@ -11872,7 +11872,7 @@
         </is>
       </c>
       <c r="D572" t="n">
-        <v>48.68</v>
+        <v>44.55</v>
       </c>
     </row>
     <row r="573">
@@ -11892,7 +11892,7 @@
         </is>
       </c>
       <c r="D573" t="n">
-        <v>38.78</v>
+        <v>34.65</v>
       </c>
     </row>
     <row r="574">
@@ -11912,7 +11912,7 @@
         </is>
       </c>
       <c r="D574" t="n">
-        <v>26.4</v>
+        <v>22.28</v>
       </c>
     </row>
     <row r="575">
@@ -11932,7 +11932,7 @@
         </is>
       </c>
       <c r="D575" t="n">
-        <v>9.9</v>
+        <v>22.28</v>
       </c>
     </row>
     <row r="576">
@@ -12332,7 +12332,7 @@
         </is>
       </c>
       <c r="D595" t="n">
-        <v>48.68</v>
+        <v>44.55</v>
       </c>
     </row>
     <row r="596">
@@ -12352,7 +12352,7 @@
         </is>
       </c>
       <c r="D596" t="n">
-        <v>38.78</v>
+        <v>34.65</v>
       </c>
     </row>
     <row r="597">
@@ -12372,7 +12372,7 @@
         </is>
       </c>
       <c r="D597" t="n">
-        <v>26.4</v>
+        <v>22.28</v>
       </c>
     </row>
     <row r="598">
@@ -12392,7 +12392,7 @@
         </is>
       </c>
       <c r="D598" t="n">
-        <v>9.9</v>
+        <v>22.28</v>
       </c>
     </row>
     <row r="599">
@@ -12532,7 +12532,7 @@
         </is>
       </c>
       <c r="D605" t="n">
-        <v>895</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="606">
@@ -12552,7 +12552,7 @@
         </is>
       </c>
       <c r="D606" t="n">
-        <v>5248</v>
+        <v>5835</v>
       </c>
     </row>
     <row r="607">
@@ -12572,7 +12572,7 @@
         </is>
       </c>
       <c r="D607" t="n">
-        <v>1878.75</v>
+        <v>2125.25</v>
       </c>
     </row>
     <row r="608">
@@ -12612,7 +12612,7 @@
         </is>
       </c>
       <c r="D609" t="n">
-        <v>2855</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="610">
@@ -12632,7 +12632,7 @@
         </is>
       </c>
       <c r="D610" t="n">
-        <v>3085</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="611">
@@ -12652,7 +12652,7 @@
         </is>
       </c>
       <c r="D611" t="n">
-        <v>348</v>
+        <v>399.63</v>
       </c>
     </row>
     <row r="612">
@@ -12672,7 +12672,7 @@
         </is>
       </c>
       <c r="D612" t="n">
-        <v>791.6799999999999</v>
+        <v>897.72</v>
       </c>
     </row>
     <row r="613">
@@ -12692,7 +12692,7 @@
         </is>
       </c>
       <c r="D613" t="n">
-        <v>6748</v>
+        <v>7839</v>
       </c>
     </row>
     <row r="614">
@@ -12732,7 +12732,7 @@
         </is>
       </c>
       <c r="D615" t="n">
-        <v>3768</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="616">
@@ -12752,7 +12752,7 @@
         </is>
       </c>
       <c r="D616" t="n">
-        <v>5967.5</v>
+        <v>7308</v>
       </c>
     </row>
     <row r="617">
@@ -12772,7 +12772,7 @@
         </is>
       </c>
       <c r="D617" t="n">
-        <v>5446</v>
+        <v>7032.5</v>
       </c>
     </row>
     <row r="618">
@@ -12792,7 +12792,7 @@
         </is>
       </c>
       <c r="D618" t="n">
-        <v>5590.5</v>
+        <v>7566</v>
       </c>
     </row>
     <row r="619">
@@ -12812,7 +12812,7 @@
         </is>
       </c>
       <c r="D619" t="n">
-        <v>2193</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="620">
@@ -12852,7 +12852,7 @@
         </is>
       </c>
       <c r="D621" t="n">
-        <v>0</v>
+        <v>776</v>
       </c>
     </row>
     <row r="622">
@@ -14332,7 +14332,7 @@
         </is>
       </c>
       <c r="D695" t="n">
-        <v>2384</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="696">
@@ -14372,7 +14372,7 @@
         </is>
       </c>
       <c r="D697" t="n">
-        <v>90.09999999999999</v>
+        <v>99.55</v>
       </c>
     </row>
     <row r="698">
@@ -14392,7 +14392,7 @@
         </is>
       </c>
       <c r="D698" t="n">
-        <v>197.01</v>
+        <v>220.3</v>
       </c>
     </row>
     <row r="699">
@@ -14412,7 +14412,7 @@
         </is>
       </c>
       <c r="D699" t="n">
-        <v>1151.6</v>
+        <v>1278.42</v>
       </c>
     </row>
     <row r="700">
@@ -14432,7 +14432,7 @@
         </is>
       </c>
       <c r="D700" t="n">
-        <v>46.5</v>
+        <v>51.81</v>
       </c>
     </row>
     <row r="701">
@@ -14452,7 +14452,7 @@
         </is>
       </c>
       <c r="D701" t="n">
-        <v>524.45</v>
+        <v>590.4299999999999</v>
       </c>
     </row>
     <row r="702">
@@ -14472,7 +14472,7 @@
         </is>
       </c>
       <c r="D702" t="n">
-        <v>689.1</v>
+        <v>758.89</v>
       </c>
     </row>
     <row r="703">
@@ -14492,7 +14492,7 @@
         </is>
       </c>
       <c r="D703" t="n">
-        <v>365.4</v>
+        <v>411.03</v>
       </c>
     </row>
     <row r="704">
@@ -14512,7 +14512,7 @@
         </is>
       </c>
       <c r="D704" t="n">
-        <v>218.51</v>
+        <v>246.31</v>
       </c>
     </row>
     <row r="705">
@@ -14532,7 +14532,7 @@
         </is>
       </c>
       <c r="D705" t="n">
-        <v>171.84</v>
+        <v>195.66</v>
       </c>
     </row>
     <row r="706">
@@ -14592,7 +14592,7 @@
         </is>
       </c>
       <c r="D708" t="n">
-        <v>149.5</v>
+        <v>182.28</v>
       </c>
     </row>
     <row r="709">
@@ -14632,7 +14632,7 @@
         </is>
       </c>
       <c r="D710" t="n">
-        <v>219.04</v>
+        <v>287.64</v>
       </c>
     </row>
     <row r="711">
@@ -14652,7 +14652,7 @@
         </is>
       </c>
       <c r="D711" t="n">
-        <v>181.41</v>
+        <v>262.62</v>
       </c>
     </row>
     <row r="712">
@@ -14692,7 +14692,7 @@
         </is>
       </c>
       <c r="D713" t="n">
-        <v>0</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="714">
@@ -15092,7 +15092,7 @@
         </is>
       </c>
       <c r="D733" t="n">
-        <v>177.07</v>
+        <v>221.8</v>
       </c>
     </row>
     <row r="734">
@@ -15112,7 +15112,7 @@
         </is>
       </c>
       <c r="D734" t="n">
-        <v>113.52</v>
+        <v>153.08</v>
       </c>
     </row>
     <row r="735">
@@ -15132,7 +15132,7 @@
         </is>
       </c>
       <c r="D735" t="n">
-        <v>1.52</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="736">
@@ -15152,7 +15152,7 @@
         </is>
       </c>
       <c r="D736" t="n">
-        <v>1.12</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="737">
@@ -16192,7 +16192,7 @@
         </is>
       </c>
       <c r="D788" t="n">
-        <v>223.83</v>
+        <v>249.1</v>
       </c>
     </row>
     <row r="789">
@@ -16212,7 +16212,7 @@
         </is>
       </c>
       <c r="D789" t="n">
-        <v>670.02</v>
+        <v>711.9400000000001</v>
       </c>
     </row>
     <row r="790">
@@ -16252,7 +16252,7 @@
         </is>
       </c>
       <c r="D791" t="n">
-        <v>374.58</v>
+        <v>432.3</v>
       </c>
     </row>
     <row r="792">
@@ -16272,7 +16272,7 @@
         </is>
       </c>
       <c r="D792" t="n">
-        <v>630</v>
+        <v>753.5</v>
       </c>
     </row>
     <row r="793">
@@ -16292,7 +16292,7 @@
         </is>
       </c>
       <c r="D793" t="n">
-        <v>1841.6</v>
+        <v>2108.15</v>
       </c>
     </row>
     <row r="794">
@@ -16332,7 +16332,7 @@
         </is>
       </c>
       <c r="D795" t="n">
-        <v>60</v>
+        <v>66.98999999999999</v>
       </c>
     </row>
     <row r="796">
@@ -16372,7 +16372,7 @@
         </is>
       </c>
       <c r="D797" t="n">
-        <v>39968</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="798">
@@ -16392,7 +16392,7 @@
         </is>
       </c>
       <c r="D798" t="n">
-        <v>520</v>
+        <v>616.5</v>
       </c>
     </row>
     <row r="799">
@@ -16472,7 +16472,7 @@
         </is>
       </c>
       <c r="D802" t="n">
-        <v>2430.18</v>
+        <v>3439.96</v>
       </c>
     </row>
     <row r="803">
@@ -16512,7 +16512,7 @@
         </is>
       </c>
       <c r="D804" t="n">
-        <v>39.14</v>
+        <v>109.24</v>
       </c>
     </row>
     <row r="805">
@@ -16532,7 +16532,7 @@
         </is>
       </c>
       <c r="D805" t="n">
-        <v>0</v>
+        <v>145.71</v>
       </c>
     </row>
     <row r="806">
@@ -16552,7 +16552,7 @@
         </is>
       </c>
       <c r="D806" t="n">
-        <v>0</v>
+        <v>13.82</v>
       </c>
     </row>
     <row r="807">
@@ -16932,7 +16932,7 @@
         </is>
       </c>
       <c r="D825" t="n">
-        <v>19.38</v>
+        <v>26.16</v>
       </c>
     </row>
     <row r="826">
@@ -17992,7 +17992,7 @@
         </is>
       </c>
       <c r="D878" t="n">
-        <v>859.5</v>
+        <v>990</v>
       </c>
     </row>
     <row r="879">
@@ -18012,7 +18012,7 @@
         </is>
       </c>
       <c r="D879" t="n">
-        <v>1002.4</v>
+        <v>1105.39</v>
       </c>
     </row>
     <row r="880">
@@ -18032,7 +18032,7 @@
         </is>
       </c>
       <c r="D880" t="n">
-        <v>2433.7</v>
+        <v>2706.44</v>
       </c>
     </row>
     <row r="881">
@@ -18052,7 +18052,7 @@
         </is>
       </c>
       <c r="D881" t="n">
-        <v>12475</v>
+        <v>13982</v>
       </c>
     </row>
     <row r="882">
@@ -18092,7 +18092,7 @@
         </is>
       </c>
       <c r="D883" t="n">
-        <v>4511</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="884">
@@ -18112,7 +18112,7 @@
         </is>
       </c>
       <c r="D884" t="n">
-        <v>4397.5</v>
+        <v>4897</v>
       </c>
     </row>
     <row r="885">
@@ -18152,7 +18152,7 @@
         </is>
       </c>
       <c r="D886" t="n">
-        <v>1230</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="887">
@@ -18192,7 +18192,7 @@
         </is>
       </c>
       <c r="D888" t="n">
-        <v>2596.5</v>
+        <v>2817.5</v>
       </c>
     </row>
     <row r="889">
@@ -18212,7 +18212,7 @@
         </is>
       </c>
       <c r="D889" t="n">
-        <v>8434.5</v>
+        <v>9588</v>
       </c>
     </row>
     <row r="890">
@@ -18232,7 +18232,7 @@
         </is>
       </c>
       <c r="D890" t="n">
-        <v>3143.06</v>
+        <v>3686.7</v>
       </c>
     </row>
     <row r="891">
@@ -18252,7 +18252,7 @@
         </is>
       </c>
       <c r="D891" t="n">
-        <v>417</v>
+        <v>497</v>
       </c>
     </row>
     <row r="892">
@@ -18272,7 +18272,7 @@
         </is>
       </c>
       <c r="D892" t="n">
-        <v>272.5</v>
+        <v>336</v>
       </c>
     </row>
     <row r="893">
@@ -18292,7 +18292,7 @@
         </is>
       </c>
       <c r="D893" t="n">
-        <v>1202</v>
+        <v>1481.95</v>
       </c>
     </row>
     <row r="894">
@@ -18312,7 +18312,7 @@
         </is>
       </c>
       <c r="D894" t="n">
-        <v>1653</v>
+        <v>2219.5</v>
       </c>
     </row>
     <row r="895">
@@ -18332,7 +18332,7 @@
         </is>
       </c>
       <c r="D895" t="n">
-        <v>1134</v>
+        <v>1714.5</v>
       </c>
     </row>
     <row r="896">
@@ -18352,7 +18352,7 @@
         </is>
       </c>
       <c r="D896" t="n">
-        <v>3024</v>
+        <v>5687</v>
       </c>
     </row>
     <row r="897">
@@ -18372,7 +18372,7 @@
         </is>
       </c>
       <c r="D897" t="n">
-        <v>21.93</v>
+        <v>457.08</v>
       </c>
     </row>
     <row r="898">
@@ -18392,7 +18392,7 @@
         </is>
       </c>
       <c r="D898" t="n">
-        <v>0</v>
+        <v>14.12</v>
       </c>
     </row>
     <row r="899">
@@ -18772,7 +18772,7 @@
         </is>
       </c>
       <c r="D917" t="n">
-        <v>2.52</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="918">
@@ -18792,7 +18792,7 @@
         </is>
       </c>
       <c r="D918" t="n">
-        <v>10.68</v>
+        <v>14.32</v>
       </c>
     </row>
     <row r="919">
@@ -18812,7 +18812,7 @@
         </is>
       </c>
       <c r="D919" t="n">
-        <v>543.3200000000001</v>
+        <v>1159.1</v>
       </c>
     </row>
     <row r="920">
@@ -18832,7 +18832,7 @@
         </is>
       </c>
       <c r="D920" t="n">
-        <v>16.2</v>
+        <v>37.56</v>
       </c>
     </row>
     <row r="921">
@@ -18852,7 +18852,7 @@
         </is>
       </c>
       <c r="D921" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="922">
@@ -19832,7 +19832,7 @@
         </is>
       </c>
       <c r="D970" t="n">
-        <v>34.65</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="971">
@@ -19892,7 +19892,7 @@
         </is>
       </c>
       <c r="D973" t="n">
-        <v>53.5</v>
+        <v>59.4</v>
       </c>
     </row>
     <row r="974">
@@ -19912,7 +19912,7 @@
         </is>
       </c>
       <c r="D974" t="n">
-        <v>29.2</v>
+        <v>32.34</v>
       </c>
     </row>
     <row r="975">
@@ -20052,7 +20052,7 @@
         </is>
       </c>
       <c r="D981" t="n">
-        <v>323.18</v>
+        <v>369.76</v>
       </c>
     </row>
     <row r="982">
@@ -20092,7 +20092,7 @@
         </is>
       </c>
       <c r="D983" t="n">
-        <v>50.04</v>
+        <v>59.71</v>
       </c>
     </row>
     <row r="984">
@@ -20132,7 +20132,7 @@
         </is>
       </c>
       <c r="D985" t="n">
-        <v>32.96</v>
+        <v>41.95</v>
       </c>
     </row>
     <row r="986">
@@ -20152,7 +20152,7 @@
         </is>
       </c>
       <c r="D986" t="n">
-        <v>528</v>
+        <v>710</v>
       </c>
     </row>
     <row r="987">
@@ -20172,7 +20172,7 @@
         </is>
       </c>
       <c r="D987" t="n">
-        <v>7.28</v>
+        <v>11.28</v>
       </c>
     </row>
     <row r="988">
@@ -20192,7 +20192,7 @@
         </is>
       </c>
       <c r="D988" t="n">
-        <v>33.86</v>
+        <v>59.89</v>
       </c>
     </row>
     <row r="989">
@@ -20212,7 +20212,7 @@
         </is>
       </c>
       <c r="D989" t="n">
-        <v>0</v>
+        <v>11.24</v>
       </c>
     </row>
     <row r="990">
@@ -20232,7 +20232,7 @@
         </is>
       </c>
       <c r="D990" t="n">
-        <v>0</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="991">
@@ -20672,7 +20672,7 @@
         </is>
       </c>
       <c r="D1012" t="n">
-        <v>2.52</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="1013">
@@ -20992,7 +20992,7 @@
         </is>
       </c>
       <c r="D1028" t="n">
-        <v>2110.33</v>
+        <v>2088.02</v>
       </c>
     </row>
     <row r="1029">
@@ -21012,7 +21012,7 @@
         </is>
       </c>
       <c r="D1029" t="n">
-        <v>2465.1</v>
+        <v>2421.4</v>
       </c>
     </row>
     <row r="1030">
@@ -21032,7 +21032,7 @@
         </is>
       </c>
       <c r="D1030" t="n">
-        <v>2382.6</v>
+        <v>2338.9</v>
       </c>
     </row>
     <row r="1031">
@@ -21052,7 +21052,7 @@
         </is>
       </c>
       <c r="D1031" t="n">
-        <v>2564.7</v>
+        <v>2529.33</v>
       </c>
     </row>
     <row r="1032">
@@ -21072,7 +21072,7 @@
         </is>
       </c>
       <c r="D1032" t="n">
-        <v>2016.36</v>
+        <v>2060.84</v>
       </c>
     </row>
     <row r="1033">
@@ -21092,7 +21092,7 @@
         </is>
       </c>
       <c r="D1033" t="n">
-        <v>1550.18</v>
+        <v>1594.66</v>
       </c>
     </row>
     <row r="1034">
@@ -21112,7 +21112,7 @@
         </is>
       </c>
       <c r="D1034" t="n">
-        <v>2424.34</v>
+        <v>2031.58</v>
       </c>
     </row>
     <row r="1035">
@@ -21132,7 +21132,7 @@
         </is>
       </c>
       <c r="D1035" t="n">
-        <v>713.22</v>
+        <v>1919.37</v>
       </c>
     </row>
     <row r="1036">
@@ -21152,7 +21152,7 @@
         </is>
       </c>
       <c r="D1036" t="n">
-        <v>713.22</v>
+        <v>554.95</v>
       </c>
     </row>
     <row r="1037">
@@ -21452,7 +21452,7 @@
         </is>
       </c>
       <c r="D1051" t="n">
-        <v>2458.82</v>
+        <v>2436.5</v>
       </c>
     </row>
     <row r="1052">
@@ -21472,7 +21472,7 @@
         </is>
       </c>
       <c r="D1052" t="n">
-        <v>2879.59</v>
+        <v>2835.88</v>
       </c>
     </row>
     <row r="1053">
@@ -21492,7 +21492,7 @@
         </is>
       </c>
       <c r="D1053" t="n">
-        <v>2788.84</v>
+        <v>2745.13</v>
       </c>
     </row>
     <row r="1054">
@@ -21512,7 +21512,7 @@
         </is>
       </c>
       <c r="D1054" t="n">
-        <v>2921.1</v>
+        <v>2885.73</v>
       </c>
     </row>
     <row r="1055">
@@ -21532,7 +21532,7 @@
         </is>
       </c>
       <c r="D1055" t="n">
-        <v>2449.66</v>
+        <v>2485.89</v>
       </c>
     </row>
     <row r="1056">
@@ -21552,7 +21552,7 @@
         </is>
       </c>
       <c r="D1056" t="n">
-        <v>1917.48</v>
+        <v>1953.71</v>
       </c>
     </row>
     <row r="1057">
@@ -21572,7 +21572,7 @@
         </is>
       </c>
       <c r="D1057" t="n">
-        <v>3088.64</v>
+        <v>2539.13</v>
       </c>
     </row>
     <row r="1058">
@@ -21592,7 +21592,7 @@
         </is>
       </c>
       <c r="D1058" t="n">
-        <v>981.52</v>
+        <v>2360.92</v>
       </c>
     </row>
     <row r="1059">
@@ -21612,7 +21612,7 @@
         </is>
       </c>
       <c r="D1059" t="n">
-        <v>981.52</v>
+        <v>823.25</v>
       </c>
     </row>
     <row r="1060">
@@ -21692,7 +21692,7 @@
         </is>
       </c>
       <c r="D1063" t="n">
-        <v>297.6</v>
+        <v>329.89</v>
       </c>
     </row>
     <row r="1064">
@@ -21752,7 +21752,7 @@
         </is>
       </c>
       <c r="D1066" t="n">
-        <v>25.5</v>
+        <v>28.16</v>
       </c>
     </row>
     <row r="1067">
@@ -21772,7 +21772,7 @@
         </is>
       </c>
       <c r="D1067" t="n">
-        <v>264.5</v>
+        <v>294.03</v>
       </c>
     </row>
     <row r="1068">
@@ -21812,7 +21812,7 @@
         </is>
       </c>
       <c r="D1069" t="n">
-        <v>356.4</v>
+        <v>396.44</v>
       </c>
     </row>
     <row r="1070">
@@ -21832,7 +21832,7 @@
         </is>
       </c>
       <c r="D1070" t="n">
-        <v>80.40000000000001</v>
+        <v>88.88</v>
       </c>
     </row>
     <row r="1071">
@@ -21852,7 +21852,7 @@
         </is>
       </c>
       <c r="D1071" t="n">
-        <v>179.1</v>
+        <v>200.86</v>
       </c>
     </row>
     <row r="1072">
@@ -21872,7 +21872,7 @@
         </is>
       </c>
       <c r="D1072" t="n">
-        <v>2753.5</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="1073">
@@ -21892,7 +21892,7 @@
         </is>
       </c>
       <c r="D1073" t="n">
-        <v>521.84</v>
+        <v>602.8200000000001</v>
       </c>
     </row>
     <row r="1074">
@@ -21952,7 +21952,7 @@
         </is>
       </c>
       <c r="D1076" t="n">
-        <v>28.35</v>
+        <v>34.26</v>
       </c>
     </row>
     <row r="1077">
@@ -21972,7 +21972,7 @@
         </is>
       </c>
       <c r="D1077" t="n">
-        <v>50.44</v>
+        <v>64.34999999999999</v>
       </c>
     </row>
     <row r="1078">
@@ -21992,7 +21992,7 @@
         </is>
       </c>
       <c r="D1078" t="n">
-        <v>87</v>
+        <v>118.92</v>
       </c>
     </row>
     <row r="1079">
@@ -22012,7 +22012,7 @@
         </is>
       </c>
       <c r="D1079" t="n">
-        <v>17.8</v>
+        <v>30.63</v>
       </c>
     </row>
     <row r="1080">
@@ -22032,7 +22032,7 @@
         </is>
       </c>
       <c r="D1080" t="n">
-        <v>141.5</v>
+        <v>314</v>
       </c>
     </row>
     <row r="1081">
@@ -22052,7 +22052,7 @@
         </is>
       </c>
       <c r="D1081" t="n">
-        <v>0</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="1082">
@@ -22492,7 +22492,7 @@
         </is>
       </c>
       <c r="D1103" t="n">
-        <v>1.94</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="1104">
@@ -22512,7 +22512,7 @@
         </is>
       </c>
       <c r="D1104" t="n">
-        <v>0.65</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="1105">
@@ -22532,7 +22532,7 @@
         </is>
       </c>
       <c r="D1105" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="1106">
@@ -23612,7 +23612,7 @@
         </is>
       </c>
       <c r="D1159" t="n">
-        <v>275.3</v>
+        <v>303.93</v>
       </c>
     </row>
     <row r="1160">
@@ -23632,7 +23632,7 @@
         </is>
       </c>
       <c r="D1160" t="n">
-        <v>174.7</v>
+        <v>193.05</v>
       </c>
     </row>
     <row r="1161">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="D1161" t="n">
-        <v>36.9</v>
+        <v>41.03</v>
       </c>
     </row>
     <row r="1162">
@@ -23672,7 +23672,7 @@
         </is>
       </c>
       <c r="D1162" t="n">
-        <v>191.2</v>
+        <v>211.2</v>
       </c>
     </row>
     <row r="1163">
@@ -25392,7 +25392,7 @@
         </is>
       </c>
       <c r="D1248" t="n">
-        <v>3145</v>
+        <v>3630</v>
       </c>
     </row>
     <row r="1249">
@@ -25412,7 +25412,7 @@
         </is>
       </c>
       <c r="D1249" t="n">
-        <v>8241.4</v>
+        <v>10219.22</v>
       </c>
     </row>
     <row r="1250">
@@ -25452,7 +25452,7 @@
         </is>
       </c>
       <c r="D1251" t="n">
-        <v>1883.9</v>
+        <v>2101.22</v>
       </c>
     </row>
     <row r="1252">
@@ -25472,7 +25472,7 @@
         </is>
       </c>
       <c r="D1252" t="n">
-        <v>12331.82</v>
+        <v>13770.4</v>
       </c>
     </row>
     <row r="1253">
@@ -25512,7 +25512,7 @@
         </is>
       </c>
       <c r="D1254" t="n">
-        <v>46867.21</v>
+        <v>52743.9</v>
       </c>
     </row>
     <row r="1255">
@@ -25532,7 +25532,7 @@
         </is>
       </c>
       <c r="D1255" t="n">
-        <v>2887.3</v>
+        <v>3474.68</v>
       </c>
     </row>
     <row r="1256">
@@ -25552,7 +25552,7 @@
         </is>
       </c>
       <c r="D1256" t="n">
-        <v>7530.7</v>
+        <v>8621.98</v>
       </c>
     </row>
     <row r="1257">
@@ -25572,7 +25572,7 @@
         </is>
       </c>
       <c r="D1257" t="n">
-        <v>30090.43</v>
+        <v>34344.41</v>
       </c>
     </row>
     <row r="1258">
@@ -25592,7 +25592,7 @@
         </is>
       </c>
       <c r="D1258" t="n">
-        <v>628.39</v>
+        <v>753.6</v>
       </c>
     </row>
     <row r="1259">
@@ -25612,7 +25612,7 @@
         </is>
       </c>
       <c r="D1259" t="n">
-        <v>12243.6</v>
+        <v>14708.65</v>
       </c>
     </row>
     <row r="1260">
@@ -25632,7 +25632,7 @@
         </is>
       </c>
       <c r="D1260" t="n">
-        <v>10742.5</v>
+        <v>13218</v>
       </c>
     </row>
     <row r="1261">
@@ -25652,7 +25652,7 @@
         </is>
       </c>
       <c r="D1261" t="n">
-        <v>3594.5</v>
+        <v>4622</v>
       </c>
     </row>
     <row r="1262">
@@ -25672,7 +25672,7 @@
         </is>
       </c>
       <c r="D1262" t="n">
-        <v>6311</v>
+        <v>8518</v>
       </c>
     </row>
     <row r="1263">
@@ -25692,7 +25692,7 @@
         </is>
       </c>
       <c r="D1263" t="n">
-        <v>4719.5</v>
+        <v>6563.5</v>
       </c>
     </row>
     <row r="1264">
@@ -25712,7 +25712,7 @@
         </is>
       </c>
       <c r="D1264" t="n">
-        <v>906.5</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="1265">
@@ -26172,7 +26172,7 @@
         </is>
       </c>
       <c r="D1287" t="n">
-        <v>10489.1</v>
+        <v>15945.15</v>
       </c>
     </row>
     <row r="1288">
@@ -27232,7 +27232,7 @@
         </is>
       </c>
       <c r="D1340" t="n">
-        <v>107.36</v>
+        <v>120.96</v>
       </c>
     </row>
     <row r="1341">
@@ -27312,7 +27312,7 @@
         </is>
       </c>
       <c r="D1344" t="n">
-        <v>17.2</v>
+        <v>19.14</v>
       </c>
     </row>
     <row r="1345">
@@ -27352,7 +27352,7 @@
         </is>
       </c>
       <c r="D1346" t="n">
-        <v>40.41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1347">
@@ -27372,7 +27372,7 @@
         </is>
       </c>
       <c r="D1347" t="n">
-        <v>80.66</v>
+        <v>89.83</v>
       </c>
     </row>
     <row r="1348">
@@ -27412,7 +27412,7 @@
         </is>
       </c>
       <c r="D1349" t="n">
-        <v>51.68</v>
+        <v>58.68</v>
       </c>
     </row>
     <row r="1350">
@@ -27432,7 +27432,7 @@
         </is>
       </c>
       <c r="D1350" t="n">
-        <v>22.47</v>
+        <v>25.84</v>
       </c>
     </row>
     <row r="1351">
@@ -27512,7 +27512,7 @@
         </is>
       </c>
       <c r="D1354" t="n">
-        <v>58.08</v>
+        <v>84.33</v>
       </c>
     </row>
     <row r="1355">
@@ -27532,7 +27532,7 @@
         </is>
       </c>
       <c r="D1355" t="n">
-        <v>5.54</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="1356">
@@ -27552,7 +27552,7 @@
         </is>
       </c>
       <c r="D1356" t="n">
-        <v>2.48</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="1357">
@@ -27572,7 +27572,7 @@
         </is>
       </c>
       <c r="D1357" t="n">
-        <v>0</v>
+        <v>11.67</v>
       </c>
     </row>
     <row r="1358">
@@ -29092,7 +29092,7 @@
         </is>
       </c>
       <c r="D1433" t="n">
-        <v>429.1</v>
+        <v>478.5</v>
       </c>
     </row>
     <row r="1434">
@@ -29112,7 +29112,7 @@
         </is>
       </c>
       <c r="D1434" t="n">
-        <v>214.3</v>
+        <v>238.26</v>
       </c>
     </row>
     <row r="1435">
@@ -29132,7 +29132,7 @@
         </is>
       </c>
       <c r="D1435" t="n">
-        <v>1916.8</v>
+        <v>2134.11</v>
       </c>
     </row>
     <row r="1436">
@@ -29152,7 +29152,7 @@
         </is>
       </c>
       <c r="D1436" t="n">
-        <v>92.90000000000001</v>
+        <v>103.18</v>
       </c>
     </row>
     <row r="1437">
@@ -29172,7 +29172,7 @@
         </is>
       </c>
       <c r="D1437" t="n">
-        <v>82</v>
+        <v>92.29000000000001</v>
       </c>
     </row>
     <row r="1438">
@@ -29192,7 +29192,7 @@
         </is>
       </c>
       <c r="D1438" t="n">
-        <v>3420.2</v>
+        <v>3774.87</v>
       </c>
     </row>
     <row r="1439">
@@ -29232,7 +29232,7 @@
         </is>
       </c>
       <c r="D1440" t="n">
-        <v>368.21</v>
+        <v>417.05</v>
       </c>
     </row>
     <row r="1441">
@@ -29252,7 +29252,7 @@
         </is>
       </c>
       <c r="D1441" t="n">
-        <v>1545.37</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="1442">
@@ -29312,7 +29312,7 @@
         </is>
       </c>
       <c r="D1444" t="n">
-        <v>29.4</v>
+        <v>36.84</v>
       </c>
     </row>
     <row r="1445">
@@ -29352,7 +29352,7 @@
         </is>
       </c>
       <c r="D1446" t="n">
-        <v>1251.06</v>
+        <v>1687.44</v>
       </c>
     </row>
     <row r="1447">
@@ -29372,7 +29372,7 @@
         </is>
       </c>
       <c r="D1447" t="n">
-        <v>108.38</v>
+        <v>154.53</v>
       </c>
     </row>
     <row r="1448">
@@ -29412,7 +29412,7 @@
         </is>
       </c>
       <c r="D1449" t="n">
-        <v>0</v>
+        <v>31.43</v>
       </c>
     </row>
     <row r="1450">

--- a/ec_2025_faro/xlsx/gasto_diario_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_diario_all.xlsx
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>709.76</v>
+        <v>725.14</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>734.27</v>
+        <v>752.2</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>368.42</v>
+        <v>386.35</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>701.42</v>
+        <v>719.35</v>
       </c>
     </row>
     <row r="15">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1099.75</v>
+        <v>1117.69</v>
       </c>
     </row>
     <row r="16">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1581.67</v>
+        <v>1599.6</v>
       </c>
     </row>
     <row r="17">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1199.17</v>
+        <v>1217.1</v>
       </c>
     </row>
     <row r="18">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>878.76</v>
+        <v>901.4400000000001</v>
       </c>
     </row>
     <row r="19">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>753.89</v>
+        <v>776.5700000000001</v>
       </c>
     </row>
     <row r="20">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1156.89</v>
+        <v>1254.46</v>
       </c>
     </row>
     <row r="21">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1331.39</v>
+        <v>1641.46</v>
       </c>
     </row>
     <row r="22">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>773.39</v>
+        <v>1183.46</v>
       </c>
     </row>
     <row r="23">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>773.39</v>
+        <v>1307.21</v>
       </c>
     </row>
     <row r="24">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>773.39</v>
+        <v>651.02</v>
       </c>
     </row>
     <row r="25">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1951.88</v>
+        <v>1967.25</v>
       </c>
     </row>
     <row r="35">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2159.38</v>
+        <v>2177.32</v>
       </c>
     </row>
     <row r="36">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1733.46</v>
+        <v>1751.4</v>
       </c>
     </row>
     <row r="37">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2232.8</v>
+        <v>2250.73</v>
       </c>
     </row>
     <row r="38">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>4321.8</v>
+        <v>4339.73</v>
       </c>
     </row>
     <row r="39">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5227.35</v>
+        <v>5245.28</v>
       </c>
     </row>
     <row r="40">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3484.64</v>
+        <v>3502.57</v>
       </c>
     </row>
     <row r="41">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1991.54</v>
+        <v>2087.9</v>
       </c>
     </row>
     <row r="42">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1501.67</v>
+        <v>1598.03</v>
       </c>
     </row>
     <row r="43">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2444.26</v>
+        <v>2775.43</v>
       </c>
     </row>
     <row r="44">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2877.71</v>
+        <v>3421.71</v>
       </c>
     </row>
     <row r="45">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2153.55</v>
+        <v>3364.21</v>
       </c>
     </row>
     <row r="46">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1854.55</v>
+        <v>3487.96</v>
       </c>
     </row>
     <row r="47">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1854.55</v>
+        <v>1517.11</v>
       </c>
     </row>
     <row r="48">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>14217.07</v>
+        <v>14365.64</v>
       </c>
     </row>
     <row r="58">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>225361.14</v>
+        <v>227688.78</v>
       </c>
     </row>
     <row r="59">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>115153.4</v>
+        <v>116332.57</v>
       </c>
     </row>
     <row r="60">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>117674.4</v>
+        <v>119396.07</v>
       </c>
     </row>
     <row r="61">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>122729.41</v>
+        <v>124482.74</v>
       </c>
     </row>
     <row r="62">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>123126.4</v>
+        <v>124915.07</v>
       </c>
     </row>
     <row r="63">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>128632.21</v>
+        <v>130421.04</v>
       </c>
     </row>
     <row r="64">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>128632.21</v>
+        <v>130421.04</v>
       </c>
     </row>
     <row r="65">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>128632.21</v>
+        <v>130421.04</v>
       </c>
     </row>
     <row r="66">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>128632.21</v>
+        <v>130421.04</v>
       </c>
     </row>
     <row r="67">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>128632.21</v>
+        <v>130421.04</v>
       </c>
     </row>
     <row r="68">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>128712.71</v>
+        <v>130504.54</v>
       </c>
     </row>
     <row r="69">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>23922.71</v>
+        <v>24610.04</v>
       </c>
     </row>
     <row r="70">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>129961.89</v>
       </c>
     </row>
     <row r="71">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>836.2</v>
+        <v>842.63</v>
       </c>
     </row>
     <row r="150">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>3348.05</v>
+        <v>3365.21</v>
       </c>
     </row>
     <row r="151">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>2261.28</v>
+        <v>2271.42</v>
       </c>
     </row>
     <row r="152">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>2500.03</v>
+        <v>2511.9</v>
       </c>
     </row>
     <row r="153">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>2291.19</v>
+        <v>2302.18</v>
       </c>
     </row>
     <row r="154">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2601.42</v>
+        <v>2615.01</v>
       </c>
     </row>
     <row r="155">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>2695.43</v>
+        <v>2709.47</v>
       </c>
     </row>
     <row r="156">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>2693.69</v>
+        <v>2707.73</v>
       </c>
     </row>
     <row r="157">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>2769.71</v>
+        <v>2785.04</v>
       </c>
     </row>
     <row r="158">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>3045.21</v>
+        <v>3063.54</v>
       </c>
     </row>
     <row r="159">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>3101.47</v>
+        <v>3121.02</v>
       </c>
     </row>
     <row r="160">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>3111.88</v>
+        <v>3152.03</v>
       </c>
     </row>
     <row r="161">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>3028.76</v>
+        <v>3066.85</v>
       </c>
     </row>
     <row r="162">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>0</v>
+        <v>2817.25</v>
       </c>
     </row>
     <row r="163">
@@ -4072,7 +4072,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>99.06999999999999</v>
+        <v>99.28</v>
       </c>
     </row>
     <row r="183">
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>11.74</v>
+        <v>11.95</v>
       </c>
     </row>
     <row r="184">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>11.74</v>
+        <v>11.95</v>
       </c>
     </row>
     <row r="185">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>0</v>
+        <v>11.95</v>
       </c>
     </row>
     <row r="186">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>2735.07</v>
+        <v>2851.29</v>
       </c>
     </row>
     <row r="242">
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>7301.64</v>
+        <v>7565.58</v>
       </c>
     </row>
     <row r="243">
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>3552.07</v>
+        <v>3671.29</v>
       </c>
     </row>
     <row r="244">
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>4769.98</v>
+        <v>4914.7</v>
       </c>
     </row>
     <row r="245">
@@ -5332,7 +5332,7 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>5052.48</v>
+        <v>5197.7</v>
       </c>
     </row>
     <row r="246">
@@ -5352,7 +5352,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>5224.18</v>
+        <v>5378.95</v>
       </c>
     </row>
     <row r="247">
@@ -5372,7 +5372,7 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>5752.18</v>
+        <v>5913.45</v>
       </c>
     </row>
     <row r="248">
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>7820.68</v>
+        <v>8049.45</v>
       </c>
     </row>
     <row r="249">
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>8637.18</v>
+        <v>8891.950000000001</v>
       </c>
     </row>
     <row r="250">
@@ -5432,7 +5432,7 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>8869.219999999999</v>
+        <v>9133.719999999999</v>
       </c>
     </row>
     <row r="251">
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>10134.77</v>
+        <v>10506.87</v>
       </c>
     </row>
     <row r="252">
@@ -5472,7 +5472,7 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>11628.14</v>
+        <v>12149.78</v>
       </c>
     </row>
     <row r="253">
@@ -5492,7 +5492,7 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>10724.85</v>
+        <v>11205.95</v>
       </c>
     </row>
     <row r="254">
@@ -5512,7 +5512,7 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>0</v>
+        <v>11538.87</v>
       </c>
     </row>
     <row r="255">
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>599.22</v>
+        <v>599.39</v>
       </c>
     </row>
     <row r="275">
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>569.86</v>
+        <v>570.03</v>
       </c>
     </row>
     <row r="276">
@@ -5952,7 +5952,7 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>4.57</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="277">
@@ -5972,7 +5972,7 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>0</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="278">
@@ -7092,7 +7092,7 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>3734.98</v>
+        <v>3756.63</v>
       </c>
     </row>
     <row r="334">
@@ -7112,7 +7112,7 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>7430.08</v>
+        <v>7475.96</v>
       </c>
     </row>
     <row r="335">
@@ -7132,7 +7132,7 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>4199.54</v>
+        <v>4225.12</v>
       </c>
     </row>
     <row r="336">
@@ -7152,7 +7152,7 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>5172.86</v>
+        <v>5202.49</v>
       </c>
     </row>
     <row r="337">
@@ -7172,7 +7172,7 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>5210.33</v>
+        <v>5240.18</v>
       </c>
     </row>
     <row r="338">
@@ -7192,7 +7192,7 @@
         </is>
       </c>
       <c r="D338" t="n">
-        <v>3767.13</v>
+        <v>3790.82</v>
       </c>
     </row>
     <row r="339">
@@ -7212,7 +7212,7 @@
         </is>
       </c>
       <c r="D339" t="n">
-        <v>5740.88</v>
+        <v>5774.83</v>
       </c>
     </row>
     <row r="340">
@@ -7232,7 +7232,7 @@
         </is>
       </c>
       <c r="D340" t="n">
-        <v>6937.78</v>
+        <v>6978.46</v>
       </c>
     </row>
     <row r="341">
@@ -7252,7 +7252,7 @@
         </is>
       </c>
       <c r="D341" t="n">
-        <v>7259.06</v>
+        <v>7300.93</v>
       </c>
     </row>
     <row r="342">
@@ -7272,7 +7272,7 @@
         </is>
       </c>
       <c r="D342" t="n">
-        <v>7290.4</v>
+        <v>7332.45</v>
       </c>
     </row>
     <row r="343">
@@ -7292,7 +7292,7 @@
         </is>
       </c>
       <c r="D343" t="n">
-        <v>6747.57</v>
+        <v>6794.62</v>
       </c>
     </row>
     <row r="344">
@@ -7312,7 +7312,7 @@
         </is>
       </c>
       <c r="D344" t="n">
-        <v>6723.14</v>
+        <v>6776.11</v>
       </c>
     </row>
     <row r="345">
@@ -7332,7 +7332,7 @@
         </is>
       </c>
       <c r="D345" t="n">
-        <v>6664.6</v>
+        <v>6780.4</v>
       </c>
     </row>
     <row r="346">
@@ -7352,7 +7352,7 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>0</v>
+        <v>7464</v>
       </c>
     </row>
     <row r="347">
@@ -7752,7 +7752,7 @@
         </is>
       </c>
       <c r="D366" t="n">
-        <v>10.9</v>
+        <v>10.97</v>
       </c>
     </row>
     <row r="367">
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>13.21</v>
+        <v>13.35</v>
       </c>
     </row>
     <row r="368">
@@ -7792,7 +7792,7 @@
         </is>
       </c>
       <c r="D368" t="n">
-        <v>21.38</v>
+        <v>36.36</v>
       </c>
     </row>
     <row r="369">
@@ -7812,7 +7812,7 @@
         </is>
       </c>
       <c r="D369" t="n">
-        <v>0</v>
+        <v>37.81</v>
       </c>
     </row>
     <row r="370">
@@ -8172,7 +8172,7 @@
         </is>
       </c>
       <c r="D387" t="n">
-        <v>66.47</v>
+        <v>61.52</v>
       </c>
     </row>
     <row r="388">
@@ -8192,7 +8192,7 @@
         </is>
       </c>
       <c r="D388" t="n">
-        <v>66.47</v>
+        <v>61.52</v>
       </c>
     </row>
     <row r="389">
@@ -8212,7 +8212,7 @@
         </is>
       </c>
       <c r="D389" t="n">
-        <v>41.25</v>
+        <v>36.3</v>
       </c>
     </row>
     <row r="390">
@@ -8232,7 +8232,7 @@
         </is>
       </c>
       <c r="D390" t="n">
-        <v>74.25</v>
+        <v>69.3</v>
       </c>
     </row>
     <row r="391">
@@ -8252,7 +8252,7 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>33</v>
+        <v>77.55</v>
       </c>
     </row>
     <row r="392">
@@ -8272,7 +8272,7 @@
         </is>
       </c>
       <c r="D392" t="n">
-        <v>33</v>
+        <v>57.75</v>
       </c>
     </row>
     <row r="393">
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>254.57</v>
+        <v>249.62</v>
       </c>
     </row>
     <row r="411">
@@ -8652,7 +8652,7 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>205.07</v>
+        <v>200.12</v>
       </c>
     </row>
     <row r="412">
@@ -8672,7 +8672,7 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>135.3</v>
+        <v>130.35</v>
       </c>
     </row>
     <row r="413">
@@ -8692,7 +8692,7 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>160.05</v>
+        <v>155.1</v>
       </c>
     </row>
     <row r="414">
@@ -8712,7 +8712,7 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>99</v>
+        <v>143.55</v>
       </c>
     </row>
     <row r="415">
@@ -8732,7 +8732,7 @@
         </is>
       </c>
       <c r="D415" t="n">
-        <v>99</v>
+        <v>123.75</v>
       </c>
     </row>
     <row r="416">
@@ -8932,7 +8932,7 @@
         </is>
       </c>
       <c r="D425" t="n">
-        <v>224.37</v>
+        <v>225.52</v>
       </c>
     </row>
     <row r="426">
@@ -8952,7 +8952,7 @@
         </is>
       </c>
       <c r="D426" t="n">
-        <v>429.2</v>
+        <v>431.39</v>
       </c>
     </row>
     <row r="427">
@@ -8972,7 +8972,7 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>358.46</v>
+        <v>361.68</v>
       </c>
     </row>
     <row r="428">
@@ -8992,7 +8992,7 @@
         </is>
       </c>
       <c r="D428" t="n">
-        <v>405.57</v>
+        <v>409.05</v>
       </c>
     </row>
     <row r="429">
@@ -9012,7 +9012,7 @@
         </is>
       </c>
       <c r="D429" t="n">
-        <v>397.68</v>
+        <v>401.14</v>
       </c>
     </row>
     <row r="430">
@@ -9032,7 +9032,7 @@
         </is>
       </c>
       <c r="D430" t="n">
-        <v>482.02</v>
+        <v>485.47</v>
       </c>
     </row>
     <row r="431">
@@ -9052,7 +9052,7 @@
         </is>
       </c>
       <c r="D431" t="n">
-        <v>977.15</v>
+        <v>980.84</v>
       </c>
     </row>
     <row r="432">
@@ -9072,7 +9072,7 @@
         </is>
       </c>
       <c r="D432" t="n">
-        <v>987.47</v>
+        <v>991.35</v>
       </c>
     </row>
     <row r="433">
@@ -9092,7 +9092,7 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>1007.88</v>
+        <v>1012.43</v>
       </c>
     </row>
     <row r="434">
@@ -9112,7 +9112,7 @@
         </is>
       </c>
       <c r="D434" t="n">
-        <v>979.62</v>
+        <v>984.03</v>
       </c>
     </row>
     <row r="435">
@@ -9132,7 +9132,7 @@
         </is>
       </c>
       <c r="D435" t="n">
-        <v>1008.6</v>
+        <v>1013.64</v>
       </c>
     </row>
     <row r="436">
@@ -9152,7 +9152,7 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>1000.5</v>
+        <v>1005.48</v>
       </c>
     </row>
     <row r="437">
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>980.34</v>
+        <v>987.55</v>
       </c>
     </row>
     <row r="438">
@@ -9192,7 +9192,7 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>0</v>
+        <v>486.16</v>
       </c>
     </row>
     <row r="439">
@@ -9952,7 +9952,7 @@
         </is>
       </c>
       <c r="D476" t="n">
-        <v>1407.78</v>
+        <v>1446.67</v>
       </c>
     </row>
     <row r="477">
@@ -9972,7 +9972,7 @@
         </is>
       </c>
       <c r="D477" t="n">
-        <v>299.05</v>
+        <v>337.94</v>
       </c>
     </row>
     <row r="478">
@@ -9992,7 +9992,7 @@
         </is>
       </c>
       <c r="D478" t="n">
-        <v>458.55</v>
+        <v>497.44</v>
       </c>
     </row>
     <row r="479">
@@ -10012,7 +10012,7 @@
         </is>
       </c>
       <c r="D479" t="n">
-        <v>458.55</v>
+        <v>497.44</v>
       </c>
     </row>
     <row r="480">
@@ -10032,7 +10032,7 @@
         </is>
       </c>
       <c r="D480" t="n">
-        <v>578.55</v>
+        <v>654.92</v>
       </c>
     </row>
     <row r="481">
@@ -10052,7 +10052,7 @@
         </is>
       </c>
       <c r="D481" t="n">
-        <v>665.9299999999999</v>
+        <v>788.08</v>
       </c>
     </row>
     <row r="482">
@@ -10072,7 +10072,7 @@
         </is>
       </c>
       <c r="D482" t="n">
-        <v>619.96</v>
+        <v>775.12</v>
       </c>
     </row>
     <row r="483">
@@ -10092,7 +10092,7 @@
         </is>
       </c>
       <c r="D483" t="n">
-        <v>303.83</v>
+        <v>533.24</v>
       </c>
     </row>
     <row r="484">
@@ -10112,7 +10112,7 @@
         </is>
       </c>
       <c r="D484" t="n">
-        <v>303.83</v>
+        <v>212.69</v>
       </c>
     </row>
     <row r="485">
@@ -10412,7 +10412,7 @@
         </is>
       </c>
       <c r="D499" t="n">
-        <v>1291.53</v>
+        <v>1330.42</v>
       </c>
     </row>
     <row r="500">
@@ -10432,7 +10432,7 @@
         </is>
       </c>
       <c r="D500" t="n">
-        <v>182.8</v>
+        <v>221.69</v>
       </c>
     </row>
     <row r="501">
@@ -10452,7 +10452,7 @@
         </is>
       </c>
       <c r="D501" t="n">
-        <v>282.5</v>
+        <v>321.39</v>
       </c>
     </row>
     <row r="502">
@@ -10472,7 +10472,7 @@
         </is>
       </c>
       <c r="D502" t="n">
-        <v>282.5</v>
+        <v>321.39</v>
       </c>
     </row>
     <row r="503">
@@ -10492,7 +10492,7 @@
         </is>
       </c>
       <c r="D503" t="n">
-        <v>402.5</v>
+        <v>478.87</v>
       </c>
     </row>
     <row r="504">
@@ -10512,7 +10512,7 @@
         </is>
       </c>
       <c r="D504" t="n">
-        <v>489.88</v>
+        <v>612.03</v>
       </c>
     </row>
     <row r="505">
@@ -10532,7 +10532,7 @@
         </is>
       </c>
       <c r="D505" t="n">
-        <v>460.41</v>
+        <v>582.5700000000001</v>
       </c>
     </row>
     <row r="506">
@@ -10552,7 +10552,7 @@
         </is>
       </c>
       <c r="D506" t="n">
-        <v>303.83</v>
+        <v>450.74</v>
       </c>
     </row>
     <row r="507">
@@ -10572,7 +10572,7 @@
         </is>
       </c>
       <c r="D507" t="n">
-        <v>303.83</v>
+        <v>130.19</v>
       </c>
     </row>
     <row r="508">
@@ -10772,7 +10772,7 @@
         </is>
       </c>
       <c r="D517" t="n">
-        <v>2260.26</v>
+        <v>2264.03</v>
       </c>
     </row>
     <row r="518">
@@ -10792,7 +10792,7 @@
         </is>
       </c>
       <c r="D518" t="n">
-        <v>4516.08</v>
+        <v>4522.06</v>
       </c>
     </row>
     <row r="519">
@@ -10812,7 +10812,7 @@
         </is>
       </c>
       <c r="D519" t="n">
-        <v>1679.32</v>
+        <v>1682.03</v>
       </c>
     </row>
     <row r="520">
@@ -10832,7 +10832,7 @@
         </is>
       </c>
       <c r="D520" t="n">
-        <v>2368.76</v>
+        <v>2372.53</v>
       </c>
     </row>
     <row r="521">
@@ -10852,7 +10852,7 @@
         </is>
       </c>
       <c r="D521" t="n">
-        <v>2701.44</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="522">
@@ -10872,7 +10872,7 @@
         </is>
       </c>
       <c r="D522" t="n">
-        <v>2920.26</v>
+        <v>2932.03</v>
       </c>
     </row>
     <row r="523">
@@ -10892,7 +10892,7 @@
         </is>
       </c>
       <c r="D523" t="n">
-        <v>2920.26</v>
+        <v>2932.03</v>
       </c>
     </row>
     <row r="524">
@@ -10912,7 +10912,7 @@
         </is>
       </c>
       <c r="D524" t="n">
-        <v>2920.26</v>
+        <v>2940.82</v>
       </c>
     </row>
     <row r="525">
@@ -10932,7 +10932,7 @@
         </is>
       </c>
       <c r="D525" t="n">
-        <v>3042.55</v>
+        <v>3064.87</v>
       </c>
     </row>
     <row r="526">
@@ -10952,7 +10952,7 @@
         </is>
       </c>
       <c r="D526" t="n">
-        <v>3061.41</v>
+        <v>3083.73</v>
       </c>
     </row>
     <row r="527">
@@ -10972,7 +10972,7 @@
         </is>
       </c>
       <c r="D527" t="n">
-        <v>3092.29</v>
+        <v>3116.73</v>
       </c>
     </row>
     <row r="528">
@@ -10992,7 +10992,7 @@
         </is>
       </c>
       <c r="D528" t="n">
-        <v>2500.18</v>
+        <v>2531.25</v>
       </c>
     </row>
     <row r="529">
@@ -11012,7 +11012,7 @@
         </is>
       </c>
       <c r="D529" t="n">
-        <v>3003.9</v>
+        <v>3034.47</v>
       </c>
     </row>
     <row r="530">
@@ -11032,7 +11032,7 @@
         </is>
       </c>
       <c r="D530" t="n">
-        <v>0</v>
+        <v>2027.16</v>
       </c>
     </row>
     <row r="531">
@@ -11492,7 +11492,7 @@
         </is>
       </c>
       <c r="D553" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="554">
@@ -12612,7 +12612,7 @@
         </is>
       </c>
       <c r="D609" t="n">
-        <v>309.93</v>
+        <v>313.29</v>
       </c>
     </row>
     <row r="610">
@@ -12632,7 +12632,7 @@
         </is>
       </c>
       <c r="D610" t="n">
-        <v>731.28</v>
+        <v>738.79</v>
       </c>
     </row>
     <row r="611">
@@ -12652,7 +12652,7 @@
         </is>
       </c>
       <c r="D611" t="n">
-        <v>342.24</v>
+        <v>345.75</v>
       </c>
     </row>
     <row r="612">
@@ -12672,7 +12672,7 @@
         </is>
       </c>
       <c r="D612" t="n">
-        <v>382.7</v>
+        <v>386.57</v>
       </c>
     </row>
     <row r="613">
@@ -12692,7 +12692,7 @@
         </is>
       </c>
       <c r="D613" t="n">
-        <v>387.17</v>
+        <v>391.23</v>
       </c>
     </row>
     <row r="614">
@@ -12712,7 +12712,7 @@
         </is>
       </c>
       <c r="D614" t="n">
-        <v>418.9</v>
+        <v>423.56</v>
       </c>
     </row>
     <row r="615">
@@ -12732,7 +12732,7 @@
         </is>
       </c>
       <c r="D615" t="n">
-        <v>533.75</v>
+        <v>539.87</v>
       </c>
     </row>
     <row r="616">
@@ -12752,7 +12752,7 @@
         </is>
       </c>
       <c r="D616" t="n">
-        <v>566.95</v>
+        <v>573.85</v>
       </c>
     </row>
     <row r="617">
@@ -12772,7 +12772,7 @@
         </is>
       </c>
       <c r="D617" t="n">
-        <v>566.95</v>
+        <v>573.85</v>
       </c>
     </row>
     <row r="618">
@@ -12792,7 +12792,7 @@
         </is>
       </c>
       <c r="D618" t="n">
-        <v>579.78</v>
+        <v>587.17</v>
       </c>
     </row>
     <row r="619">
@@ -12812,7 +12812,7 @@
         </is>
       </c>
       <c r="D619" t="n">
-        <v>523.25</v>
+        <v>530.23</v>
       </c>
     </row>
     <row r="620">
@@ -12832,7 +12832,7 @@
         </is>
       </c>
       <c r="D620" t="n">
-        <v>576.6</v>
+        <v>583.95</v>
       </c>
     </row>
     <row r="621">
@@ -12852,7 +12852,7 @@
         </is>
       </c>
       <c r="D621" t="n">
-        <v>729.5599999999999</v>
+        <v>827.53</v>
       </c>
     </row>
     <row r="622">
@@ -12872,7 +12872,7 @@
         </is>
       </c>
       <c r="D622" t="n">
-        <v>0</v>
+        <v>738.9400000000001</v>
       </c>
     </row>
     <row r="623">
@@ -13272,7 +13272,7 @@
         </is>
       </c>
       <c r="D642" t="n">
-        <v>46.2</v>
+        <v>46.32</v>
       </c>
     </row>
     <row r="643">
@@ -13292,7 +13292,7 @@
         </is>
       </c>
       <c r="D643" t="n">
-        <v>6.47</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="644">
@@ -13312,7 +13312,7 @@
         </is>
       </c>
       <c r="D644" t="n">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="645">
@@ -13332,7 +13332,7 @@
         </is>
       </c>
       <c r="D645" t="n">
-        <v>0</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="646">
@@ -14452,7 +14452,7 @@
         </is>
       </c>
       <c r="D701" t="n">
-        <v>8.58</v>
+        <v>8.640000000000001</v>
       </c>
     </row>
     <row r="702">
@@ -14472,7 +14472,7 @@
         </is>
       </c>
       <c r="D702" t="n">
-        <v>78</v>
+        <v>78.94</v>
       </c>
     </row>
     <row r="703">
@@ -14492,7 +14492,7 @@
         </is>
       </c>
       <c r="D703" t="n">
-        <v>47.48</v>
+        <v>48.1</v>
       </c>
     </row>
     <row r="704">
@@ -14512,7 +14512,7 @@
         </is>
       </c>
       <c r="D704" t="n">
-        <v>60.6</v>
+        <v>61.4</v>
       </c>
     </row>
     <row r="705">
@@ -14532,7 +14532,7 @@
         </is>
       </c>
       <c r="D705" t="n">
-        <v>101.07</v>
+        <v>101.87</v>
       </c>
     </row>
     <row r="706">
@@ -14552,7 +14552,7 @@
         </is>
       </c>
       <c r="D706" t="n">
-        <v>69.40000000000001</v>
+        <v>70.31999999999999</v>
       </c>
     </row>
     <row r="707">
@@ -14572,7 +14572,7 @@
         </is>
       </c>
       <c r="D707" t="n">
-        <v>250.4</v>
+        <v>252.32</v>
       </c>
     </row>
     <row r="708">
@@ -14592,7 +14592,7 @@
         </is>
       </c>
       <c r="D708" t="n">
-        <v>244.14</v>
+        <v>246.36</v>
       </c>
     </row>
     <row r="709">
@@ -14612,7 +14612,7 @@
         </is>
       </c>
       <c r="D709" t="n">
-        <v>280.33</v>
+        <v>283.01</v>
       </c>
     </row>
     <row r="710">
@@ -14632,7 +14632,7 @@
         </is>
       </c>
       <c r="D710" t="n">
-        <v>297.79</v>
+        <v>300.48</v>
       </c>
     </row>
     <row r="711">
@@ -14652,7 +14652,7 @@
         </is>
       </c>
       <c r="D711" t="n">
-        <v>297.79</v>
+        <v>300.48</v>
       </c>
     </row>
     <row r="712">
@@ -14672,7 +14672,7 @@
         </is>
       </c>
       <c r="D712" t="n">
-        <v>117</v>
+        <v>118.46</v>
       </c>
     </row>
     <row r="713">
@@ -14692,7 +14692,7 @@
         </is>
       </c>
       <c r="D713" t="n">
-        <v>287.69</v>
+        <v>289.83</v>
       </c>
     </row>
     <row r="714">
@@ -14712,7 +14712,7 @@
         </is>
       </c>
       <c r="D714" t="n">
-        <v>0</v>
+        <v>282.82</v>
       </c>
     </row>
     <row r="715">
@@ -15532,7 +15532,7 @@
         </is>
       </c>
       <c r="D755" t="n">
-        <v>33</v>
+        <v>30.52</v>
       </c>
     </row>
     <row r="756">
@@ -15552,7 +15552,7 @@
         </is>
       </c>
       <c r="D756" t="n">
-        <v>20.62</v>
+        <v>18.15</v>
       </c>
     </row>
     <row r="757">
@@ -15572,7 +15572,7 @@
         </is>
       </c>
       <c r="D757" t="n">
-        <v>20.62</v>
+        <v>18.15</v>
       </c>
     </row>
     <row r="758">
@@ -15592,7 +15592,7 @@
         </is>
       </c>
       <c r="D758" t="n">
-        <v>12.38</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="759">
@@ -15612,7 +15612,7 @@
         </is>
       </c>
       <c r="D759" t="n">
-        <v>0</v>
+        <v>108.9</v>
       </c>
     </row>
     <row r="760">
@@ -15632,7 +15632,7 @@
         </is>
       </c>
       <c r="D760" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="761">
@@ -15992,7 +15992,7 @@
         </is>
       </c>
       <c r="D778" t="n">
-        <v>33</v>
+        <v>30.52</v>
       </c>
     </row>
     <row r="779">
@@ -16012,7 +16012,7 @@
         </is>
       </c>
       <c r="D779" t="n">
-        <v>20.62</v>
+        <v>18.15</v>
       </c>
     </row>
     <row r="780">
@@ -16032,7 +16032,7 @@
         </is>
       </c>
       <c r="D780" t="n">
-        <v>20.62</v>
+        <v>18.15</v>
       </c>
     </row>
     <row r="781">
@@ -16052,7 +16052,7 @@
         </is>
       </c>
       <c r="D781" t="n">
-        <v>12.38</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="782">
@@ -16072,7 +16072,7 @@
         </is>
       </c>
       <c r="D782" t="n">
-        <v>0</v>
+        <v>108.9</v>
       </c>
     </row>
     <row r="783">
@@ -16092,7 +16092,7 @@
         </is>
       </c>
       <c r="D783" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="784">
@@ -16292,7 +16292,7 @@
         </is>
       </c>
       <c r="D793" t="n">
-        <v>1273.64</v>
+        <v>1281.67</v>
       </c>
     </row>
     <row r="794">
@@ -16312,7 +16312,7 @@
         </is>
       </c>
       <c r="D794" t="n">
-        <v>4258.24</v>
+        <v>4313.6</v>
       </c>
     </row>
     <row r="795">
@@ -16332,7 +16332,7 @@
         </is>
       </c>
       <c r="D795" t="n">
-        <v>2538.88</v>
+        <v>2584.9</v>
       </c>
     </row>
     <row r="796">
@@ -16352,7 +16352,7 @@
         </is>
       </c>
       <c r="D796" t="n">
-        <v>3261.37</v>
+        <v>3337.05</v>
       </c>
     </row>
     <row r="797">
@@ -16372,7 +16372,7 @@
         </is>
       </c>
       <c r="D797" t="n">
-        <v>4586.87</v>
+        <v>4682.05</v>
       </c>
     </row>
     <row r="798">
@@ -16392,7 +16392,7 @@
         </is>
       </c>
       <c r="D798" t="n">
-        <v>5843.79</v>
+        <v>5938.97</v>
       </c>
     </row>
     <row r="799">
@@ -16412,7 +16412,7 @@
         </is>
       </c>
       <c r="D799" t="n">
-        <v>8862.870000000001</v>
+        <v>8980.049999999999</v>
       </c>
     </row>
     <row r="800">
@@ -16432,7 +16432,7 @@
         </is>
       </c>
       <c r="D800" t="n">
-        <v>8862.870000000001</v>
+        <v>8980.049999999999</v>
       </c>
     </row>
     <row r="801">
@@ -16452,7 +16452,7 @@
         </is>
       </c>
       <c r="D801" t="n">
-        <v>8862.870000000001</v>
+        <v>8980.049999999999</v>
       </c>
     </row>
     <row r="802">
@@ -16472,7 +16472,7 @@
         </is>
       </c>
       <c r="D802" t="n">
-        <v>10141</v>
+        <v>10299.14</v>
       </c>
     </row>
     <row r="803">
@@ -16492,7 +16492,7 @@
         </is>
       </c>
       <c r="D803" t="n">
-        <v>11855.15</v>
+        <v>12068.33</v>
       </c>
     </row>
     <row r="804">
@@ -16512,7 +16512,7 @@
         </is>
       </c>
       <c r="D804" t="n">
-        <v>11310.87</v>
+        <v>11496.05</v>
       </c>
     </row>
     <row r="805">
@@ -16532,7 +16532,7 @@
         </is>
       </c>
       <c r="D805" t="n">
-        <v>9339.26</v>
+        <v>9530.1</v>
       </c>
     </row>
     <row r="806">
@@ -16552,7 +16552,7 @@
         </is>
       </c>
       <c r="D806" t="n">
-        <v>0</v>
+        <v>10118.02</v>
       </c>
     </row>
     <row r="807">
@@ -18132,7 +18132,7 @@
         </is>
       </c>
       <c r="D885" t="n">
-        <v>436.5</v>
+        <v>441.53</v>
       </c>
     </row>
     <row r="886">
@@ -18152,7 +18152,7 @@
         </is>
       </c>
       <c r="D886" t="n">
-        <v>6399.13</v>
+        <v>6410.76</v>
       </c>
     </row>
     <row r="887">
@@ -18172,7 +18172,7 @@
         </is>
       </c>
       <c r="D887" t="n">
-        <v>5983.92</v>
+        <v>5990.9</v>
       </c>
     </row>
     <row r="888">
@@ -18192,7 +18192,7 @@
         </is>
       </c>
       <c r="D888" t="n">
-        <v>6009</v>
+        <v>6016.03</v>
       </c>
     </row>
     <row r="889">
@@ -18212,7 +18212,7 @@
         </is>
       </c>
       <c r="D889" t="n">
-        <v>6009</v>
+        <v>6016.03</v>
       </c>
     </row>
     <row r="890">
@@ -18232,7 +18232,7 @@
         </is>
       </c>
       <c r="D890" t="n">
-        <v>5959.81</v>
+        <v>5966.84</v>
       </c>
     </row>
     <row r="891">
@@ -18252,7 +18252,7 @@
         </is>
       </c>
       <c r="D891" t="n">
-        <v>6941.71</v>
+        <v>6953.53</v>
       </c>
     </row>
     <row r="892">
@@ -18272,7 +18272,7 @@
         </is>
       </c>
       <c r="D892" t="n">
-        <v>6941.71</v>
+        <v>6953.53</v>
       </c>
     </row>
     <row r="893">
@@ -18292,7 +18292,7 @@
         </is>
       </c>
       <c r="D893" t="n">
-        <v>7016.21</v>
+        <v>7030.71</v>
       </c>
     </row>
     <row r="894">
@@ -18312,7 +18312,7 @@
         </is>
       </c>
       <c r="D894" t="n">
-        <v>7225.48</v>
+        <v>7247.54</v>
       </c>
     </row>
     <row r="895">
@@ -18332,7 +18332,7 @@
         </is>
       </c>
       <c r="D895" t="n">
-        <v>9579.91</v>
+        <v>9740.639999999999</v>
       </c>
     </row>
     <row r="896">
@@ -18352,7 +18352,7 @@
         </is>
       </c>
       <c r="D896" t="n">
-        <v>8657.030000000001</v>
+        <v>8790.76</v>
       </c>
     </row>
     <row r="897">
@@ -18372,7 +18372,7 @@
         </is>
       </c>
       <c r="D897" t="n">
-        <v>9739.290000000001</v>
+        <v>9891.02</v>
       </c>
     </row>
     <row r="898">
@@ -18392,7 +18392,7 @@
         </is>
       </c>
       <c r="D898" t="n">
-        <v>0</v>
+        <v>8836.27</v>
       </c>
     </row>
     <row r="899">
@@ -19132,7 +19132,7 @@
         </is>
       </c>
       <c r="D935" t="n">
-        <v>2520.16</v>
+        <v>2525.16</v>
       </c>
     </row>
     <row r="936">
@@ -19152,7 +19152,7 @@
         </is>
       </c>
       <c r="D936" t="n">
-        <v>2025.22</v>
+        <v>2030.22</v>
       </c>
     </row>
     <row r="937">
@@ -19172,7 +19172,7 @@
         </is>
       </c>
       <c r="D937" t="n">
-        <v>1556.56</v>
+        <v>1561.56</v>
       </c>
     </row>
     <row r="938">
@@ -19192,7 +19192,7 @@
         </is>
       </c>
       <c r="D938" t="n">
-        <v>1985.23</v>
+        <v>1990.23</v>
       </c>
     </row>
     <row r="939">
@@ -19212,7 +19212,7 @@
         </is>
       </c>
       <c r="D939" t="n">
-        <v>2186.52</v>
+        <v>2191.52</v>
       </c>
     </row>
     <row r="940">
@@ -19232,7 +19232,7 @@
         </is>
       </c>
       <c r="D940" t="n">
-        <v>1328.38</v>
+        <v>1333.38</v>
       </c>
     </row>
     <row r="941">
@@ -19252,7 +19252,7 @@
         </is>
       </c>
       <c r="D941" t="n">
-        <v>1093.8</v>
+        <v>1098.8</v>
       </c>
     </row>
     <row r="942">
@@ -19272,7 +19272,7 @@
         </is>
       </c>
       <c r="D942" t="n">
-        <v>556.1</v>
+        <v>561.1</v>
       </c>
     </row>
     <row r="943">
@@ -19292,7 +19292,7 @@
         </is>
       </c>
       <c r="D943" t="n">
-        <v>259.1</v>
+        <v>264.1</v>
       </c>
     </row>
     <row r="944">
@@ -19312,7 +19312,7 @@
         </is>
       </c>
       <c r="D944" t="n">
-        <v>259.1</v>
+        <v>264.1</v>
       </c>
     </row>
     <row r="945">
@@ -19592,7 +19592,7 @@
         </is>
       </c>
       <c r="D958" t="n">
-        <v>2876.56</v>
+        <v>2881.56</v>
       </c>
     </row>
     <row r="959">
@@ -19612,7 +19612,7 @@
         </is>
       </c>
       <c r="D959" t="n">
-        <v>2460.33</v>
+        <v>2465.33</v>
       </c>
     </row>
     <row r="960">
@@ -19632,7 +19632,7 @@
         </is>
       </c>
       <c r="D960" t="n">
-        <v>1925.68</v>
+        <v>1930.68</v>
       </c>
     </row>
     <row r="961">
@@ -19652,7 +19652,7 @@
         </is>
       </c>
       <c r="D961" t="n">
-        <v>2502.84</v>
+        <v>2507.84</v>
       </c>
     </row>
     <row r="962">
@@ -19672,7 +19672,7 @@
         </is>
       </c>
       <c r="D962" t="n">
-        <v>2737.14</v>
+        <v>2742.14</v>
       </c>
     </row>
     <row r="963">
@@ -19692,7 +19692,7 @@
         </is>
       </c>
       <c r="D963" t="n">
-        <v>1804.74</v>
+        <v>1809.74</v>
       </c>
     </row>
     <row r="964">
@@ -19712,7 +19712,7 @@
         </is>
       </c>
       <c r="D964" t="n">
-        <v>1515.72</v>
+        <v>1520.72</v>
       </c>
     </row>
     <row r="965">
@@ -19732,7 +19732,7 @@
         </is>
       </c>
       <c r="D965" t="n">
-        <v>729.35</v>
+        <v>734.35</v>
       </c>
     </row>
     <row r="966">
@@ -19752,7 +19752,7 @@
         </is>
       </c>
       <c r="D966" t="n">
-        <v>333.35</v>
+        <v>338.35</v>
       </c>
     </row>
     <row r="967">
@@ -19772,7 +19772,7 @@
         </is>
       </c>
       <c r="D967" t="n">
-        <v>333.35</v>
+        <v>338.35</v>
       </c>
     </row>
     <row r="968">
@@ -19972,7 +19972,7 @@
         </is>
       </c>
       <c r="D977" t="n">
-        <v>93.92</v>
+        <v>94.73999999999999</v>
       </c>
     </row>
     <row r="978">
@@ -19992,7 +19992,7 @@
         </is>
       </c>
       <c r="D978" t="n">
-        <v>790.26</v>
+        <v>796.24</v>
       </c>
     </row>
     <row r="979">
@@ -20012,7 +20012,7 @@
         </is>
       </c>
       <c r="D979" t="n">
-        <v>486.08</v>
+        <v>490.24</v>
       </c>
     </row>
     <row r="980">
@@ -20032,7 +20032,7 @@
         </is>
       </c>
       <c r="D980" t="n">
-        <v>486.08</v>
+        <v>490.24</v>
       </c>
     </row>
     <row r="981">
@@ -20052,7 +20052,7 @@
         </is>
       </c>
       <c r="D981" t="n">
-        <v>491.83</v>
+        <v>496.04</v>
       </c>
     </row>
     <row r="982">
@@ -20072,7 +20072,7 @@
         </is>
       </c>
       <c r="D982" t="n">
-        <v>500.47</v>
+        <v>505.66</v>
       </c>
     </row>
     <row r="983">
@@ -20092,7 +20092,7 @@
         </is>
       </c>
       <c r="D983" t="n">
-        <v>536.22</v>
+        <v>541.41</v>
       </c>
     </row>
     <row r="984">
@@ -20112,7 +20112,7 @@
         </is>
       </c>
       <c r="D984" t="n">
-        <v>548.7</v>
+        <v>554.55</v>
       </c>
     </row>
     <row r="985">
@@ -20132,7 +20132,7 @@
         </is>
       </c>
       <c r="D985" t="n">
-        <v>716.7</v>
+        <v>724.55</v>
       </c>
     </row>
     <row r="986">
@@ -20152,7 +20152,7 @@
         </is>
       </c>
       <c r="D986" t="n">
-        <v>718.11</v>
+        <v>725.95</v>
       </c>
     </row>
     <row r="987">
@@ -20172,7 +20172,7 @@
         </is>
       </c>
       <c r="D987" t="n">
-        <v>664.78</v>
+        <v>672.24</v>
       </c>
     </row>
     <row r="988">
@@ -20192,7 +20192,7 @@
         </is>
       </c>
       <c r="D988" t="n">
-        <v>723.8</v>
+        <v>731.84</v>
       </c>
     </row>
     <row r="989">
@@ -20212,7 +20212,7 @@
         </is>
       </c>
       <c r="D989" t="n">
-        <v>633.08</v>
+        <v>638.37</v>
       </c>
     </row>
     <row r="990">
@@ -20232,7 +20232,7 @@
         </is>
       </c>
       <c r="D990" t="n">
-        <v>0</v>
+        <v>828.3099999999999</v>
       </c>
     </row>
     <row r="991">
@@ -20632,7 +20632,7 @@
         </is>
       </c>
       <c r="D1010" t="n">
-        <v>8.75</v>
+        <v>8.81</v>
       </c>
     </row>
     <row r="1011">
@@ -20652,7 +20652,7 @@
         </is>
       </c>
       <c r="D1011" t="n">
-        <v>7.7</v>
+        <v>7.76</v>
       </c>
     </row>
     <row r="1012">
@@ -20672,7 +20672,7 @@
         </is>
       </c>
       <c r="D1012" t="n">
-        <v>6.89</v>
+        <v>6.95</v>
       </c>
     </row>
     <row r="1013">
@@ -20692,7 +20692,7 @@
         </is>
       </c>
       <c r="D1013" t="n">
-        <v>0</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="1014">
@@ -21812,7 +21812,7 @@
         </is>
       </c>
       <c r="D1069" t="n">
-        <v>68.87</v>
+        <v>69.09</v>
       </c>
     </row>
     <row r="1070">
@@ -21832,7 +21832,7 @@
         </is>
       </c>
       <c r="D1070" t="n">
-        <v>137.74</v>
+        <v>138.18</v>
       </c>
     </row>
     <row r="1071">
@@ -21852,7 +21852,7 @@
         </is>
       </c>
       <c r="D1071" t="n">
-        <v>68.87</v>
+        <v>69.09</v>
       </c>
     </row>
     <row r="1072">
@@ -21872,7 +21872,7 @@
         </is>
       </c>
       <c r="D1072" t="n">
-        <v>68.87</v>
+        <v>69.09</v>
       </c>
     </row>
     <row r="1073">
@@ -21892,7 +21892,7 @@
         </is>
       </c>
       <c r="D1073" t="n">
-        <v>68.87</v>
+        <v>69.09</v>
       </c>
     </row>
     <row r="1074">
@@ -21912,7 +21912,7 @@
         </is>
       </c>
       <c r="D1074" t="n">
-        <v>68.87</v>
+        <v>69.09</v>
       </c>
     </row>
     <row r="1075">
@@ -21932,7 +21932,7 @@
         </is>
       </c>
       <c r="D1075" t="n">
-        <v>68.87</v>
+        <v>69.09</v>
       </c>
     </row>
     <row r="1076">
@@ -21952,7 +21952,7 @@
         </is>
       </c>
       <c r="D1076" t="n">
-        <v>68.87</v>
+        <v>69.09</v>
       </c>
     </row>
     <row r="1077">
@@ -21972,7 +21972,7 @@
         </is>
       </c>
       <c r="D1077" t="n">
-        <v>68.87</v>
+        <v>69.09</v>
       </c>
     </row>
     <row r="1078">
@@ -21992,7 +21992,7 @@
         </is>
       </c>
       <c r="D1078" t="n">
-        <v>68.87</v>
+        <v>69.09</v>
       </c>
     </row>
     <row r="1079">
@@ -22012,7 +22012,7 @@
         </is>
       </c>
       <c r="D1079" t="n">
-        <v>68.87</v>
+        <v>69.09</v>
       </c>
     </row>
     <row r="1080">
@@ -22032,7 +22032,7 @@
         </is>
       </c>
       <c r="D1080" t="n">
-        <v>65.06</v>
+        <v>65.26000000000001</v>
       </c>
     </row>
     <row r="1081">
@@ -22052,7 +22052,7 @@
         </is>
       </c>
       <c r="D1081" t="n">
-        <v>49.55</v>
+        <v>49.68</v>
       </c>
     </row>
     <row r="1082">
@@ -22072,7 +22072,7 @@
         </is>
       </c>
       <c r="D1082" t="n">
-        <v>0</v>
+        <v>69.09</v>
       </c>
     </row>
     <row r="1083">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="D1161" t="n">
-        <v>8751.15</v>
+        <v>9031.459999999999</v>
       </c>
     </row>
     <row r="1162">
@@ -23672,7 +23672,7 @@
         </is>
       </c>
       <c r="D1162" t="n">
-        <v>26503.09</v>
+        <v>27091.67</v>
       </c>
     </row>
     <row r="1163">
@@ -23692,7 +23692,7 @@
         </is>
       </c>
       <c r="D1163" t="n">
-        <v>6027.82</v>
+        <v>6272.37</v>
       </c>
     </row>
     <row r="1164">
@@ -23712,7 +23712,7 @@
         </is>
       </c>
       <c r="D1164" t="n">
-        <v>23132.36</v>
+        <v>23532.55</v>
       </c>
     </row>
     <row r="1165">
@@ -23732,7 +23732,7 @@
         </is>
       </c>
       <c r="D1165" t="n">
-        <v>17710.98</v>
+        <v>18091.12</v>
       </c>
     </row>
     <row r="1166">
@@ -23752,7 +23752,7 @@
         </is>
       </c>
       <c r="D1166" t="n">
-        <v>18832.34</v>
+        <v>19222.71</v>
       </c>
     </row>
     <row r="1167">
@@ -23772,7 +23772,7 @@
         </is>
       </c>
       <c r="D1167" t="n">
-        <v>22661.34</v>
+        <v>23058.21</v>
       </c>
     </row>
     <row r="1168">
@@ -23792,7 +23792,7 @@
         </is>
       </c>
       <c r="D1168" t="n">
-        <v>23190.9</v>
+        <v>23589.68</v>
       </c>
     </row>
     <row r="1169">
@@ -23812,7 +23812,7 @@
         </is>
       </c>
       <c r="D1169" t="n">
-        <v>23400.84</v>
+        <v>23800.21</v>
       </c>
     </row>
     <row r="1170">
@@ -23832,7 +23832,7 @@
         </is>
       </c>
       <c r="D1170" t="n">
-        <v>23609.6</v>
+        <v>24010.04</v>
       </c>
     </row>
     <row r="1171">
@@ -23852,7 +23852,7 @@
         </is>
       </c>
       <c r="D1171" t="n">
-        <v>23707.34</v>
+        <v>24113.21</v>
       </c>
     </row>
     <row r="1172">
@@ -23872,7 +23872,7 @@
         </is>
       </c>
       <c r="D1172" t="n">
-        <v>24092.1</v>
+        <v>24517.92</v>
       </c>
     </row>
     <row r="1173">
@@ -23892,7 +23892,7 @@
         </is>
       </c>
       <c r="D1173" t="n">
-        <v>20592.18</v>
+        <v>21060.15</v>
       </c>
     </row>
     <row r="1174">
@@ -23912,7 +23912,7 @@
         </is>
       </c>
       <c r="D1174" t="n">
-        <v>0</v>
+        <v>18428.93</v>
       </c>
     </row>
     <row r="1175">
@@ -25492,7 +25492,7 @@
         </is>
       </c>
       <c r="D1253" t="n">
-        <v>3819.5</v>
+        <v>4057.5</v>
       </c>
     </row>
     <row r="1254">
@@ -25512,7 +25512,7 @@
         </is>
       </c>
       <c r="D1254" t="n">
-        <v>7639</v>
+        <v>8115</v>
       </c>
     </row>
     <row r="1255">
@@ -25532,7 +25532,7 @@
         </is>
       </c>
       <c r="D1255" t="n">
-        <v>3819.5</v>
+        <v>4057.5</v>
       </c>
     </row>
     <row r="1256">
@@ -25552,7 +25552,7 @@
         </is>
       </c>
       <c r="D1256" t="n">
-        <v>3568.5</v>
+        <v>3806.5</v>
       </c>
     </row>
     <row r="1257">
@@ -25572,7 +25572,7 @@
         </is>
       </c>
       <c r="D1257" t="n">
-        <v>3819.5</v>
+        <v>4057.5</v>
       </c>
     </row>
     <row r="1258">
@@ -25592,7 +25592,7 @@
         </is>
       </c>
       <c r="D1258" t="n">
-        <v>3819.5</v>
+        <v>4057.5</v>
       </c>
     </row>
     <row r="1259">
@@ -25612,7 +25612,7 @@
         </is>
       </c>
       <c r="D1259" t="n">
-        <v>4190.5</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="1260">
@@ -25632,7 +25632,7 @@
         </is>
       </c>
       <c r="D1260" t="n">
-        <v>4440.5</v>
+        <v>4720.5</v>
       </c>
     </row>
     <row r="1261">
@@ -25652,7 +25652,7 @@
         </is>
       </c>
       <c r="D1261" t="n">
-        <v>4440.5</v>
+        <v>4720.5</v>
       </c>
     </row>
     <row r="1262">
@@ -25672,7 +25672,7 @@
         </is>
       </c>
       <c r="D1262" t="n">
-        <v>9524</v>
+        <v>9950.5</v>
       </c>
     </row>
     <row r="1263">
@@ -25692,7 +25692,7 @@
         </is>
       </c>
       <c r="D1263" t="n">
-        <v>14750.5</v>
+        <v>15178</v>
       </c>
     </row>
     <row r="1264">
@@ -25712,7 +25712,7 @@
         </is>
       </c>
       <c r="D1264" t="n">
-        <v>14750.5</v>
+        <v>15178</v>
       </c>
     </row>
     <row r="1265">
@@ -25732,7 +25732,7 @@
         </is>
       </c>
       <c r="D1265" t="n">
-        <v>14750.5</v>
+        <v>15178</v>
       </c>
     </row>
     <row r="1266">
@@ -25752,7 +25752,7 @@
         </is>
       </c>
       <c r="D1266" t="n">
-        <v>0</v>
+        <v>14619</v>
       </c>
     </row>
     <row r="1267">
@@ -27332,7 +27332,7 @@
         </is>
       </c>
       <c r="D1345" t="n">
-        <v>28.77</v>
+        <v>28.81</v>
       </c>
     </row>
     <row r="1346">
@@ -27352,7 +27352,7 @@
         </is>
       </c>
       <c r="D1346" t="n">
-        <v>67.41</v>
+        <v>67.53</v>
       </c>
     </row>
     <row r="1347">
@@ -27392,7 +27392,7 @@
         </is>
       </c>
       <c r="D1348" t="n">
-        <v>59.24</v>
+        <v>59.39</v>
       </c>
     </row>
     <row r="1349">
@@ -27412,7 +27412,7 @@
         </is>
       </c>
       <c r="D1349" t="n">
-        <v>20.6</v>
+        <v>20.67</v>
       </c>
     </row>
     <row r="1350">
@@ -27432,7 +27432,7 @@
         </is>
       </c>
       <c r="D1350" t="n">
-        <v>38.64</v>
+        <v>38.72</v>
       </c>
     </row>
     <row r="1351">
@@ -27452,7 +27452,7 @@
         </is>
       </c>
       <c r="D1351" t="n">
-        <v>45.38</v>
+        <v>45.55</v>
       </c>
     </row>
     <row r="1352">
@@ -27472,7 +27472,7 @@
         </is>
       </c>
       <c r="D1352" t="n">
-        <v>64.08</v>
+        <v>64.40000000000001</v>
       </c>
     </row>
     <row r="1353">
@@ -27492,7 +27492,7 @@
         </is>
       </c>
       <c r="D1353" t="n">
-        <v>68.59999999999999</v>
+        <v>68.92</v>
       </c>
     </row>
     <row r="1354">
@@ -27512,7 +27512,7 @@
         </is>
       </c>
       <c r="D1354" t="n">
-        <v>81.20999999999999</v>
+        <v>81.59</v>
       </c>
     </row>
     <row r="1355">
@@ -27532,7 +27532,7 @@
         </is>
       </c>
       <c r="D1355" t="n">
-        <v>82.23</v>
+        <v>82.63</v>
       </c>
     </row>
     <row r="1356">
@@ -27552,7 +27552,7 @@
         </is>
       </c>
       <c r="D1356" t="n">
-        <v>70.12</v>
+        <v>70.44</v>
       </c>
     </row>
     <row r="1357">
@@ -27572,7 +27572,7 @@
         </is>
       </c>
       <c r="D1357" t="n">
-        <v>78.45</v>
+        <v>78.81</v>
       </c>
     </row>
     <row r="1358">
@@ -27592,7 +27592,7 @@
         </is>
       </c>
       <c r="D1358" t="n">
-        <v>0</v>
+        <v>79.81999999999999</v>
       </c>
     </row>
     <row r="1359">
@@ -29172,7 +29172,7 @@
         </is>
       </c>
       <c r="D1437" t="n">
-        <v>659.39</v>
+        <v>667.11</v>
       </c>
     </row>
     <row r="1438">
@@ -29192,7 +29192,7 @@
         </is>
       </c>
       <c r="D1438" t="n">
-        <v>1608.2</v>
+        <v>1626.8</v>
       </c>
     </row>
     <row r="1439">
@@ -29232,7 +29232,7 @@
         </is>
       </c>
       <c r="D1440" t="n">
-        <v>1840.82</v>
+        <v>1861.48</v>
       </c>
     </row>
     <row r="1441">
@@ -29252,7 +29252,7 @@
         </is>
       </c>
       <c r="D1441" t="n">
-        <v>927.1900000000001</v>
+        <v>937.6900000000001</v>
       </c>
     </row>
     <row r="1442">
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="D1442" t="n">
-        <v>927.1900000000001</v>
+        <v>937.6900000000001</v>
       </c>
     </row>
     <row r="1443">
@@ -29292,7 +29292,7 @@
         </is>
       </c>
       <c r="D1443" t="n">
-        <v>1399.54</v>
+        <v>1420.03</v>
       </c>
     </row>
     <row r="1444">
@@ -29312,7 +29312,7 @@
         </is>
       </c>
       <c r="D1444" t="n">
-        <v>1417.58</v>
+        <v>1438.27</v>
       </c>
     </row>
     <row r="1445">
@@ -29332,7 +29332,7 @@
         </is>
       </c>
       <c r="D1445" t="n">
-        <v>1417.58</v>
+        <v>1438.27</v>
       </c>
     </row>
     <row r="1446">
@@ -29352,7 +29352,7 @@
         </is>
       </c>
       <c r="D1446" t="n">
-        <v>1461.19</v>
+        <v>1482.55</v>
       </c>
     </row>
     <row r="1447">
@@ -29372,7 +29372,7 @@
         </is>
       </c>
       <c r="D1447" t="n">
-        <v>1410.98</v>
+        <v>1432.13</v>
       </c>
     </row>
     <row r="1448">
@@ -29392,7 +29392,7 @@
         </is>
       </c>
       <c r="D1448" t="n">
-        <v>1436.09</v>
+        <v>1457.69</v>
       </c>
     </row>
     <row r="1449">
@@ -29412,7 +29412,7 @@
         </is>
       </c>
       <c r="D1449" t="n">
-        <v>1023.62</v>
+        <v>1041.72</v>
       </c>
     </row>
     <row r="1450">
@@ -29432,7 +29432,7 @@
         </is>
       </c>
       <c r="D1450" t="n">
-        <v>0</v>
+        <v>1249.37</v>
       </c>
     </row>
     <row r="1451">
@@ -29892,7 +29892,7 @@
         </is>
       </c>
       <c r="D1473" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_diario_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_diario_all.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>549.3</v>
+        <v>548.62</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>944.67</v>
+        <v>943.99</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>944.67</v>
+        <v>943.99</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1350.29</v>
+        <v>1349.61</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>978.87</v>
+        <v>978.1900000000001</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1103.49</v>
+        <v>1102.81</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>828.66</v>
+        <v>827.98</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>966.37</v>
+        <v>965.6900000000001</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>904.58</v>
+        <v>903.9</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>722.22</v>
+        <v>721.54</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>749.28</v>
+        <v>748.6</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>383.43</v>
+        <v>382.75</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>716.4299999999999</v>
+        <v>715.75</v>
       </c>
     </row>
     <row r="15">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1114.76</v>
+        <v>1114.08</v>
       </c>
     </row>
     <row r="16">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1596.68</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="17">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1214.18</v>
+        <v>1213.5</v>
       </c>
     </row>
     <row r="18">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>898.51</v>
+        <v>897.83</v>
       </c>
     </row>
     <row r="19">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>814.45</v>
+        <v>813.77</v>
       </c>
     </row>
     <row r="20">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1292.35</v>
+        <v>1291.66</v>
       </c>
     </row>
     <row r="21">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1731.95</v>
+        <v>1731.26</v>
       </c>
     </row>
     <row r="22">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1328.15</v>
+        <v>1327.47</v>
       </c>
     </row>
     <row r="23">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1377.65</v>
+        <v>1373.67</v>
       </c>
     </row>
     <row r="24">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1020.8</v>
+        <v>954.36</v>
       </c>
     </row>
     <row r="25">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1020.8</v>
+        <v>954.36</v>
       </c>
     </row>
     <row r="26">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1058.83</v>
+        <v>1541.39</v>
       </c>
     </row>
     <row r="27">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>46.78</v>
+        <v>2039.39</v>
       </c>
     </row>
     <row r="28">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>46.78</v>
+        <v>137.53</v>
       </c>
     </row>
     <row r="29">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1252.96</v>
+        <v>1252.28</v>
       </c>
     </row>
     <row r="30">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1648.34</v>
+        <v>1647.66</v>
       </c>
     </row>
     <row r="31">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1648.34</v>
+        <v>1647.66</v>
       </c>
     </row>
     <row r="32">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3235.79</v>
+        <v>3235.11</v>
       </c>
     </row>
     <row r="33">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2935.25</v>
+        <v>2934.57</v>
       </c>
     </row>
     <row r="34">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3600.63</v>
+        <v>3599.95</v>
       </c>
     </row>
     <row r="35">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2842.79</v>
+        <v>2842.11</v>
       </c>
     </row>
     <row r="36">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3179.38</v>
+        <v>3178.7</v>
       </c>
     </row>
     <row r="37">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2828.5</v>
+        <v>2827.82</v>
       </c>
     </row>
     <row r="38">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1964.33</v>
+        <v>1963.65</v>
       </c>
     </row>
     <row r="39">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2174.4</v>
+        <v>2173.72</v>
       </c>
     </row>
     <row r="40">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1748.48</v>
+        <v>1747.8</v>
       </c>
     </row>
     <row r="41">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>2247.81</v>
+        <v>2247.13</v>
       </c>
     </row>
     <row r="42">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>4336.81</v>
+        <v>4336.13</v>
       </c>
     </row>
     <row r="43">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>5242.36</v>
+        <v>5241.68</v>
       </c>
     </row>
     <row r="44">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>3499.65</v>
+        <v>3498.97</v>
       </c>
     </row>
     <row r="45">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2084.98</v>
+        <v>2084.3</v>
       </c>
     </row>
     <row r="46">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1635.92</v>
+        <v>1635.24</v>
       </c>
     </row>
     <row r="47">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2813.31</v>
+        <v>2812.63</v>
       </c>
     </row>
     <row r="48">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>3612.25</v>
+        <v>3611.56</v>
       </c>
     </row>
     <row r="49">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>3567.37</v>
+        <v>3566.69</v>
       </c>
     </row>
     <row r="50">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>3616.87</v>
+        <v>3612.89</v>
       </c>
     </row>
     <row r="51">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2510.35</v>
+        <v>2443.91</v>
       </c>
     </row>
     <row r="52">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>3259.85</v>
+        <v>2943.58</v>
       </c>
     </row>
     <row r="53">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>3071.33</v>
+        <v>4552.05</v>
       </c>
     </row>
     <row r="54">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>46.78</v>
+        <v>4485.05</v>
       </c>
     </row>
     <row r="55">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>46.78</v>
+        <v>137.53</v>
       </c>
     </row>
     <row r="56">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>14609.07</v>
+        <v>14612.62</v>
       </c>
     </row>
     <row r="66">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>231265.04</v>
+        <v>231272.54</v>
       </c>
     </row>
     <row r="67">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>118142.06</v>
+        <v>118145.81</v>
       </c>
     </row>
     <row r="68">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>121244.06</v>
+        <v>121247.31</v>
       </c>
     </row>
     <row r="69">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>126373.06</v>
+        <v>126376.85</v>
       </c>
     </row>
     <row r="70">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>126863.06</v>
+        <v>126866.81</v>
       </c>
     </row>
     <row r="71">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>132369.26</v>
+        <v>132373.05</v>
       </c>
     </row>
     <row r="72">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>132369.26</v>
+        <v>132373.05</v>
       </c>
     </row>
     <row r="73">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>132369.26</v>
+        <v>132373.05</v>
       </c>
     </row>
     <row r="74">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>132369.26</v>
+        <v>132373.05</v>
       </c>
     </row>
     <row r="75">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>132369.26</v>
+        <v>132373.05</v>
       </c>
     </row>
     <row r="76">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>132459.26</v>
+        <v>132464.55</v>
       </c>
     </row>
     <row r="77">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>24897.81</v>
+        <v>24902.9</v>
       </c>
     </row>
     <row r="78">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>131906.84</v>
+        <v>131909.08</v>
       </c>
     </row>
     <row r="79">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>127379.63</v>
+        <v>127383.38</v>
       </c>
     </row>
     <row r="80">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>131563.78</v>
+        <v>131569.07</v>
       </c>
     </row>
     <row r="81">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>131882.57</v>
+        <v>131882.62</v>
       </c>
     </row>
     <row r="82">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1186.37</v>
+        <v>17349.27</v>
       </c>
     </row>
     <row r="83">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>5957.01</v>
       </c>
     </row>
     <row r="109">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>5957.01</v>
       </c>
     </row>
     <row r="110">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>854.8099999999999</v>
+        <v>858.58</v>
       </c>
     </row>
     <row r="174">
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>3397.02</v>
+        <v>3413.99</v>
       </c>
     </row>
     <row r="175">
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>2288.36</v>
+        <v>2300.13</v>
       </c>
     </row>
     <row r="176">
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>2531.94</v>
+        <v>2544.57</v>
       </c>
     </row>
     <row r="177">
@@ -3972,7 +3972,7 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>2320.16</v>
+        <v>2331.93</v>
       </c>
     </row>
     <row r="178">
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>2637.01</v>
+        <v>2650.16</v>
       </c>
     </row>
     <row r="179">
@@ -4012,7 +4012,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>2733.45</v>
+        <v>2746.9</v>
       </c>
     </row>
     <row r="180">
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>2731.87</v>
+        <v>2745.15</v>
       </c>
     </row>
     <row r="181">
@@ -4052,7 +4052,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>2811.25</v>
+        <v>2825.21</v>
       </c>
     </row>
     <row r="182">
@@ -4072,7 +4072,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>3094.75</v>
+        <v>3109.71</v>
       </c>
     </row>
     <row r="183">
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>3158</v>
+        <v>3174.49</v>
       </c>
     </row>
     <row r="184">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>3191.26</v>
+        <v>3207.92</v>
       </c>
     </row>
     <row r="185">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>3104.72</v>
+        <v>3121.02</v>
       </c>
     </row>
     <row r="186">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>2848.06</v>
+        <v>2862.1</v>
       </c>
     </row>
     <row r="187">
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>3075.63</v>
+        <v>3090.68</v>
       </c>
     </row>
     <row r="188">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>1812.48</v>
+        <v>1824.2</v>
       </c>
     </row>
     <row r="189">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>1128.99</v>
+        <v>4303.5</v>
       </c>
     </row>
     <row r="191">
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>3.87</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="217">
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>0</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="218">
@@ -6052,7 +6052,7 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>2892.51</v>
+        <v>2902.18</v>
       </c>
     </row>
     <row r="282">
@@ -6072,7 +6072,7 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>7687.02</v>
+        <v>7714.36</v>
       </c>
     </row>
     <row r="283">
@@ -6092,7 +6092,7 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>3738.51</v>
+        <v>3753.68</v>
       </c>
     </row>
     <row r="284">
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>5000.51</v>
+        <v>5019.68</v>
       </c>
     </row>
     <row r="285">
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>5284.51</v>
+        <v>5304.18</v>
       </c>
     </row>
     <row r="286">
@@ -6152,7 +6152,7 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>5472.34</v>
+        <v>5494.01</v>
       </c>
     </row>
     <row r="287">
@@ -6172,7 +6172,7 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>6015.84</v>
+        <v>6038.01</v>
       </c>
     </row>
     <row r="288">
@@ -6192,7 +6192,7 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>8183.84</v>
+        <v>8216.01</v>
       </c>
     </row>
     <row r="289">
@@ -6212,7 +6212,7 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>9050.84</v>
+        <v>9085.51</v>
       </c>
     </row>
     <row r="290">
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>9300.09</v>
+        <v>9338.1</v>
       </c>
     </row>
     <row r="291">
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>10729.38</v>
+        <v>10795.53</v>
       </c>
     </row>
     <row r="292">
@@ -6272,7 +6272,7 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>12452.38</v>
+        <v>12538.53</v>
       </c>
     </row>
     <row r="293">
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>11514.67</v>
+        <v>11608.88</v>
       </c>
     </row>
     <row r="294">
@@ -6312,7 +6312,7 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>11826.88</v>
+        <v>11917.03</v>
       </c>
     </row>
     <row r="295">
@@ -6332,7 +6332,7 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>10355.45</v>
+        <v>10465.51</v>
       </c>
     </row>
     <row r="296">
@@ -6352,7 +6352,7 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>12384.53</v>
+        <v>12505.87</v>
       </c>
     </row>
     <row r="297">
@@ -6392,7 +6392,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>11632.31</v>
+        <v>22595.39</v>
       </c>
     </row>
     <row r="299">
@@ -6932,7 +6932,7 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="326">
@@ -8212,7 +8212,7 @@
         </is>
       </c>
       <c r="D389" t="n">
-        <v>3840.01</v>
+        <v>3855.22</v>
       </c>
     </row>
     <row r="390">
@@ -8232,7 +8232,7 @@
         </is>
       </c>
       <c r="D390" t="n">
-        <v>7647.56</v>
+        <v>7680.88</v>
       </c>
     </row>
     <row r="391">
@@ -8252,7 +8252,7 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>4372.34</v>
+        <v>4406.72</v>
       </c>
     </row>
     <row r="392">
@@ -8272,7 +8272,7 @@
         </is>
       </c>
       <c r="D392" t="n">
-        <v>5365.11</v>
+        <v>5403.11</v>
       </c>
     </row>
     <row r="393">
@@ -8292,7 +8292,7 @@
         </is>
       </c>
       <c r="D393" t="n">
-        <v>5404.01</v>
+        <v>5441.53</v>
       </c>
     </row>
     <row r="394">
@@ -8312,7 +8312,7 @@
         </is>
       </c>
       <c r="D394" t="n">
-        <v>3880.82</v>
+        <v>3897.52</v>
       </c>
     </row>
     <row r="395">
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="D395" t="n">
-        <v>5965.64</v>
+        <v>6009.33</v>
       </c>
     </row>
     <row r="396">
@@ -8352,7 +8352,7 @@
         </is>
       </c>
       <c r="D396" t="n">
-        <v>7182.92</v>
+        <v>7229.26</v>
       </c>
     </row>
     <row r="397">
@@ -8372,7 +8372,7 @@
         </is>
       </c>
       <c r="D397" t="n">
-        <v>7529.91</v>
+        <v>7578.06</v>
       </c>
     </row>
     <row r="398">
@@ -8392,7 +8392,7 @@
         </is>
       </c>
       <c r="D398" t="n">
-        <v>7572.74</v>
+        <v>7621.13</v>
       </c>
     </row>
     <row r="399">
@@ -8412,7 +8412,7 @@
         </is>
       </c>
       <c r="D399" t="n">
-        <v>7037.28</v>
+        <v>7084.11</v>
       </c>
     </row>
     <row r="400">
@@ -8432,7 +8432,7 @@
         </is>
       </c>
       <c r="D400" t="n">
-        <v>7036.08</v>
+        <v>7082.91</v>
       </c>
     </row>
     <row r="401">
@@ -8452,7 +8452,7 @@
         </is>
       </c>
       <c r="D401" t="n">
-        <v>7114.67</v>
+        <v>7176.69</v>
       </c>
     </row>
     <row r="402">
@@ -8472,7 +8472,7 @@
         </is>
       </c>
       <c r="D402" t="n">
-        <v>7834.68</v>
+        <v>7898.67</v>
       </c>
     </row>
     <row r="403">
@@ -8492,7 +8492,7 @@
         </is>
       </c>
       <c r="D403" t="n">
-        <v>9290.34</v>
+        <v>9352.860000000001</v>
       </c>
     </row>
     <row r="404">
@@ -8512,7 +8512,7 @@
         </is>
       </c>
       <c r="D404" t="n">
-        <v>10480.25</v>
+        <v>10565.21</v>
       </c>
     </row>
     <row r="405">
@@ -8552,7 +8552,7 @@
         </is>
       </c>
       <c r="D406" t="n">
-        <v>4954.72</v>
+        <v>11563.05</v>
       </c>
     </row>
     <row r="407">
@@ -9032,7 +9032,7 @@
         </is>
       </c>
       <c r="D430" t="n">
-        <v>34.28</v>
+        <v>34.3</v>
       </c>
     </row>
     <row r="431">
@@ -9052,7 +9052,7 @@
         </is>
       </c>
       <c r="D431" t="n">
-        <v>34.9</v>
+        <v>34.98</v>
       </c>
     </row>
     <row r="432">
@@ -9072,7 +9072,7 @@
         </is>
       </c>
       <c r="D432" t="n">
-        <v>14.65</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="433">
@@ -9092,7 +9092,7 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>0</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="434">
@@ -9532,7 +9532,7 @@
         </is>
       </c>
       <c r="D455" t="n">
-        <v>60.6</v>
+        <v>58.13</v>
       </c>
     </row>
     <row r="456">
@@ -9612,7 +9612,7 @@
         </is>
       </c>
       <c r="D459" t="n">
-        <v>130.73</v>
+        <v>143.1</v>
       </c>
     </row>
     <row r="460">
@@ -9632,7 +9632,7 @@
         </is>
       </c>
       <c r="D460" t="n">
-        <v>130.73</v>
+        <v>120.83</v>
       </c>
     </row>
     <row r="461">
@@ -10072,7 +10072,7 @@
         </is>
       </c>
       <c r="D482" t="n">
-        <v>142.21</v>
+        <v>139.74</v>
       </c>
     </row>
     <row r="483">
@@ -10152,7 +10152,7 @@
         </is>
       </c>
       <c r="D486" t="n">
-        <v>261.84</v>
+        <v>274.21</v>
       </c>
     </row>
     <row r="487">
@@ -10172,7 +10172,7 @@
         </is>
       </c>
       <c r="D487" t="n">
-        <v>261.84</v>
+        <v>251.94</v>
       </c>
     </row>
     <row r="488">
@@ -10372,7 +10372,7 @@
         </is>
       </c>
       <c r="D497" t="n">
-        <v>228.75</v>
+        <v>229.37</v>
       </c>
     </row>
     <row r="498">
@@ -10392,7 +10392,7 @@
         </is>
       </c>
       <c r="D498" t="n">
-        <v>437.55</v>
+        <v>438.79</v>
       </c>
     </row>
     <row r="499">
@@ -10412,7 +10412,7 @@
         </is>
       </c>
       <c r="D499" t="n">
-        <v>368.75</v>
+        <v>369.38</v>
       </c>
     </row>
     <row r="500">
@@ -10432,7 +10432,7 @@
         </is>
       </c>
       <c r="D500" t="n">
-        <v>417.1</v>
+        <v>417.77</v>
       </c>
     </row>
     <row r="501">
@@ -10452,7 +10452,7 @@
         </is>
       </c>
       <c r="D501" t="n">
-        <v>408.98</v>
+        <v>409.63</v>
       </c>
     </row>
     <row r="502">
@@ -10472,7 +10472,7 @@
         </is>
       </c>
       <c r="D502" t="n">
-        <v>500.78</v>
+        <v>502.45</v>
       </c>
     </row>
     <row r="503">
@@ -10492,7 +10492,7 @@
         </is>
       </c>
       <c r="D503" t="n">
-        <v>1001.84</v>
+        <v>1005.61</v>
       </c>
     </row>
     <row r="504">
@@ -10512,7 +10512,7 @@
         </is>
       </c>
       <c r="D504" t="n">
-        <v>1013.32</v>
+        <v>1017.32</v>
       </c>
     </row>
     <row r="505">
@@ -10532,7 +10532,7 @@
         </is>
       </c>
       <c r="D505" t="n">
-        <v>1035.72</v>
+        <v>1040.04</v>
       </c>
     </row>
     <row r="506">
@@ -10552,7 +10552,7 @@
         </is>
       </c>
       <c r="D506" t="n">
-        <v>1007.14</v>
+        <v>1011.33</v>
       </c>
     </row>
     <row r="507">
@@ -10572,7 +10572,7 @@
         </is>
       </c>
       <c r="D507" t="n">
-        <v>1037.58</v>
+        <v>1041.89</v>
       </c>
     </row>
     <row r="508">
@@ -10592,7 +10592,7 @@
         </is>
       </c>
       <c r="D508" t="n">
-        <v>1029.22</v>
+        <v>1033.53</v>
       </c>
     </row>
     <row r="509">
@@ -10612,7 +10612,7 @@
         </is>
       </c>
       <c r="D509" t="n">
-        <v>1013.86</v>
+        <v>1017.98</v>
       </c>
     </row>
     <row r="510">
@@ -10632,7 +10632,7 @@
         </is>
       </c>
       <c r="D510" t="n">
-        <v>511.98</v>
+        <v>513.91</v>
       </c>
     </row>
     <row r="511">
@@ -10652,7 +10652,7 @@
         </is>
       </c>
       <c r="D511" t="n">
-        <v>989.3</v>
+        <v>994.38</v>
       </c>
     </row>
     <row r="512">
@@ -10672,7 +10672,7 @@
         </is>
       </c>
       <c r="D512" t="n">
-        <v>620.14</v>
+        <v>628.05</v>
       </c>
     </row>
     <row r="513">
@@ -10712,7 +10712,7 @@
         </is>
       </c>
       <c r="D514" t="n">
-        <v>494.22</v>
+        <v>1240.03</v>
       </c>
     </row>
     <row r="515">
@@ -11552,7 +11552,7 @@
         </is>
       </c>
       <c r="D556" t="n">
-        <v>1479.61</v>
+        <v>1520.3</v>
       </c>
     </row>
     <row r="557">
@@ -11572,7 +11572,7 @@
         </is>
       </c>
       <c r="D557" t="n">
-        <v>370.88</v>
+        <v>411.58</v>
       </c>
     </row>
     <row r="558">
@@ -11592,7 +11592,7 @@
         </is>
       </c>
       <c r="D558" t="n">
-        <v>530.38</v>
+        <v>571.08</v>
       </c>
     </row>
     <row r="559">
@@ -11612,7 +11612,7 @@
         </is>
       </c>
       <c r="D559" t="n">
-        <v>530.38</v>
+        <v>571.08</v>
       </c>
     </row>
     <row r="560">
@@ -11632,7 +11632,7 @@
         </is>
       </c>
       <c r="D560" t="n">
-        <v>687.86</v>
+        <v>728.5599999999999</v>
       </c>
     </row>
     <row r="561">
@@ -11652,7 +11652,7 @@
         </is>
       </c>
       <c r="D561" t="n">
-        <v>821.02</v>
+        <v>861.72</v>
       </c>
     </row>
     <row r="562">
@@ -11672,7 +11672,7 @@
         </is>
       </c>
       <c r="D562" t="n">
-        <v>817.77</v>
+        <v>858.47</v>
       </c>
     </row>
     <row r="563">
@@ -11692,7 +11692,7 @@
         </is>
       </c>
       <c r="D563" t="n">
-        <v>576.39</v>
+        <v>622.0700000000001</v>
       </c>
     </row>
     <row r="564">
@@ -11712,7 +11712,7 @@
         </is>
       </c>
       <c r="D564" t="n">
-        <v>255.85</v>
+        <v>301.53</v>
       </c>
     </row>
     <row r="565">
@@ -11732,7 +11732,7 @@
         </is>
       </c>
       <c r="D565" t="n">
-        <v>280.72</v>
+        <v>368.03</v>
       </c>
     </row>
     <row r="566">
@@ -11752,7 +11752,7 @@
         </is>
       </c>
       <c r="D566" t="n">
-        <v>280.72</v>
+        <v>368.03</v>
       </c>
     </row>
     <row r="567">
@@ -11772,7 +11772,7 @@
         </is>
       </c>
       <c r="D567" t="n">
-        <v>280.72</v>
+        <v>368.03</v>
       </c>
     </row>
     <row r="568">
@@ -11792,7 +11792,7 @@
         </is>
       </c>
       <c r="D568" t="n">
-        <v>280.72</v>
+        <v>92.55</v>
       </c>
     </row>
     <row r="569">
@@ -12092,7 +12092,7 @@
         </is>
       </c>
       <c r="D583" t="n">
-        <v>1363.36</v>
+        <v>1404.05</v>
       </c>
     </row>
     <row r="584">
@@ -12112,7 +12112,7 @@
         </is>
       </c>
       <c r="D584" t="n">
-        <v>254.63</v>
+        <v>295.33</v>
       </c>
     </row>
     <row r="585">
@@ -12132,7 +12132,7 @@
         </is>
       </c>
       <c r="D585" t="n">
-        <v>354.33</v>
+        <v>395.03</v>
       </c>
     </row>
     <row r="586">
@@ -12152,7 +12152,7 @@
         </is>
       </c>
       <c r="D586" t="n">
-        <v>354.33</v>
+        <v>395.03</v>
       </c>
     </row>
     <row r="587">
@@ -12172,7 +12172,7 @@
         </is>
       </c>
       <c r="D587" t="n">
-        <v>511.81</v>
+        <v>552.51</v>
       </c>
     </row>
     <row r="588">
@@ -12192,7 +12192,7 @@
         </is>
       </c>
       <c r="D588" t="n">
-        <v>644.97</v>
+        <v>685.67</v>
       </c>
     </row>
     <row r="589">
@@ -12212,7 +12212,7 @@
         </is>
       </c>
       <c r="D589" t="n">
-        <v>615.51</v>
+        <v>656.21</v>
       </c>
     </row>
     <row r="590">
@@ -12232,7 +12232,7 @@
         </is>
       </c>
       <c r="D590" t="n">
-        <v>483.84</v>
+        <v>529.52</v>
       </c>
     </row>
     <row r="591">
@@ -12252,7 +12252,7 @@
         </is>
       </c>
       <c r="D591" t="n">
-        <v>163.3</v>
+        <v>208.98</v>
       </c>
     </row>
     <row r="592">
@@ -12272,7 +12272,7 @@
         </is>
       </c>
       <c r="D592" t="n">
-        <v>237.93</v>
+        <v>325.23</v>
       </c>
     </row>
     <row r="593">
@@ -12292,7 +12292,7 @@
         </is>
       </c>
       <c r="D593" t="n">
-        <v>237.93</v>
+        <v>325.23</v>
       </c>
     </row>
     <row r="594">
@@ -12312,7 +12312,7 @@
         </is>
       </c>
       <c r="D594" t="n">
-        <v>237.93</v>
+        <v>325.23</v>
       </c>
     </row>
     <row r="595">
@@ -12332,7 +12332,7 @@
         </is>
       </c>
       <c r="D595" t="n">
-        <v>237.93</v>
+        <v>49.75</v>
       </c>
     </row>
     <row r="596">
@@ -12532,7 +12532,7 @@
         </is>
       </c>
       <c r="D605" t="n">
-        <v>2283.88</v>
+        <v>2292.92</v>
       </c>
     </row>
     <row r="606">
@@ -12552,7 +12552,7 @@
         </is>
       </c>
       <c r="D606" t="n">
-        <v>4562.71</v>
+        <v>4581.25</v>
       </c>
     </row>
     <row r="607">
@@ -12572,7 +12572,7 @@
         </is>
       </c>
       <c r="D607" t="n">
-        <v>1700.83</v>
+        <v>1709.83</v>
       </c>
     </row>
     <row r="608">
@@ -12592,7 +12592,7 @@
         </is>
       </c>
       <c r="D608" t="n">
-        <v>2393.88</v>
+        <v>2403.42</v>
       </c>
     </row>
     <row r="609">
@@ -12612,7 +12612,7 @@
         </is>
       </c>
       <c r="D609" t="n">
-        <v>2741.05</v>
+        <v>2750.59</v>
       </c>
     </row>
     <row r="610">
@@ -12632,7 +12632,7 @@
         </is>
       </c>
       <c r="D610" t="n">
-        <v>2963.38</v>
+        <v>2973.42</v>
       </c>
     </row>
     <row r="611">
@@ -12652,7 +12652,7 @@
         </is>
       </c>
       <c r="D611" t="n">
-        <v>2963.38</v>
+        <v>2973.42</v>
       </c>
     </row>
     <row r="612">
@@ -12672,7 +12672,7 @@
         </is>
       </c>
       <c r="D612" t="n">
-        <v>2972.77</v>
+        <v>2982.9</v>
       </c>
     </row>
     <row r="613">
@@ -12692,7 +12692,7 @@
         </is>
       </c>
       <c r="D613" t="n">
-        <v>3105.13</v>
+        <v>3116.25</v>
       </c>
     </row>
     <row r="614">
@@ -12712,7 +12712,7 @@
         </is>
       </c>
       <c r="D614" t="n">
-        <v>3127.23</v>
+        <v>3138.7</v>
       </c>
     </row>
     <row r="615">
@@ -12732,7 +12732,7 @@
         </is>
       </c>
       <c r="D615" t="n">
-        <v>3163.78</v>
+        <v>3178.44</v>
       </c>
     </row>
     <row r="616">
@@ -12752,7 +12752,7 @@
         </is>
       </c>
       <c r="D616" t="n">
-        <v>2583.8</v>
+        <v>2604.36</v>
       </c>
     </row>
     <row r="617">
@@ -12772,7 +12772,7 @@
         </is>
       </c>
       <c r="D617" t="n">
-        <v>3095.59</v>
+        <v>3115.8</v>
       </c>
     </row>
     <row r="618">
@@ -12792,7 +12792,7 @@
         </is>
       </c>
       <c r="D618" t="n">
-        <v>2080.17</v>
+        <v>2096.47</v>
       </c>
     </row>
     <row r="619">
@@ -12812,7 +12812,7 @@
         </is>
       </c>
       <c r="D619" t="n">
-        <v>2807.83</v>
+        <v>2834.43</v>
       </c>
     </row>
     <row r="620">
@@ -12832,7 +12832,7 @@
         </is>
       </c>
       <c r="D620" t="n">
-        <v>3389.46</v>
+        <v>3417.95</v>
       </c>
     </row>
     <row r="621">
@@ -12872,7 +12872,7 @@
         </is>
       </c>
       <c r="D622" t="n">
-        <v>1345.25</v>
+        <v>4303.26</v>
       </c>
     </row>
     <row r="623">
@@ -13372,7 +13372,7 @@
         </is>
       </c>
       <c r="D647" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="648">
@@ -13392,7 +13392,7 @@
         </is>
       </c>
       <c r="D648" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="649">
@@ -13412,7 +13412,7 @@
         </is>
       </c>
       <c r="D649" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="650">
@@ -14692,7 +14692,7 @@
         </is>
       </c>
       <c r="D713" t="n">
-        <v>331.3</v>
+        <v>334.24</v>
       </c>
     </row>
     <row r="714">
@@ -14712,7 +14712,7 @@
         </is>
       </c>
       <c r="D714" t="n">
-        <v>783.04</v>
+        <v>789.77</v>
       </c>
     </row>
     <row r="715">
@@ -14732,7 +14732,7 @@
         </is>
       </c>
       <c r="D715" t="n">
-        <v>370.61</v>
+        <v>374.01</v>
       </c>
     </row>
     <row r="716">
@@ -14752,7 +14752,7 @@
         </is>
       </c>
       <c r="D716" t="n">
-        <v>412.04</v>
+        <v>415.68</v>
       </c>
     </row>
     <row r="717">
@@ -14772,7 +14772,7 @@
         </is>
       </c>
       <c r="D717" t="n">
-        <v>416.79</v>
+        <v>420.59</v>
       </c>
     </row>
     <row r="718">
@@ -14792,7 +14792,7 @@
         </is>
       </c>
       <c r="D718" t="n">
-        <v>450.05</v>
+        <v>453.89</v>
       </c>
     </row>
     <row r="719">
@@ -14812,7 +14812,7 @@
         </is>
       </c>
       <c r="D719" t="n">
-        <v>569.76</v>
+        <v>573.92</v>
       </c>
     </row>
     <row r="720">
@@ -14832,7 +14832,7 @@
         </is>
       </c>
       <c r="D720" t="n">
-        <v>605.4</v>
+        <v>609.67</v>
       </c>
     </row>
     <row r="721">
@@ -14852,7 +14852,7 @@
         </is>
       </c>
       <c r="D721" t="n">
-        <v>605.4</v>
+        <v>609.67</v>
       </c>
     </row>
     <row r="722">
@@ -14872,7 +14872,7 @@
         </is>
       </c>
       <c r="D722" t="n">
-        <v>619.5</v>
+        <v>623.78</v>
       </c>
     </row>
     <row r="723">
@@ -14892,7 +14892,7 @@
         </is>
       </c>
       <c r="D723" t="n">
-        <v>559.23</v>
+        <v>563.52</v>
       </c>
     </row>
     <row r="724">
@@ -14912,7 +14912,7 @@
         </is>
       </c>
       <c r="D724" t="n">
-        <v>616.38</v>
+        <v>620.52</v>
       </c>
     </row>
     <row r="725">
@@ -14932,7 +14932,7 @@
         </is>
       </c>
       <c r="D725" t="n">
-        <v>889.8</v>
+        <v>893.88</v>
       </c>
     </row>
     <row r="726">
@@ -14952,7 +14952,7 @@
         </is>
       </c>
       <c r="D726" t="n">
-        <v>801.02</v>
+        <v>802.39</v>
       </c>
     </row>
     <row r="727">
@@ -14972,7 +14972,7 @@
         </is>
       </c>
       <c r="D727" t="n">
-        <v>752.61</v>
+        <v>756.8</v>
       </c>
     </row>
     <row r="728">
@@ -14992,7 +14992,7 @@
         </is>
       </c>
       <c r="D728" t="n">
-        <v>905.1</v>
+        <v>909.33</v>
       </c>
     </row>
     <row r="729">
@@ -15032,7 +15032,7 @@
         </is>
       </c>
       <c r="D730" t="n">
-        <v>751.9299999999999</v>
+        <v>1062.46</v>
       </c>
     </row>
     <row r="731">
@@ -15552,7 +15552,7 @@
         </is>
       </c>
       <c r="D756" t="n">
-        <v>1.96</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="757">
@@ -15572,7 +15572,7 @@
         </is>
       </c>
       <c r="D757" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="758">
@@ -16872,7 +16872,7 @@
         </is>
       </c>
       <c r="D822" t="n">
-        <v>79.89</v>
+        <v>81.18000000000001</v>
       </c>
     </row>
     <row r="823">
@@ -16892,7 +16892,7 @@
         </is>
       </c>
       <c r="D823" t="n">
-        <v>48.87</v>
+        <v>49.54</v>
       </c>
     </row>
     <row r="824">
@@ -16912,7 +16912,7 @@
         </is>
       </c>
       <c r="D824" t="n">
-        <v>62.35</v>
+        <v>63.09</v>
       </c>
     </row>
     <row r="825">
@@ -16932,7 +16932,7 @@
         </is>
       </c>
       <c r="D825" t="n">
-        <v>102.82</v>
+        <v>103.56</v>
       </c>
     </row>
     <row r="826">
@@ -16952,7 +16952,7 @@
         </is>
       </c>
       <c r="D826" t="n">
-        <v>71.58</v>
+        <v>72.31999999999999</v>
       </c>
     </row>
     <row r="827">
@@ -16972,7 +16972,7 @@
         </is>
       </c>
       <c r="D827" t="n">
-        <v>255.08</v>
+        <v>255.82</v>
       </c>
     </row>
     <row r="828">
@@ -16992,7 +16992,7 @@
         </is>
       </c>
       <c r="D828" t="n">
-        <v>249.25</v>
+        <v>250.11</v>
       </c>
     </row>
     <row r="829">
@@ -17012,7 +17012,7 @@
         </is>
       </c>
       <c r="D829" t="n">
-        <v>286.93</v>
+        <v>287.86</v>
       </c>
     </row>
     <row r="830">
@@ -17032,7 +17032,7 @@
         </is>
       </c>
       <c r="D830" t="n">
-        <v>305.76</v>
+        <v>306.9</v>
       </c>
     </row>
     <row r="831">
@@ -17052,7 +17052,7 @@
         </is>
       </c>
       <c r="D831" t="n">
-        <v>305.76</v>
+        <v>306.9</v>
       </c>
     </row>
     <row r="832">
@@ -17072,7 +17072,7 @@
         </is>
       </c>
       <c r="D832" t="n">
-        <v>122.62</v>
+        <v>123.76</v>
       </c>
     </row>
     <row r="833">
@@ -17092,7 +17092,7 @@
         </is>
       </c>
       <c r="D833" t="n">
-        <v>295.22</v>
+        <v>296.19</v>
       </c>
     </row>
     <row r="834">
@@ -17112,7 +17112,7 @@
         </is>
       </c>
       <c r="D834" t="n">
-        <v>286.75</v>
+        <v>287.68</v>
       </c>
     </row>
     <row r="835">
@@ -17132,7 +17132,7 @@
         </is>
       </c>
       <c r="D835" t="n">
-        <v>273.71</v>
+        <v>274.1</v>
       </c>
     </row>
     <row r="836">
@@ -17152,7 +17152,7 @@
         </is>
       </c>
       <c r="D836" t="n">
-        <v>282.58</v>
+        <v>283.16</v>
       </c>
     </row>
     <row r="837">
@@ -17192,7 +17192,7 @@
         </is>
       </c>
       <c r="D838" t="n">
-        <v>291.9</v>
+        <v>371.67</v>
       </c>
     </row>
     <row r="839">
@@ -17672,7 +17672,7 @@
         </is>
       </c>
       <c r="D862" t="n">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="863">
@@ -17692,7 +17692,7 @@
         </is>
       </c>
       <c r="D863" t="n">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="864">
@@ -17712,7 +17712,7 @@
         </is>
       </c>
       <c r="D864" t="n">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="865">
@@ -17732,7 +17732,7 @@
         </is>
       </c>
       <c r="D865" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="866">
@@ -18172,7 +18172,7 @@
         </is>
       </c>
       <c r="D887" t="n">
-        <v>138.69</v>
+        <v>154.53</v>
       </c>
     </row>
     <row r="888">
@@ -18192,7 +18192,7 @@
         </is>
       </c>
       <c r="D888" t="n">
-        <v>128.79</v>
+        <v>144.63</v>
       </c>
     </row>
     <row r="889">
@@ -18212,7 +18212,7 @@
         </is>
       </c>
       <c r="D889" t="n">
-        <v>165.92</v>
+        <v>181.76</v>
       </c>
     </row>
     <row r="890">
@@ -18232,7 +18232,7 @@
         </is>
       </c>
       <c r="D890" t="n">
-        <v>165.92</v>
+        <v>181.76</v>
       </c>
     </row>
     <row r="891">
@@ -18252,7 +18252,7 @@
         </is>
       </c>
       <c r="D891" t="n">
-        <v>128.54</v>
+        <v>181.76</v>
       </c>
     </row>
     <row r="892">
@@ -18272,7 +18272,7 @@
         </is>
       </c>
       <c r="D892" t="n">
-        <v>128.54</v>
+        <v>111.96</v>
       </c>
     </row>
     <row r="893">
@@ -18712,7 +18712,7 @@
         </is>
       </c>
       <c r="D914" t="n">
-        <v>138.69</v>
+        <v>154.53</v>
       </c>
     </row>
     <row r="915">
@@ -18732,7 +18732,7 @@
         </is>
       </c>
       <c r="D915" t="n">
-        <v>128.79</v>
+        <v>144.63</v>
       </c>
     </row>
     <row r="916">
@@ -18752,7 +18752,7 @@
         </is>
       </c>
       <c r="D916" t="n">
-        <v>165.92</v>
+        <v>181.76</v>
       </c>
     </row>
     <row r="917">
@@ -18772,7 +18772,7 @@
         </is>
       </c>
       <c r="D917" t="n">
-        <v>165.92</v>
+        <v>181.76</v>
       </c>
     </row>
     <row r="918">
@@ -18792,7 +18792,7 @@
         </is>
       </c>
       <c r="D918" t="n">
-        <v>128.54</v>
+        <v>181.76</v>
       </c>
     </row>
     <row r="919">
@@ -18812,7 +18812,7 @@
         </is>
       </c>
       <c r="D919" t="n">
-        <v>128.54</v>
+        <v>111.96</v>
       </c>
     </row>
     <row r="920">
@@ -19012,7 +19012,7 @@
         </is>
       </c>
       <c r="D929" t="n">
-        <v>1307.41</v>
+        <v>1319.71</v>
       </c>
     </row>
     <row r="930">
@@ -19032,7 +19032,7 @@
         </is>
       </c>
       <c r="D930" t="n">
-        <v>4437.44</v>
+        <v>4496.04</v>
       </c>
     </row>
     <row r="931">
@@ -19052,7 +19052,7 @@
         </is>
       </c>
       <c r="D931" t="n">
-        <v>2658.93</v>
+        <v>2697.73</v>
       </c>
     </row>
     <row r="932">
@@ -19072,7 +19072,7 @@
         </is>
       </c>
       <c r="D932" t="n">
-        <v>3432.22</v>
+        <v>3473.27</v>
       </c>
     </row>
     <row r="933">
@@ -19092,7 +19092,7 @@
         </is>
       </c>
       <c r="D933" t="n">
-        <v>4805.22</v>
+        <v>4860.77</v>
       </c>
     </row>
     <row r="934">
@@ -19112,7 +19112,7 @@
         </is>
       </c>
       <c r="D934" t="n">
-        <v>6104.54</v>
+        <v>6162.59</v>
       </c>
     </row>
     <row r="935">
@@ -19132,7 +19132,7 @@
         </is>
       </c>
       <c r="D935" t="n">
-        <v>9178.719999999999</v>
+        <v>9251.77</v>
       </c>
     </row>
     <row r="936">
@@ -19152,7 +19152,7 @@
         </is>
       </c>
       <c r="D936" t="n">
-        <v>9178.719999999999</v>
+        <v>9251.77</v>
       </c>
     </row>
     <row r="937">
@@ -19172,7 +19172,7 @@
         </is>
       </c>
       <c r="D937" t="n">
-        <v>9178.719999999999</v>
+        <v>9251.77</v>
       </c>
     </row>
     <row r="938">
@@ -19192,7 +19192,7 @@
         </is>
       </c>
       <c r="D938" t="n">
-        <v>10586.76</v>
+        <v>10659.8</v>
       </c>
     </row>
     <row r="939">
@@ -19212,7 +19212,7 @@
         </is>
       </c>
       <c r="D939" t="n">
-        <v>12395.44</v>
+        <v>12471.99</v>
       </c>
     </row>
     <row r="940">
@@ -19232,7 +19232,7 @@
         </is>
       </c>
       <c r="D940" t="n">
-        <v>11807.22</v>
+        <v>11883.77</v>
       </c>
     </row>
     <row r="941">
@@ -19252,7 +19252,7 @@
         </is>
       </c>
       <c r="D941" t="n">
-        <v>9814.370000000001</v>
+        <v>9866.219999999999</v>
       </c>
     </row>
     <row r="942">
@@ -19272,7 +19272,7 @@
         </is>
       </c>
       <c r="D942" t="n">
-        <v>10382.89</v>
+        <v>10436.44</v>
       </c>
     </row>
     <row r="943">
@@ -19292,7 +19292,7 @@
         </is>
       </c>
       <c r="D943" t="n">
-        <v>9972.43</v>
+        <v>10050.74</v>
       </c>
     </row>
     <row r="944">
@@ -19312,7 +19312,7 @@
         </is>
       </c>
       <c r="D944" t="n">
-        <v>9577.440000000001</v>
+        <v>9792.99</v>
       </c>
     </row>
     <row r="945">
@@ -19352,7 +19352,7 @@
         </is>
       </c>
       <c r="D946" t="n">
-        <v>3262.95</v>
+        <v>10872.97</v>
       </c>
     </row>
     <row r="947">
@@ -21172,7 +21172,7 @@
         </is>
       </c>
       <c r="D1037" t="n">
-        <v>452.93</v>
+        <v>459.1</v>
       </c>
     </row>
     <row r="1038">
@@ -21192,7 +21192,7 @@
         </is>
       </c>
       <c r="D1038" t="n">
-        <v>6432.41</v>
+        <v>6444.15</v>
       </c>
     </row>
     <row r="1039">
@@ -21212,7 +21212,7 @@
         </is>
       </c>
       <c r="D1039" t="n">
-        <v>6003.09</v>
+        <v>6009.22</v>
       </c>
     </row>
     <row r="1040">
@@ -21232,7 +21232,7 @@
         </is>
       </c>
       <c r="D1040" t="n">
-        <v>6028.43</v>
+        <v>6034.6</v>
       </c>
     </row>
     <row r="1041">
@@ -21252,7 +21252,7 @@
         </is>
       </c>
       <c r="D1041" t="n">
-        <v>6028.43</v>
+        <v>6034.6</v>
       </c>
     </row>
     <row r="1042">
@@ -21272,7 +21272,7 @@
         </is>
       </c>
       <c r="D1042" t="n">
-        <v>5977.93</v>
+        <v>5982.1</v>
       </c>
     </row>
     <row r="1043">
@@ -21292,7 +21292,7 @@
         </is>
       </c>
       <c r="D1043" t="n">
-        <v>7006.93</v>
+        <v>7023.6</v>
       </c>
     </row>
     <row r="1044">
@@ -21312,7 +21312,7 @@
         </is>
       </c>
       <c r="D1044" t="n">
-        <v>7006.93</v>
+        <v>7023.6</v>
       </c>
     </row>
     <row r="1045">
@@ -21332,7 +21332,7 @@
         </is>
       </c>
       <c r="D1045" t="n">
-        <v>7087.56</v>
+        <v>7106.31</v>
       </c>
     </row>
     <row r="1046">
@@ -21352,7 +21352,7 @@
         </is>
       </c>
       <c r="D1046" t="n">
-        <v>7314.07</v>
+        <v>7330.84</v>
       </c>
     </row>
     <row r="1047">
@@ -21372,7 +21372,7 @@
         </is>
       </c>
       <c r="D1047" t="n">
-        <v>9967.6</v>
+        <v>10019.37</v>
       </c>
     </row>
     <row r="1048">
@@ -21392,7 +21392,7 @@
         </is>
       </c>
       <c r="D1048" t="n">
-        <v>8988.16</v>
+        <v>9035.93</v>
       </c>
     </row>
     <row r="1049">
@@ -21412,7 +21412,7 @@
         </is>
       </c>
       <c r="D1049" t="n">
-        <v>10111.56</v>
+        <v>10156.81</v>
       </c>
     </row>
     <row r="1050">
@@ -21432,7 +21432,7 @@
         </is>
       </c>
       <c r="D1050" t="n">
-        <v>9022.33</v>
+        <v>9064.610000000001</v>
       </c>
     </row>
     <row r="1051">
@@ -21452,7 +21452,7 @@
         </is>
       </c>
       <c r="D1051" t="n">
-        <v>7969.87</v>
+        <v>7992.56</v>
       </c>
     </row>
     <row r="1052">
@@ -21472,7 +21472,7 @@
         </is>
       </c>
       <c r="D1052" t="n">
-        <v>9972.98</v>
+        <v>10024.75</v>
       </c>
     </row>
     <row r="1053">
@@ -21512,7 +21512,7 @@
         </is>
       </c>
       <c r="D1054" t="n">
-        <v>3880.28</v>
+        <v>7772.89</v>
       </c>
     </row>
     <row r="1055">
@@ -22332,7 +22332,7 @@
         </is>
       </c>
       <c r="D1095" t="n">
-        <v>2522.98</v>
+        <v>2526.55</v>
       </c>
     </row>
     <row r="1096">
@@ -22352,7 +22352,7 @@
         </is>
       </c>
       <c r="D1096" t="n">
-        <v>2028.04</v>
+        <v>2031.61</v>
       </c>
     </row>
     <row r="1097">
@@ -22372,7 +22372,7 @@
         </is>
       </c>
       <c r="D1097" t="n">
-        <v>1559.38</v>
+        <v>1562.96</v>
       </c>
     </row>
     <row r="1098">
@@ -22392,7 +22392,7 @@
         </is>
       </c>
       <c r="D1098" t="n">
-        <v>1988.05</v>
+        <v>1991.62</v>
       </c>
     </row>
     <row r="1099">
@@ -22412,7 +22412,7 @@
         </is>
       </c>
       <c r="D1099" t="n">
-        <v>2189.34</v>
+        <v>2192.91</v>
       </c>
     </row>
     <row r="1100">
@@ -22432,7 +22432,7 @@
         </is>
       </c>
       <c r="D1100" t="n">
-        <v>1331.2</v>
+        <v>1334.77</v>
       </c>
     </row>
     <row r="1101">
@@ -22452,7 +22452,7 @@
         </is>
       </c>
       <c r="D1101" t="n">
-        <v>1096.62</v>
+        <v>1100.19</v>
       </c>
     </row>
     <row r="1102">
@@ -22472,7 +22472,7 @@
         </is>
       </c>
       <c r="D1102" t="n">
-        <v>558.92</v>
+        <v>562.49</v>
       </c>
     </row>
     <row r="1103">
@@ -22492,7 +22492,7 @@
         </is>
       </c>
       <c r="D1103" t="n">
-        <v>464.3</v>
+        <v>504.32</v>
       </c>
     </row>
     <row r="1104">
@@ -22512,7 +22512,7 @@
         </is>
       </c>
       <c r="D1104" t="n">
-        <v>480.8</v>
+        <v>516.6900000000001</v>
       </c>
     </row>
     <row r="1105">
@@ -22532,7 +22532,7 @@
         </is>
       </c>
       <c r="D1105" t="n">
-        <v>322.4</v>
+        <v>395.42</v>
       </c>
     </row>
     <row r="1106">
@@ -22552,7 +22552,7 @@
         </is>
       </c>
       <c r="D1106" t="n">
-        <v>371.9</v>
+        <v>411.92</v>
       </c>
     </row>
     <row r="1107">
@@ -22572,7 +22572,7 @@
         </is>
       </c>
       <c r="D1107" t="n">
-        <v>293.52</v>
+        <v>770.79</v>
       </c>
     </row>
     <row r="1108">
@@ -22592,7 +22592,7 @@
         </is>
       </c>
       <c r="D1108" t="n">
-        <v>293.52</v>
+        <v>540.22</v>
       </c>
     </row>
     <row r="1109">
@@ -22872,7 +22872,7 @@
         </is>
       </c>
       <c r="D1122" t="n">
-        <v>2879.38</v>
+        <v>2882.95</v>
       </c>
     </row>
     <row r="1123">
@@ -22892,7 +22892,7 @@
         </is>
       </c>
       <c r="D1123" t="n">
-        <v>2463.16</v>
+        <v>2466.73</v>
       </c>
     </row>
     <row r="1124">
@@ -22912,7 +22912,7 @@
         </is>
       </c>
       <c r="D1124" t="n">
-        <v>1928.5</v>
+        <v>1932.07</v>
       </c>
     </row>
     <row r="1125">
@@ -22932,7 +22932,7 @@
         </is>
       </c>
       <c r="D1125" t="n">
-        <v>2505.67</v>
+        <v>2509.24</v>
       </c>
     </row>
     <row r="1126">
@@ -22952,7 +22952,7 @@
         </is>
       </c>
       <c r="D1126" t="n">
-        <v>2739.96</v>
+        <v>2743.53</v>
       </c>
     </row>
     <row r="1127">
@@ -22972,7 +22972,7 @@
         </is>
       </c>
       <c r="D1127" t="n">
-        <v>1807.56</v>
+        <v>1811.14</v>
       </c>
     </row>
     <row r="1128">
@@ -22992,7 +22992,7 @@
         </is>
       </c>
       <c r="D1128" t="n">
-        <v>1518.54</v>
+        <v>1522.11</v>
       </c>
     </row>
     <row r="1129">
@@ -23012,7 +23012,7 @@
         </is>
       </c>
       <c r="D1129" t="n">
-        <v>732.17</v>
+        <v>735.74</v>
       </c>
     </row>
     <row r="1130">
@@ -23032,7 +23032,7 @@
         </is>
       </c>
       <c r="D1130" t="n">
-        <v>596.3</v>
+        <v>642.92</v>
       </c>
     </row>
     <row r="1131">
@@ -23052,7 +23052,7 @@
         </is>
       </c>
       <c r="D1131" t="n">
-        <v>612.8</v>
+        <v>655.29</v>
       </c>
     </row>
     <row r="1132">
@@ -23072,7 +23072,7 @@
         </is>
       </c>
       <c r="D1132" t="n">
-        <v>404.9</v>
+        <v>492.77</v>
       </c>
     </row>
     <row r="1133">
@@ -23092,7 +23092,7 @@
         </is>
       </c>
       <c r="D1133" t="n">
-        <v>454.4</v>
+        <v>509.27</v>
       </c>
     </row>
     <row r="1134">
@@ -23112,7 +23112,7 @@
         </is>
       </c>
       <c r="D1134" t="n">
-        <v>351.27</v>
+        <v>1041.39</v>
       </c>
     </row>
     <row r="1135">
@@ -23132,7 +23132,7 @@
         </is>
       </c>
       <c r="D1135" t="n">
-        <v>351.27</v>
+        <v>738.22</v>
       </c>
     </row>
     <row r="1136">
@@ -23332,7 +23332,7 @@
         </is>
       </c>
       <c r="D1145" t="n">
-        <v>95.95999999999999</v>
+        <v>95.97</v>
       </c>
     </row>
     <row r="1146">
@@ -23352,7 +23352,7 @@
         </is>
       </c>
       <c r="D1146" t="n">
-        <v>807.0700000000001</v>
+        <v>809.22</v>
       </c>
     </row>
     <row r="1147">
@@ -23372,7 +23372,7 @@
         </is>
       </c>
       <c r="D1147" t="n">
-        <v>497.82</v>
+        <v>498.96</v>
       </c>
     </row>
     <row r="1148">
@@ -23392,7 +23392,7 @@
         </is>
       </c>
       <c r="D1148" t="n">
-        <v>497.82</v>
+        <v>498.96</v>
       </c>
     </row>
     <row r="1149">
@@ -23412,7 +23412,7 @@
         </is>
       </c>
       <c r="D1149" t="n">
-        <v>503.69</v>
+        <v>504.83</v>
       </c>
     </row>
     <row r="1150">
@@ -23432,7 +23432,7 @@
         </is>
       </c>
       <c r="D1150" t="n">
-        <v>513.36</v>
+        <v>514.5</v>
       </c>
     </row>
     <row r="1151">
@@ -23452,7 +23452,7 @@
         </is>
       </c>
       <c r="D1151" t="n">
-        <v>551.4</v>
+        <v>552.54</v>
       </c>
     </row>
     <row r="1152">
@@ -23472,7 +23472,7 @@
         </is>
       </c>
       <c r="D1152" t="n">
-        <v>565.0700000000001</v>
+        <v>566.83</v>
       </c>
     </row>
     <row r="1153">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="D1153" t="n">
-        <v>739.0700000000001</v>
+        <v>740.83</v>
       </c>
     </row>
     <row r="1154">
@@ -23512,7 +23512,7 @@
         </is>
       </c>
       <c r="D1154" t="n">
-        <v>740.49</v>
+        <v>742.26</v>
       </c>
     </row>
     <row r="1155">
@@ -23532,7 +23532,7 @@
         </is>
       </c>
       <c r="D1155" t="n">
-        <v>686.33</v>
+        <v>688.12</v>
       </c>
     </row>
     <row r="1156">
@@ -23552,7 +23552,7 @@
         </is>
       </c>
       <c r="D1156" t="n">
-        <v>746.15</v>
+        <v>747.9400000000001</v>
       </c>
     </row>
     <row r="1157">
@@ -23572,7 +23572,7 @@
         </is>
       </c>
       <c r="D1157" t="n">
-        <v>647.26</v>
+        <v>652.86</v>
       </c>
     </row>
     <row r="1158">
@@ -23592,7 +23592,7 @@
         </is>
       </c>
       <c r="D1158" t="n">
-        <v>847.8200000000001</v>
+        <v>853.4400000000001</v>
       </c>
     </row>
     <row r="1159">
@@ -23612,7 +23612,7 @@
         </is>
       </c>
       <c r="D1159" t="n">
-        <v>894.51</v>
+        <v>896.75</v>
       </c>
     </row>
     <row r="1160">
@@ -23632,7 +23632,7 @@
         </is>
       </c>
       <c r="D1160" t="n">
-        <v>730.26</v>
+        <v>736.33</v>
       </c>
     </row>
     <row r="1161">
@@ -23672,7 +23672,7 @@
         </is>
       </c>
       <c r="D1162" t="n">
-        <v>804.51</v>
+        <v>1091.13</v>
       </c>
     </row>
     <row r="1163">
@@ -24152,7 +24152,7 @@
         </is>
       </c>
       <c r="D1186" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="1187">
@@ -24172,7 +24172,7 @@
         </is>
       </c>
       <c r="D1187" t="n">
-        <v>2.16</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="1188">
@@ -24192,7 +24192,7 @@
         </is>
       </c>
       <c r="D1188" t="n">
-        <v>2.16</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="1189">
@@ -24212,7 +24212,7 @@
         </is>
       </c>
       <c r="D1189" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="1190">
@@ -25492,7 +25492,7 @@
         </is>
       </c>
       <c r="D1253" t="n">
-        <v>69.98</v>
+        <v>70.33</v>
       </c>
     </row>
     <row r="1254">
@@ -25512,7 +25512,7 @@
         </is>
       </c>
       <c r="D1254" t="n">
-        <v>139.96</v>
+        <v>140.66</v>
       </c>
     </row>
     <row r="1255">
@@ -25532,7 +25532,7 @@
         </is>
       </c>
       <c r="D1255" t="n">
-        <v>69.98</v>
+        <v>70.33</v>
       </c>
     </row>
     <row r="1256">
@@ -25552,7 +25552,7 @@
         </is>
       </c>
       <c r="D1256" t="n">
-        <v>69.98</v>
+        <v>70.33</v>
       </c>
     </row>
     <row r="1257">
@@ -25572,7 +25572,7 @@
         </is>
       </c>
       <c r="D1257" t="n">
-        <v>69.98</v>
+        <v>70.33</v>
       </c>
     </row>
     <row r="1258">
@@ -25592,7 +25592,7 @@
         </is>
       </c>
       <c r="D1258" t="n">
-        <v>69.98</v>
+        <v>70.33</v>
       </c>
     </row>
     <row r="1259">
@@ -25612,7 +25612,7 @@
         </is>
       </c>
       <c r="D1259" t="n">
-        <v>69.98</v>
+        <v>70.33</v>
       </c>
     </row>
     <row r="1260">
@@ -25632,7 +25632,7 @@
         </is>
       </c>
       <c r="D1260" t="n">
-        <v>69.98</v>
+        <v>70.33</v>
       </c>
     </row>
     <row r="1261">
@@ -25652,7 +25652,7 @@
         </is>
       </c>
       <c r="D1261" t="n">
-        <v>69.98</v>
+        <v>70.33</v>
       </c>
     </row>
     <row r="1262">
@@ -25672,7 +25672,7 @@
         </is>
       </c>
       <c r="D1262" t="n">
-        <v>69.98</v>
+        <v>70.33</v>
       </c>
     </row>
     <row r="1263">
@@ -25692,7 +25692,7 @@
         </is>
       </c>
       <c r="D1263" t="n">
-        <v>69.98</v>
+        <v>70.33</v>
       </c>
     </row>
     <row r="1264">
@@ -25712,7 +25712,7 @@
         </is>
       </c>
       <c r="D1264" t="n">
-        <v>66.04000000000001</v>
+        <v>66.39</v>
       </c>
     </row>
     <row r="1265">
@@ -25732,7 +25732,7 @@
         </is>
       </c>
       <c r="D1265" t="n">
-        <v>50.5</v>
+        <v>50.59</v>
       </c>
     </row>
     <row r="1266">
@@ -25752,7 +25752,7 @@
         </is>
       </c>
       <c r="D1266" t="n">
-        <v>69.98</v>
+        <v>70.33</v>
       </c>
     </row>
     <row r="1267">
@@ -25772,7 +25772,7 @@
         </is>
       </c>
       <c r="D1267" t="n">
-        <v>85.38</v>
+        <v>89.01000000000001</v>
       </c>
     </row>
     <row r="1268">
@@ -25792,7 +25792,7 @@
         </is>
       </c>
       <c r="D1268" t="n">
-        <v>82.19</v>
+        <v>82.54000000000001</v>
       </c>
     </row>
     <row r="1269">
@@ -25832,7 +25832,7 @@
         </is>
       </c>
       <c r="D1270" t="n">
-        <v>62.71</v>
+        <v>112.14</v>
       </c>
     </row>
     <row r="1271">
@@ -27652,7 +27652,7 @@
         </is>
       </c>
       <c r="D1361" t="n">
-        <v>9507.92</v>
+        <v>9641.790000000001</v>
       </c>
     </row>
     <row r="1362">
@@ -27672,7 +27672,7 @@
         </is>
       </c>
       <c r="D1362" t="n">
-        <v>28362.89</v>
+        <v>28665.92</v>
       </c>
     </row>
     <row r="1363">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="D1363" t="n">
-        <v>6681.26</v>
+        <v>6802.48</v>
       </c>
     </row>
     <row r="1364">
@@ -27712,7 +27712,7 @@
         </is>
       </c>
       <c r="D1364" t="n">
-        <v>24427</v>
+        <v>24610.4</v>
       </c>
     </row>
     <row r="1365">
@@ -27732,7 +27732,7 @@
         </is>
       </c>
       <c r="D1365" t="n">
-        <v>18819.39</v>
+        <v>18986.7</v>
       </c>
     </row>
     <row r="1366">
@@ -27752,7 +27752,7 @@
         </is>
       </c>
       <c r="D1366" t="n">
-        <v>19960.08</v>
+        <v>20134.64</v>
       </c>
     </row>
     <row r="1367">
@@ -27772,7 +27772,7 @@
         </is>
       </c>
       <c r="D1367" t="n">
-        <v>23831.88</v>
+        <v>24024.19</v>
       </c>
     </row>
     <row r="1368">
@@ -27792,7 +27792,7 @@
         </is>
       </c>
       <c r="D1368" t="n">
-        <v>24368.26</v>
+        <v>24562.84</v>
       </c>
     </row>
     <row r="1369">
@@ -27812,7 +27812,7 @@
         </is>
       </c>
       <c r="D1369" t="n">
-        <v>24588.38</v>
+        <v>24783.69</v>
       </c>
     </row>
     <row r="1370">
@@ -27832,7 +27832,7 @@
         </is>
       </c>
       <c r="D1370" t="n">
-        <v>24868.56</v>
+        <v>25063.29</v>
       </c>
     </row>
     <row r="1371">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="D1371" t="n">
-        <v>24976.88</v>
+        <v>25173.19</v>
       </c>
     </row>
     <row r="1372">
@@ -27872,7 +27872,7 @@
         </is>
       </c>
       <c r="D1372" t="n">
-        <v>25390.15</v>
+        <v>25589.19</v>
       </c>
     </row>
     <row r="1373">
@@ -27892,7 +27892,7 @@
         </is>
       </c>
       <c r="D1373" t="n">
-        <v>21894.98</v>
+        <v>22086.43</v>
       </c>
     </row>
     <row r="1374">
@@ -27912,7 +27912,7 @@
         </is>
       </c>
       <c r="D1374" t="n">
-        <v>19126.86</v>
+        <v>19300.32</v>
       </c>
     </row>
     <row r="1375">
@@ -27932,7 +27932,7 @@
         </is>
       </c>
       <c r="D1375" t="n">
-        <v>25596.24</v>
+        <v>25790.74</v>
       </c>
     </row>
     <row r="1376">
@@ -27952,7 +27952,7 @@
         </is>
       </c>
       <c r="D1376" t="n">
-        <v>24017.46</v>
+        <v>24280.73</v>
       </c>
     </row>
     <row r="1377">
@@ -27992,7 +27992,7 @@
         </is>
       </c>
       <c r="D1378" t="n">
-        <v>17392.21</v>
+        <v>38036.69</v>
       </c>
     </row>
     <row r="1379">
@@ -29052,7 +29052,7 @@
         </is>
       </c>
       <c r="D1431" t="n">
-        <v>0</v>
+        <v>3816.75</v>
       </c>
     </row>
     <row r="1432">
@@ -29072,7 +29072,7 @@
         </is>
       </c>
       <c r="D1432" t="n">
-        <v>0</v>
+        <v>3272.25</v>
       </c>
     </row>
     <row r="1433">
@@ -29592,7 +29592,7 @@
         </is>
       </c>
       <c r="D1458" t="n">
-        <v>0</v>
+        <v>2717.75</v>
       </c>
     </row>
     <row r="1459">
@@ -29612,7 +29612,7 @@
         </is>
       </c>
       <c r="D1459" t="n">
-        <v>0</v>
+        <v>2173.25</v>
       </c>
     </row>
     <row r="1460">
@@ -29812,7 +29812,7 @@
         </is>
       </c>
       <c r="D1469" t="n">
-        <v>4334.5</v>
+        <v>4453</v>
       </c>
     </row>
     <row r="1470">
@@ -29832,7 +29832,7 @@
         </is>
       </c>
       <c r="D1470" t="n">
-        <v>8669</v>
+        <v>8906</v>
       </c>
     </row>
     <row r="1471">
@@ -29852,7 +29852,7 @@
         </is>
       </c>
       <c r="D1471" t="n">
-        <v>4334.5</v>
+        <v>4453</v>
       </c>
     </row>
     <row r="1472">
@@ -29872,7 +29872,7 @@
         </is>
       </c>
       <c r="D1472" t="n">
-        <v>4080.5</v>
+        <v>4199</v>
       </c>
     </row>
     <row r="1473">
@@ -29892,7 +29892,7 @@
         </is>
       </c>
       <c r="D1473" t="n">
-        <v>4334.5</v>
+        <v>4453</v>
       </c>
     </row>
     <row r="1474">
@@ -29912,7 +29912,7 @@
         </is>
       </c>
       <c r="D1474" t="n">
-        <v>4334.5</v>
+        <v>4453</v>
       </c>
     </row>
     <row r="1475">
@@ -29932,7 +29932,7 @@
         </is>
       </c>
       <c r="D1475" t="n">
-        <v>4751</v>
+        <v>4869.5</v>
       </c>
     </row>
     <row r="1476">
@@ -29952,7 +29952,7 @@
         </is>
       </c>
       <c r="D1476" t="n">
-        <v>5074</v>
+        <v>5572</v>
       </c>
     </row>
     <row r="1477">
@@ -29972,7 +29972,7 @@
         </is>
       </c>
       <c r="D1477" t="n">
-        <v>5074</v>
+        <v>5572</v>
       </c>
     </row>
     <row r="1478">
@@ -29992,7 +29992,7 @@
         </is>
       </c>
       <c r="D1478" t="n">
-        <v>10474.5</v>
+        <v>11023</v>
       </c>
     </row>
     <row r="1479">
@@ -30012,7 +30012,7 @@
         </is>
       </c>
       <c r="D1479" t="n">
-        <v>16240.5</v>
+        <v>16789</v>
       </c>
     </row>
     <row r="1480">
@@ -30032,7 +30032,7 @@
         </is>
       </c>
       <c r="D1480" t="n">
-        <v>16240.5</v>
+        <v>16789</v>
       </c>
     </row>
     <row r="1481">
@@ -30052,7 +30052,7 @@
         </is>
       </c>
       <c r="D1481" t="n">
-        <v>16240.5</v>
+        <v>16417.5</v>
       </c>
     </row>
     <row r="1482">
@@ -30072,7 +30072,7 @@
         </is>
       </c>
       <c r="D1482" t="n">
-        <v>15637.5</v>
+        <v>16185.5</v>
       </c>
     </row>
     <row r="1483">
@@ -30092,7 +30092,7 @@
         </is>
       </c>
       <c r="D1483" t="n">
-        <v>10657.5</v>
+        <v>11205.5</v>
       </c>
     </row>
     <row r="1484">
@@ -30112,7 +30112,7 @@
         </is>
       </c>
       <c r="D1484" t="n">
-        <v>15986.5</v>
+        <v>16535</v>
       </c>
     </row>
     <row r="1485">
@@ -30152,7 +30152,7 @@
         </is>
       </c>
       <c r="D1486" t="n">
-        <v>1751</v>
+        <v>11021</v>
       </c>
     </row>
     <row r="1487">
@@ -30692,7 +30692,7 @@
         </is>
       </c>
       <c r="D1513" t="n">
-        <v>0</v>
+        <v>547.83</v>
       </c>
     </row>
     <row r="1514">
@@ -31972,7 +31972,7 @@
         </is>
       </c>
       <c r="D1577" t="n">
-        <v>28.99</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1578">
@@ -31992,7 +31992,7 @@
         </is>
       </c>
       <c r="D1578" t="n">
-        <v>68</v>
+        <v>68.02</v>
       </c>
     </row>
     <row r="1579">
@@ -32032,7 +32032,7 @@
         </is>
       </c>
       <c r="D1580" t="n">
-        <v>59.88</v>
+        <v>59.9</v>
       </c>
     </row>
     <row r="1581">
@@ -32052,7 +32052,7 @@
         </is>
       </c>
       <c r="D1581" t="n">
-        <v>20.87</v>
+        <v>26.98</v>
       </c>
     </row>
     <row r="1582">
@@ -32072,7 +32072,7 @@
         </is>
       </c>
       <c r="D1582" t="n">
-        <v>39.01</v>
+        <v>39.02</v>
       </c>
     </row>
     <row r="1583">
@@ -32092,7 +32092,7 @@
         </is>
       </c>
       <c r="D1583" t="n">
-        <v>45.95</v>
+        <v>52.12</v>
       </c>
     </row>
     <row r="1584">
@@ -32112,7 +32112,7 @@
         </is>
       </c>
       <c r="D1584" t="n">
-        <v>65.22</v>
+        <v>71.62</v>
       </c>
     </row>
     <row r="1585">
@@ -32132,7 +32132,7 @@
         </is>
       </c>
       <c r="D1585" t="n">
-        <v>69.77</v>
+        <v>76.17</v>
       </c>
     </row>
     <row r="1586">
@@ -32152,7 +32152,7 @@
         </is>
       </c>
       <c r="D1586" t="n">
-        <v>82.8</v>
+        <v>89.2</v>
       </c>
     </row>
     <row r="1587">
@@ -32172,7 +32172,7 @@
         </is>
       </c>
       <c r="D1587" t="n">
-        <v>83.91</v>
+        <v>90.31</v>
       </c>
     </row>
     <row r="1588">
@@ -32192,7 +32192,7 @@
         </is>
       </c>
       <c r="D1588" t="n">
-        <v>72.20999999999999</v>
+        <v>78.38</v>
       </c>
     </row>
     <row r="1589">
@@ -32212,7 +32212,7 @@
         </is>
       </c>
       <c r="D1589" t="n">
-        <v>80.22</v>
+        <v>86.56999999999999</v>
       </c>
     </row>
     <row r="1590">
@@ -32232,7 +32232,7 @@
         </is>
       </c>
       <c r="D1590" t="n">
-        <v>82.98</v>
+        <v>89.34</v>
       </c>
     </row>
     <row r="1591">
@@ -32252,7 +32252,7 @@
         </is>
       </c>
       <c r="D1591" t="n">
-        <v>83.18000000000001</v>
+        <v>89.53</v>
       </c>
     </row>
     <row r="1592">
@@ -32272,7 +32272,7 @@
         </is>
       </c>
       <c r="D1592" t="n">
-        <v>97.44</v>
+        <v>103.84</v>
       </c>
     </row>
     <row r="1593">
@@ -32312,7 +32312,7 @@
         </is>
       </c>
       <c r="D1594" t="n">
-        <v>54.03</v>
+        <v>110.46</v>
       </c>
     </row>
     <row r="1595">
@@ -33292,7 +33292,7 @@
         </is>
       </c>
       <c r="D1643" t="n">
-        <v>124</v>
+        <v>132.33</v>
       </c>
     </row>
     <row r="1644">
@@ -33312,7 +33312,7 @@
         </is>
       </c>
       <c r="D1644" t="n">
-        <v>124</v>
+        <v>132.33</v>
       </c>
     </row>
     <row r="1645">
@@ -33332,7 +33332,7 @@
         </is>
       </c>
       <c r="D1645" t="n">
-        <v>173.5</v>
+        <v>181.83</v>
       </c>
     </row>
     <row r="1646">
@@ -33352,7 +33352,7 @@
         </is>
       </c>
       <c r="D1646" t="n">
-        <v>289</v>
+        <v>363.33</v>
       </c>
     </row>
     <row r="1647">
@@ -33372,7 +33372,7 @@
         </is>
       </c>
       <c r="D1647" t="n">
-        <v>289</v>
+        <v>363.33</v>
       </c>
     </row>
     <row r="1648">
@@ -33392,7 +33392,7 @@
         </is>
       </c>
       <c r="D1648" t="n">
-        <v>289</v>
+        <v>363.33</v>
       </c>
     </row>
     <row r="1649">
@@ -33832,7 +33832,7 @@
         </is>
       </c>
       <c r="D1670" t="n">
-        <v>124</v>
+        <v>132.33</v>
       </c>
     </row>
     <row r="1671">
@@ -33852,7 +33852,7 @@
         </is>
       </c>
       <c r="D1671" t="n">
-        <v>124</v>
+        <v>132.33</v>
       </c>
     </row>
     <row r="1672">
@@ -33872,7 +33872,7 @@
         </is>
       </c>
       <c r="D1672" t="n">
-        <v>173.5</v>
+        <v>181.83</v>
       </c>
     </row>
     <row r="1673">
@@ -33892,7 +33892,7 @@
         </is>
       </c>
       <c r="D1673" t="n">
-        <v>289</v>
+        <v>363.33</v>
       </c>
     </row>
     <row r="1674">
@@ -33912,7 +33912,7 @@
         </is>
       </c>
       <c r="D1674" t="n">
-        <v>289</v>
+        <v>363.33</v>
       </c>
     </row>
     <row r="1675">
@@ -33932,7 +33932,7 @@
         </is>
       </c>
       <c r="D1675" t="n">
-        <v>289</v>
+        <v>363.33</v>
       </c>
     </row>
     <row r="1676">
@@ -35012,7 +35012,7 @@
         </is>
       </c>
       <c r="D1729" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_diario_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_diario_all.xlsx
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>382.2</v>
+        <v>495.79</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>715.2</v>
+        <v>828.79</v>
       </c>
     </row>
     <row r="15">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1113.53</v>
+        <v>1227.12</v>
       </c>
     </row>
     <row r="16">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1595.45</v>
+        <v>1709.04</v>
       </c>
     </row>
     <row r="17">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1212.95</v>
+        <v>1326.54</v>
       </c>
     </row>
     <row r="18">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>897.28</v>
+        <v>1010.87</v>
       </c>
     </row>
     <row r="19">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>813.22</v>
+        <v>926.8099999999999</v>
       </c>
     </row>
     <row r="20">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1291.11</v>
+        <v>1404.7</v>
       </c>
     </row>
     <row r="21">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1707.36</v>
+        <v>1820.95</v>
       </c>
     </row>
     <row r="22">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1178.65</v>
+        <v>1292.24</v>
       </c>
     </row>
     <row r="23">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1225.33</v>
+        <v>1338.92</v>
       </c>
     </row>
     <row r="24">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1111.71</v>
+        <v>1110.36</v>
       </c>
     </row>
     <row r="27">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1271.02</v>
+        <v>1269.66</v>
       </c>
     </row>
     <row r="28">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1583.89</v>
+        <v>1574.28</v>
       </c>
     </row>
     <row r="29">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1149.37</v>
+        <v>1137.98</v>
       </c>
     </row>
     <row r="30">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1182.62</v>
+        <v>1165.31</v>
       </c>
     </row>
     <row r="31">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2169.66</v>
+        <v>2152.35</v>
       </c>
     </row>
     <row r="32">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1990.08</v>
+        <v>1970.29</v>
       </c>
     </row>
     <row r="33">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3401.93</v>
+        <v>3149.01</v>
       </c>
     </row>
     <row r="34">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4787.57</v>
+        <v>4035.24</v>
       </c>
     </row>
     <row r="35">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3469.72</v>
+        <v>2625.89</v>
       </c>
     </row>
     <row r="36">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>16.5</v>
+        <v>2160.22</v>
       </c>
     </row>
     <row r="37">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1747.24</v>
+        <v>1860.84</v>
       </c>
     </row>
     <row r="50">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2246.58</v>
+        <v>2360.17</v>
       </c>
     </row>
     <row r="51">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>4335.58</v>
+        <v>4449.17</v>
       </c>
     </row>
     <row r="52">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>5241.13</v>
+        <v>5354.72</v>
       </c>
     </row>
     <row r="53">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>3498.42</v>
+        <v>3612.01</v>
       </c>
     </row>
     <row r="54">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2083.75</v>
+        <v>2197.34</v>
       </c>
     </row>
     <row r="55">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1634.69</v>
+        <v>1748.28</v>
       </c>
     </row>
     <row r="56">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2812.08</v>
+        <v>2925.67</v>
       </c>
     </row>
     <row r="57">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3412.78</v>
+        <v>3526.37</v>
       </c>
     </row>
     <row r="58">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2868.15</v>
+        <v>2981.74</v>
       </c>
     </row>
     <row r="59">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2914.83</v>
+        <v>3028.42</v>
       </c>
     </row>
     <row r="60">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>3425.85</v>
+        <v>3424.5</v>
       </c>
     </row>
     <row r="63">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>3269.66</v>
+        <v>3268.3</v>
       </c>
     </row>
     <row r="64">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>4807.68</v>
+        <v>4798.07</v>
       </c>
     </row>
     <row r="65">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3199.91</v>
+        <v>3188.52</v>
       </c>
     </row>
     <row r="66">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>3068.16</v>
+        <v>3050.85</v>
       </c>
     </row>
     <row r="67">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5229.2</v>
+        <v>5211.89</v>
       </c>
     </row>
     <row r="68">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>4707.87</v>
+        <v>4688.08</v>
       </c>
     </row>
     <row r="69">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>7450.57</v>
+        <v>6806.24</v>
       </c>
     </row>
     <row r="70">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>9505.790000000001</v>
+        <v>7962.04</v>
       </c>
     </row>
     <row r="71">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>6951.22</v>
+        <v>5149.64</v>
       </c>
     </row>
     <row r="72">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>82.83</v>
+        <v>4733.47</v>
       </c>
     </row>
     <row r="73">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>82.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -24112,7 +24112,7 @@
         </is>
       </c>
       <c r="D1184" t="n">
-        <v>81.15000000000001</v>
+        <v>78.68000000000001</v>
       </c>
     </row>
     <row r="1185">
@@ -24132,7 +24132,7 @@
         </is>
       </c>
       <c r="D1185" t="n">
-        <v>81.15000000000001</v>
+        <v>78.68000000000001</v>
       </c>
     </row>
     <row r="1186">
@@ -24152,7 +24152,7 @@
         </is>
       </c>
       <c r="D1186" t="n">
-        <v>81.15000000000001</v>
+        <v>78.68000000000001</v>
       </c>
     </row>
     <row r="1187">
@@ -24172,7 +24172,7 @@
         </is>
       </c>
       <c r="D1187" t="n">
-        <v>52.28</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="1188">
@@ -24192,7 +24192,7 @@
         </is>
       </c>
       <c r="D1188" t="n">
-        <v>0</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="1189">
@@ -24832,7 +24832,7 @@
         </is>
       </c>
       <c r="D1220" t="n">
-        <v>81.15000000000001</v>
+        <v>78.68000000000001</v>
       </c>
     </row>
     <row r="1221">
@@ -24852,7 +24852,7 @@
         </is>
       </c>
       <c r="D1221" t="n">
-        <v>81.15000000000001</v>
+        <v>78.68000000000001</v>
       </c>
     </row>
     <row r="1222">
@@ -24872,7 +24872,7 @@
         </is>
       </c>
       <c r="D1222" t="n">
-        <v>81.15000000000001</v>
+        <v>78.68000000000001</v>
       </c>
     </row>
     <row r="1223">
@@ -24892,7 +24892,7 @@
         </is>
       </c>
       <c r="D1223" t="n">
-        <v>52.28</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="1224">
@@ -24912,7 +24912,7 @@
         </is>
       </c>
       <c r="D1224" t="n">
-        <v>0</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="1225">
@@ -29412,7 +29412,7 @@
         </is>
       </c>
       <c r="D1449" t="n">
-        <v>2877.58</v>
+        <v>2902.33</v>
       </c>
     </row>
     <row r="1450">
@@ -29432,7 +29432,7 @@
         </is>
       </c>
       <c r="D1450" t="n">
-        <v>2803.33</v>
+        <v>2828.08</v>
       </c>
     </row>
     <row r="1451">
@@ -29912,7 +29912,7 @@
         </is>
       </c>
       <c r="D1474" t="n">
-        <v>1765.63</v>
+        <v>1971.88</v>
       </c>
     </row>
     <row r="1475">
@@ -29932,7 +29932,7 @@
         </is>
       </c>
       <c r="D1475" t="n">
-        <v>1410.75</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="1476">
@@ -29952,7 +29952,7 @@
         </is>
       </c>
       <c r="D1476" t="n">
-        <v>354.75</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1477">
@@ -29972,7 +29972,7 @@
         </is>
       </c>
       <c r="D1477" t="n">
-        <v>354.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1478">
@@ -30132,7 +30132,7 @@
         </is>
       </c>
       <c r="D1485" t="n">
-        <v>3786.01</v>
+        <v>3810.76</v>
       </c>
     </row>
     <row r="1486">
@@ -30152,7 +30152,7 @@
         </is>
       </c>
       <c r="D1486" t="n">
-        <v>3456.01</v>
+        <v>3480.76</v>
       </c>
     </row>
     <row r="1487">
@@ -30632,7 +30632,7 @@
         </is>
       </c>
       <c r="D1510" t="n">
-        <v>2632.22</v>
+        <v>2929.22</v>
       </c>
     </row>
     <row r="1511">
@@ -30652,7 +30652,7 @@
         </is>
       </c>
       <c r="D1511" t="n">
-        <v>1831.5</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="1512">
@@ -30672,7 +30672,7 @@
         </is>
       </c>
       <c r="D1512" t="n">
-        <v>495</v>
+        <v>1534.5</v>
       </c>
     </row>
     <row r="1513">
@@ -30692,7 +30692,7 @@
         </is>
       </c>
       <c r="D1513" t="n">
-        <v>495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1514">
@@ -38412,7 +38412,7 @@
         </is>
       </c>
       <c r="D1899" t="n">
-        <v>4487.15</v>
+        <v>4532.6</v>
       </c>
     </row>
     <row r="1900">
@@ -38432,7 +38432,7 @@
         </is>
       </c>
       <c r="D1900" t="n">
-        <v>6076.87</v>
+        <v>6122.32</v>
       </c>
     </row>
     <row r="1901">
@@ -38452,7 +38452,7 @@
         </is>
       </c>
       <c r="D1901" t="n">
-        <v>3080.37</v>
+        <v>3125.82</v>
       </c>
     </row>
     <row r="1902">
@@ -38472,7 +38472,7 @@
         </is>
       </c>
       <c r="D1902" t="n">
-        <v>3918.67</v>
+        <v>3964.12</v>
       </c>
     </row>
     <row r="1903">
@@ -38492,7 +38492,7 @@
         </is>
       </c>
       <c r="D1903" t="n">
-        <v>4056.47</v>
+        <v>4101.92</v>
       </c>
     </row>
     <row r="1904">
@@ -38512,7 +38512,7 @@
         </is>
       </c>
       <c r="D1904" t="n">
-        <v>8722.52</v>
+        <v>8934.790000000001</v>
       </c>
     </row>
     <row r="1905">
@@ -38532,7 +38532,7 @@
         </is>
       </c>
       <c r="D1905" t="n">
-        <v>10091.52</v>
+        <v>11933.49</v>
       </c>
     </row>
     <row r="1906">
@@ -38552,7 +38552,7 @@
         </is>
       </c>
       <c r="D1906" t="n">
-        <v>8471.860000000001</v>
+        <v>10530.08</v>
       </c>
     </row>
     <row r="1907">
@@ -38572,7 +38572,7 @@
         </is>
       </c>
       <c r="D1907" t="n">
-        <v>6546.31</v>
+        <v>6571.78</v>
       </c>
     </row>
     <row r="1908">
@@ -38592,7 +38592,7 @@
         </is>
       </c>
       <c r="D1908" t="n">
-        <v>2340.13</v>
+        <v>2615.1</v>
       </c>
     </row>
     <row r="1909">
@@ -38612,7 +38612,7 @@
         </is>
       </c>
       <c r="D1909" t="n">
-        <v>2340.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1910">
@@ -39132,7 +39132,7 @@
         </is>
       </c>
       <c r="D1935" t="n">
-        <v>3087.48</v>
+        <v>3132.93</v>
       </c>
     </row>
     <row r="1936">
@@ -39152,7 +39152,7 @@
         </is>
       </c>
       <c r="D1936" t="n">
-        <v>4711.4</v>
+        <v>4756.85</v>
       </c>
     </row>
     <row r="1937">
@@ -39172,7 +39172,7 @@
         </is>
       </c>
       <c r="D1937" t="n">
-        <v>3013.9</v>
+        <v>3059.35</v>
       </c>
     </row>
     <row r="1938">
@@ -39192,7 +39192,7 @@
         </is>
       </c>
       <c r="D1938" t="n">
-        <v>3971.87</v>
+        <v>4017.32</v>
       </c>
     </row>
     <row r="1939">
@@ -39212,7 +39212,7 @@
         </is>
       </c>
       <c r="D1939" t="n">
-        <v>4298.12</v>
+        <v>4343.57</v>
       </c>
     </row>
     <row r="1940">
@@ -39232,7 +39232,7 @@
         </is>
       </c>
       <c r="D1940" t="n">
-        <v>8898.18</v>
+        <v>9126.940000000001</v>
       </c>
     </row>
     <row r="1941">
@@ -39252,7 +39252,7 @@
         </is>
       </c>
       <c r="D1941" t="n">
-        <v>10865.78</v>
+        <v>13074.19</v>
       </c>
     </row>
     <row r="1942">
@@ -39272,7 +39272,7 @@
         </is>
       </c>
       <c r="D1942" t="n">
-        <v>8482.860000000001</v>
+        <v>10691.28</v>
       </c>
     </row>
     <row r="1943">
@@ -39292,7 +39292,7 @@
         </is>
       </c>
       <c r="D1943" t="n">
-        <v>6627.06</v>
+        <v>6835.72</v>
       </c>
     </row>
     <row r="1944">
@@ -39312,7 +39312,7 @@
         </is>
       </c>
       <c r="D1944" t="n">
-        <v>2690.18</v>
+        <v>2898.85</v>
       </c>
     </row>
     <row r="1945">
@@ -39332,7 +39332,7 @@
         </is>
       </c>
       <c r="D1945" t="n">
-        <v>2690.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1946">
@@ -44232,7 +44232,7 @@
         </is>
       </c>
       <c r="D2190" t="n">
-        <v>423.32</v>
+        <v>428.09</v>
       </c>
     </row>
     <row r="2191">
@@ -44252,7 +44252,7 @@
         </is>
       </c>
       <c r="D2191" t="n">
-        <v>381.99</v>
+        <v>386.76</v>
       </c>
     </row>
     <row r="2192">
@@ -44272,7 +44272,7 @@
         </is>
       </c>
       <c r="D2192" t="n">
-        <v>382.74</v>
+        <v>367.56</v>
       </c>
     </row>
     <row r="2193">
@@ -44292,7 +44292,7 @@
         </is>
       </c>
       <c r="D2193" t="n">
-        <v>399.24</v>
+        <v>379.93</v>
       </c>
     </row>
     <row r="2194">
@@ -44312,7 +44312,7 @@
         </is>
       </c>
       <c r="D2194" t="n">
-        <v>374.36</v>
+        <v>355.06</v>
       </c>
     </row>
     <row r="2195">
@@ -44332,7 +44332,7 @@
         </is>
       </c>
       <c r="D2195" t="n">
-        <v>347.33</v>
+        <v>410.78</v>
       </c>
     </row>
     <row r="2196">
@@ -44352,7 +44352,7 @@
         </is>
       </c>
       <c r="D2196" t="n">
-        <v>115.5</v>
+        <v>757.28</v>
       </c>
     </row>
     <row r="2197">
@@ -44372,7 +44372,7 @@
         </is>
       </c>
       <c r="D2197" t="n">
-        <v>115.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2198">
@@ -44952,7 +44952,7 @@
         </is>
       </c>
       <c r="D2226" t="n">
-        <v>307.82</v>
+        <v>312.59</v>
       </c>
     </row>
     <row r="2227">
@@ -44972,7 +44972,7 @@
         </is>
       </c>
       <c r="D2227" t="n">
-        <v>266.49</v>
+        <v>271.26</v>
       </c>
     </row>
     <row r="2228">
@@ -44992,7 +44992,7 @@
         </is>
       </c>
       <c r="D2228" t="n">
-        <v>382.74</v>
+        <v>367.56</v>
       </c>
     </row>
     <row r="2229">
@@ -45012,7 +45012,7 @@
         </is>
       </c>
       <c r="D2229" t="n">
-        <v>399.24</v>
+        <v>379.93</v>
       </c>
     </row>
     <row r="2230">
@@ -45032,7 +45032,7 @@
         </is>
       </c>
       <c r="D2230" t="n">
-        <v>374.36</v>
+        <v>355.06</v>
       </c>
     </row>
     <row r="2231">
@@ -45052,7 +45052,7 @@
         </is>
       </c>
       <c r="D2231" t="n">
-        <v>314.33</v>
+        <v>361.28</v>
       </c>
     </row>
     <row r="2232">
@@ -45072,7 +45072,7 @@
         </is>
       </c>
       <c r="D2232" t="n">
-        <v>82.5</v>
+        <v>608.78</v>
       </c>
     </row>
     <row r="2233">
@@ -45092,7 +45092,7 @@
         </is>
       </c>
       <c r="D2233" t="n">
-        <v>82.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2234">

--- a/ec_2025_faro/xlsx/gasto_diario_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_diario_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3089.94</v>
+        <v>6275.3</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1315.2</v>
+        <v>4500.57</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4604.31</v>
+        <v>5857.31</v>
       </c>
     </row>
     <row r="5">
@@ -523,16 +523,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3089.94</v>
+        <v>7967.38</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1315.2</v>
+        <v>7781.19</v>
       </c>
     </row>
     <row r="7">
@@ -563,16 +563,856 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>4582.61</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>Instagram</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>6275.3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>4500.57</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>2025-03-22</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>4604.31</v>
+      <c r="D10" t="n">
+        <v>5857.31</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>10937.38</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>10751.19</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>7552.61</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1862.5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1862.5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1534.4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1534.4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>9660.030000000001</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>9660.030000000001</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>17761.93</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>17761.93</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_diario_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_diario_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,11 +468,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6275.3</v>
+        <v>8226.18</v>
       </c>
     </row>
     <row r="3">
@@ -488,11 +488,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4500.57</v>
+        <v>9079.82</v>
       </c>
     </row>
     <row r="4">
@@ -508,11 +508,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5857.31</v>
+        <v>6476</v>
       </c>
     </row>
     <row r="5">
@@ -528,11 +528,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7967.38</v>
+        <v>4379.88</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7781.19</v>
+        <v>11988.18</v>
       </c>
     </row>
     <row r="7">
@@ -563,16 +563,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4582.61</v>
+        <v>17197.82</v>
       </c>
     </row>
     <row r="8">
@@ -588,11 +588,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6275.3</v>
+        <v>21920</v>
       </c>
     </row>
     <row r="9">
@@ -608,11 +608,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4500.57</v>
+        <v>8933.879999999999</v>
       </c>
     </row>
     <row r="10">
@@ -623,16 +623,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5857.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -643,16 +643,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>10937.38</v>
+        <v>1887.5</v>
       </c>
     </row>
     <row r="12">
@@ -663,16 +663,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10751.19</v>
+        <v>1887.5</v>
       </c>
     </row>
     <row r="13">
@@ -683,16 +683,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>7552.61</v>
+        <v>1887.5</v>
       </c>
     </row>
     <row r="14">
@@ -703,12 +703,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -723,16 +723,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1554.75</v>
       </c>
     </row>
     <row r="16">
@@ -743,16 +743,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1554.75</v>
       </c>
     </row>
     <row r="17">
@@ -763,92 +763,92 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1554.75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>(ADN) - D. Noboa - M. Pinto</t>
+          <t>(RC/RETO) - L. González - D. Borja</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1862.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>(ADN) - D. Noboa - M. Pinto</t>
+          <t>(RC/RETO) - L. González - D. Borja</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1862.5</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>(ADN) - D. Noboa - M. Pinto</t>
+          <t>(RC/RETO) - L. González - D. Borja</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>(ADN) - D. Noboa - M. Pinto</t>
+          <t>(RC/RETO) - L. González - D. Borja</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -858,17 +858,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>(ADN) - D. Noboa - M. Pinto</t>
+          <t>(RC/RETO) - L. González - D. Borja</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -878,61 +878,61 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>(ADN) - D. Noboa - M. Pinto</t>
+          <t>(RC/RETO) - L. González - D. Borja</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>(ADN) - D. Noboa - M. Pinto</t>
+          <t>(RC/RETO) - L. González - D. Borja</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1534.4</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>(ADN) - D. Noboa - M. Pinto</t>
+          <t>(RC/RETO) - L. González - D. Borja</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1534.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -943,12 +943,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -963,12 +963,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -983,12 +983,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1003,12 +1003,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1023,16 +1023,16 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>49.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1043,16 +1043,16 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>8481.65</v>
       </c>
     </row>
     <row r="32">
@@ -1063,16 +1063,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>8481.65</v>
       </c>
     </row>
     <row r="33">
@@ -1083,336 +1083,16 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>2025-03-22</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>2025-03-23</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>49.5</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>2025-03-25</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Tiktok</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>2025-03-20</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Tiktok</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>2025-03-21</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Tiktok</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>2025-03-22</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Tiktok</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>2025-03-23</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Tiktok</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Tiktok</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>2025-03-25</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>2025-03-20</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>2025-03-21</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>2025-03-22</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>9660.030000000001</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>2025-03-23</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>9660.030000000001</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>17761.93</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>2025-03-25</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>17761.93</v>
+        <v>8481.65</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_diario_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_diario_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8226.18</v>
+        <v>8018.15</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9079.82</v>
+        <v>8922.459999999999</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6476</v>
+        <v>6372.22</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4379.88</v>
+        <v>6451.72</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>11988.18</v>
+        <v>3219.85</v>
       </c>
     </row>
     <row r="7">
@@ -568,11 +568,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>17197.82</v>
+        <v>11763.65</v>
       </c>
     </row>
     <row r="8">
@@ -588,11 +588,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>21920</v>
+        <v>21124.21</v>
       </c>
     </row>
     <row r="9">
@@ -608,11 +608,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8933.879999999999</v>
+        <v>17468.47</v>
       </c>
     </row>
     <row r="10">
@@ -623,16 +623,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>8901.969999999999</v>
       </c>
     </row>
     <row r="11">
@@ -643,16 +643,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1887.5</v>
+        <v>5604.1</v>
       </c>
     </row>
     <row r="12">
@@ -668,11 +668,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1887.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -688,11 +688,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1887.5</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="14">
@@ -703,16 +703,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="15">
@@ -723,16 +723,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1554.75</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="16">
@@ -743,16 +743,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1554.75</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="17">
@@ -768,91 +768,91 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1554.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1567.1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>24.75</v>
+        <v>1567.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>24.75</v>
+        <v>1567.1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1567.1</v>
       </c>
     </row>
     <row r="22">
@@ -863,7 +863,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>24.75</v>
+        <v>107.25</v>
       </c>
     </row>
     <row r="25">
@@ -923,7 +923,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>280.5</v>
       </c>
     </row>
     <row r="26">
@@ -943,16 +943,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>280.5</v>
       </c>
     </row>
     <row r="27">
@@ -963,12 +963,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -983,16 +983,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="29">
@@ -1003,16 +1003,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>107.25</v>
       </c>
     </row>
     <row r="30">
@@ -1023,16 +1023,16 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>379.5</v>
       </c>
     </row>
     <row r="31">
@@ -1043,16 +1043,16 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>8481.65</v>
+        <v>379.5</v>
       </c>
     </row>
     <row r="32">
@@ -1063,16 +1063,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>8481.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1083,16 +1083,176 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2025-03-26</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
           <t>X</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>8531.690000000001</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>8531.690000000001</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>8481.65</v>
+      <c r="D40" t="n">
+        <v>9591.24</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>10055.88</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_diario_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_diario_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8018.15</v>
+        <v>7528.76</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>8922.459999999999</v>
+        <v>8286.360000000001</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6372.22</v>
+        <v>5814.96</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6451.72</v>
+        <v>8152.63</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3219.85</v>
+        <v>11092.19</v>
       </c>
     </row>
     <row r="7">
@@ -563,16 +563,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>11763.65</v>
+        <v>9935.110000000001</v>
       </c>
     </row>
     <row r="8">
@@ -583,16 +583,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>21124.21</v>
+        <v>956.76</v>
       </c>
     </row>
     <row r="9">
@@ -608,11 +608,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>17468.47</v>
+        <v>11274.26</v>
       </c>
     </row>
     <row r="10">
@@ -628,11 +628,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8901.969999999999</v>
+        <v>19836.36</v>
       </c>
     </row>
     <row r="11">
@@ -648,11 +648,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>5604.1</v>
+        <v>16087.86</v>
       </c>
     </row>
     <row r="12">
@@ -663,16 +663,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>10445.86</v>
       </c>
     </row>
     <row r="13">
@@ -683,16 +683,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1912</v>
+        <v>13319.42</v>
       </c>
     </row>
     <row r="14">
@@ -703,16 +703,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1912</v>
+        <v>12162.34</v>
       </c>
     </row>
     <row r="15">
@@ -723,16 +723,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1912</v>
+        <v>2517.66</v>
       </c>
     </row>
     <row r="16">
@@ -748,11 +748,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -763,16 +763,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="18">
@@ -783,16 +783,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1567.1</v>
+        <v>6819</v>
       </c>
     </row>
     <row r="19">
@@ -803,16 +803,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1567.1</v>
+        <v>6819</v>
       </c>
     </row>
     <row r="20">
@@ -823,16 +823,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1567.1</v>
+        <v>6819</v>
       </c>
     </row>
     <row r="21">
@@ -843,176 +843,176 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1567.1</v>
+        <v>4907</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>4907</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>24.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>107.25</v>
+        <v>1580.85</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>280.5</v>
+        <v>1580.85</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>280.5</v>
+        <v>1580.85</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1580.85</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>24.75</v>
+        <v>1580.85</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>107.25</v>
+        <v>1580.85</v>
       </c>
     </row>
     <row r="30">
@@ -1023,16 +1023,16 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>379.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1043,16 +1043,16 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>379.5</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="32">
@@ -1063,16 +1063,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>74.25</v>
       </c>
     </row>
     <row r="33">
@@ -1083,16 +1083,16 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34">
@@ -1103,16 +1103,16 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>181.5</v>
       </c>
     </row>
     <row r="35">
@@ -1123,16 +1123,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>429</v>
       </c>
     </row>
     <row r="36">
@@ -1143,16 +1143,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>363</v>
       </c>
     </row>
     <row r="37">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>8531.690000000001</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="39">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>8531.690000000001</v>
+        <v>74.25</v>
       </c>
     </row>
     <row r="40">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>9591.24</v>
+        <v>214.5</v>
       </c>
     </row>
     <row r="41">
@@ -1243,16 +1243,336 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>478.5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2025-03-29</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>412.5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2025-03-26</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2025-03-29</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
           <t>X</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>8551.860000000001</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>8551.860000000001</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2025-03-26</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>9728.530000000001</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
       </c>
-      <c r="D41" t="n">
-        <v>10055.88</v>
+      <c r="D55" t="n">
+        <v>10295.2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>10295.2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2025-03-29</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>10494.64</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_diario_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_diario_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7528.76</v>
+        <v>7503.42</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>8286.360000000001</v>
+        <v>8135.78</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5814.96</v>
+        <v>5583.68</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>8152.63</v>
+        <v>7353.45</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>11092.19</v>
+        <v>10024.55</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9935.110000000001</v>
+        <v>11125.89</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>956.76</v>
+        <v>10076.61</v>
       </c>
     </row>
     <row r="9">
@@ -603,16 +603,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>11274.26</v>
+        <v>2893.64</v>
       </c>
     </row>
     <row r="10">
@@ -628,11 +628,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>19836.36</v>
+        <v>11248.92</v>
       </c>
     </row>
     <row r="11">
@@ -648,11 +648,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>16087.86</v>
+        <v>19499.56</v>
       </c>
     </row>
     <row r="12">
@@ -668,11 +668,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10445.86</v>
+        <v>15627.46</v>
       </c>
     </row>
     <row r="13">
@@ -688,11 +688,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>13319.42</v>
+        <v>9250.99</v>
       </c>
     </row>
     <row r="14">
@@ -708,11 +708,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12162.34</v>
+        <v>11856.09</v>
       </c>
     </row>
     <row r="15">
@@ -728,11 +728,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2517.66</v>
+        <v>12957.42</v>
       </c>
     </row>
     <row r="16">
@@ -743,16 +743,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>12707.15</v>
       </c>
     </row>
     <row r="17">
@@ -763,16 +763,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1912</v>
+        <v>4225.42</v>
       </c>
     </row>
     <row r="18">
@@ -788,11 +788,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -808,11 +808,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6819</v>
+        <v>1950.5</v>
       </c>
     </row>
     <row r="20">
@@ -828,11 +828,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>6819</v>
+        <v>6950.5</v>
       </c>
     </row>
     <row r="21">
@@ -848,11 +848,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4907</v>
+        <v>6950.5</v>
       </c>
     </row>
     <row r="22">
@@ -868,11 +868,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>4907</v>
+        <v>6950.5</v>
       </c>
     </row>
     <row r="23">
@@ -883,16 +883,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="24">
@@ -903,16 +903,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1580.85</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="25">
@@ -923,16 +923,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1580.85</v>
+        <v>6950.5</v>
       </c>
     </row>
     <row r="26">
@@ -948,11 +948,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1580.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -968,7 +968,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -988,7 +988,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1018,81 +1018,81 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1580.85</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>24.75</v>
+        <v>1580.85</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>74.25</v>
+        <v>1580.85</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>165</v>
+        <v>6102.15</v>
       </c>
     </row>
     <row r="34">
@@ -1108,11 +1108,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>181.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1128,11 +1128,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>429</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="36">
@@ -1148,11 +1148,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>363</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37">
@@ -1163,16 +1163,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>136.95</v>
       </c>
     </row>
     <row r="38">
@@ -1183,16 +1183,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>24.75</v>
+        <v>149.32</v>
       </c>
     </row>
     <row r="39">
@@ -1203,16 +1203,16 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>74.25</v>
+        <v>306.08</v>
       </c>
     </row>
     <row r="40">
@@ -1223,16 +1223,16 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>214.5</v>
+        <v>289.58</v>
       </c>
     </row>
     <row r="41">
@@ -1243,16 +1243,16 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>231</v>
+        <v>264.82</v>
       </c>
     </row>
     <row r="42">
@@ -1268,11 +1268,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>478.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1288,11 +1288,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>412.5</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="44">
@@ -1303,16 +1303,16 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45">
@@ -1323,16 +1323,16 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>176.55</v>
       </c>
     </row>
     <row r="46">
@@ -1343,16 +1343,16 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>188.92</v>
       </c>
     </row>
     <row r="47">
@@ -1363,16 +1363,16 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>345.68</v>
       </c>
     </row>
     <row r="48">
@@ -1383,16 +1383,16 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>329.18</v>
       </c>
     </row>
     <row r="49">
@@ -1403,16 +1403,16 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>304.42</v>
       </c>
     </row>
     <row r="50">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -1443,12 +1443,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -1463,16 +1463,16 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>8551.860000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1483,16 +1483,16 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>8551.860000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1503,16 +1503,16 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>9728.530000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1523,16 +1523,16 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>10295.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1543,16 +1543,16 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>10295.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1563,16 +1563,176 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
           <t>X</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>8551.860000000001</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>8551.860000000001</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2025-03-26</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>9731.610000000001</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>10301.12</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>10301.12</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
         <is>
           <t>2025-03-29</t>
         </is>
       </c>
-      <c r="D57" t="n">
-        <v>10494.64</v>
+      <c r="D64" t="n">
+        <v>10778.99</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>2425.33</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_diario_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_diario_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7503.42</v>
+        <v>7477.29</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>8135.78</v>
+        <v>8040.71</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5583.68</v>
+        <v>5472.93</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7353.45</v>
+        <v>7211.08</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>10024.55</v>
+        <v>9115.559999999999</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>11125.89</v>
+        <v>9918.52</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10076.61</v>
+        <v>9525.49</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2893.64</v>
+        <v>7485.29</v>
       </c>
     </row>
     <row r="10">
@@ -623,16 +623,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>11248.92</v>
+        <v>4833.14</v>
       </c>
     </row>
     <row r="11">
@@ -648,11 +648,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>19499.56</v>
+        <v>11222.79</v>
       </c>
     </row>
     <row r="12">
@@ -668,11 +668,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>15627.46</v>
+        <v>19264.83</v>
       </c>
     </row>
     <row r="13">
@@ -688,11 +688,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>9250.99</v>
+        <v>15346.42</v>
       </c>
     </row>
     <row r="14">
@@ -708,11 +708,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11856.09</v>
+        <v>8938.32</v>
       </c>
     </row>
     <row r="15">
@@ -728,11 +728,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12957.42</v>
+        <v>10776.79</v>
       </c>
     </row>
     <row r="16">
@@ -748,11 +748,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>12707.15</v>
+        <v>11579.75</v>
       </c>
     </row>
     <row r="17">
@@ -768,11 +768,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4225.42</v>
+        <v>11936.22</v>
       </c>
     </row>
     <row r="18">
@@ -783,16 +783,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>9396.280000000001</v>
       </c>
     </row>
     <row r="19">
@@ -803,16 +803,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1950.5</v>
+        <v>5994.62</v>
       </c>
     </row>
     <row r="20">
@@ -828,11 +828,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>6950.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -848,11 +848,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6950.5</v>
+        <v>1961.5</v>
       </c>
     </row>
     <row r="22">
@@ -868,11 +868,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>6950.5</v>
+        <v>6961.5</v>
       </c>
     </row>
     <row r="23">
@@ -888,11 +888,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>5000</v>
+        <v>6961.5</v>
       </c>
     </row>
     <row r="24">
@@ -908,11 +908,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5000</v>
+        <v>6961.5</v>
       </c>
     </row>
     <row r="25">
@@ -928,11 +928,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>6950.5</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="26">
@@ -943,16 +943,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="27">
@@ -963,16 +963,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1580.85</v>
+        <v>6961.5</v>
       </c>
     </row>
     <row r="28">
@@ -983,16 +983,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1580.85</v>
+        <v>6961.5</v>
       </c>
     </row>
     <row r="29">
@@ -1008,11 +1008,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1580.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1088,91 +1088,91 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>6102.15</v>
+        <v>1580.85</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1580.85</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>24.75</v>
+        <v>1580.85</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>66</v>
+        <v>8005.91</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>136.95</v>
+        <v>8005.91</v>
       </c>
     </row>
     <row r="38">
@@ -1188,11 +1188,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>149.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1208,11 +1208,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>306.08</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="40">
@@ -1228,11 +1228,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>289.58</v>
+        <v>60.11</v>
       </c>
     </row>
     <row r="41">
@@ -1248,11 +1248,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>264.82</v>
+        <v>131.06</v>
       </c>
     </row>
     <row r="42">
@@ -1263,16 +1263,16 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>143.43</v>
       </c>
     </row>
     <row r="43">
@@ -1283,16 +1283,16 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>24.75</v>
+        <v>300.18</v>
       </c>
     </row>
     <row r="44">
@@ -1303,16 +1303,16 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>66</v>
+        <v>382.68</v>
       </c>
     </row>
     <row r="45">
@@ -1323,16 +1323,16 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>176.55</v>
+        <v>704.4299999999999</v>
       </c>
     </row>
     <row r="46">
@@ -1343,16 +1343,16 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>188.92</v>
+        <v>332.36</v>
       </c>
     </row>
     <row r="47">
@@ -1368,11 +1368,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>345.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1388,11 +1388,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>329.18</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="49">
@@ -1408,11 +1408,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>304.42</v>
+        <v>60.11</v>
       </c>
     </row>
     <row r="50">
@@ -1423,16 +1423,16 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>170.66</v>
       </c>
     </row>
     <row r="51">
@@ -1443,16 +1443,16 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>183.03</v>
       </c>
     </row>
     <row r="52">
@@ -1463,16 +1463,16 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>339.78</v>
       </c>
     </row>
     <row r="53">
@@ -1483,16 +1483,16 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>422.28</v>
       </c>
     </row>
     <row r="54">
@@ -1503,16 +1503,16 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>793.53</v>
       </c>
     </row>
     <row r="55">
@@ -1523,16 +1523,16 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>381.86</v>
       </c>
     </row>
     <row r="56">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -1583,12 +1583,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -1603,16 +1603,16 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>8551.860000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1623,16 +1623,16 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>8551.860000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1643,16 +1643,16 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9731.610000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1663,16 +1663,16 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>10301.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1683,16 +1683,16 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>10301.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1703,16 +1703,16 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>10778.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1728,11 +1728,171 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>8551.860000000001</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>8551.860000000001</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2025-03-26</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>9733.940000000001</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>10304.64</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>10304.64</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2025-03-29</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>10829.91</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
           <t>2025-03-30</t>
         </is>
       </c>
-      <c r="D65" t="n">
-        <v>2425.33</v>
+      <c r="D72" t="n">
+        <v>5426.34</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>5426.34</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_diario_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_diario_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7477.29</v>
+        <v>7456.39</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>8040.71</v>
+        <v>7966.18</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5472.93</v>
+        <v>5396.64</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7211.08</v>
+        <v>7105.04</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9115.559999999999</v>
+        <v>8889.6</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9918.52</v>
+        <v>9367.780000000001</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>9525.49</v>
+        <v>8692.26</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>7485.29</v>
+        <v>6503.48</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4833.14</v>
+        <v>3851.32</v>
       </c>
     </row>
     <row r="11">
@@ -643,16 +643,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>11222.79</v>
+        <v>3851.32</v>
       </c>
     </row>
     <row r="12">
@@ -668,11 +668,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>19264.83</v>
+        <v>11201.89</v>
       </c>
     </row>
     <row r="13">
@@ -688,11 +688,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>15346.42</v>
+        <v>19081.68</v>
       </c>
     </row>
     <row r="14">
@@ -708,11 +708,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8938.32</v>
+        <v>15138.52</v>
       </c>
     </row>
     <row r="15">
@@ -728,11 +728,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10776.79</v>
+        <v>8700.67</v>
       </c>
     </row>
     <row r="16">
@@ -748,11 +748,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>11579.75</v>
+        <v>10419.22</v>
       </c>
     </row>
     <row r="17">
@@ -768,11 +768,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>11936.22</v>
+        <v>10897.41</v>
       </c>
     </row>
     <row r="18">
@@ -788,11 +788,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>9396.280000000001</v>
+        <v>10971.38</v>
       </c>
     </row>
     <row r="19">
@@ -808,11 +808,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>5994.62</v>
+        <v>8282.85</v>
       </c>
     </row>
     <row r="20">
@@ -823,16 +823,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>4881.2</v>
       </c>
     </row>
     <row r="21">
@@ -843,16 +843,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1961.5</v>
+        <v>4881.2</v>
       </c>
     </row>
     <row r="22">
@@ -868,11 +868,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>6961.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -888,11 +888,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>6961.5</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="24">
@@ -908,11 +908,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6961.5</v>
+        <v>6968</v>
       </c>
     </row>
     <row r="25">
@@ -928,11 +928,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>5000</v>
+        <v>6968</v>
       </c>
     </row>
     <row r="26">
@@ -948,11 +948,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5000</v>
+        <v>6968</v>
       </c>
     </row>
     <row r="27">
@@ -968,11 +968,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>6961.5</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="28">
@@ -988,11 +988,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>6961.5</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="29">
@@ -1003,16 +1003,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>6968</v>
       </c>
     </row>
     <row r="30">
@@ -1023,16 +1023,16 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1580.85</v>
+        <v>6968</v>
       </c>
     </row>
     <row r="31">
@@ -1043,16 +1043,16 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1580.85</v>
+        <v>10252.5</v>
       </c>
     </row>
     <row r="32">
@@ -1068,11 +1068,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1580.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1148,11 +1148,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>8005.91</v>
+        <v>1580.85</v>
       </c>
     </row>
     <row r="37">
@@ -1168,91 +1168,91 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>8005.91</v>
+        <v>1580.85</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1580.85</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>24.75</v>
+        <v>8169.28</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>60.11</v>
+        <v>10357.67</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>131.06</v>
+        <v>10357.67</v>
       </c>
     </row>
     <row r="42">
@@ -1268,11 +1268,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>143.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1288,11 +1288,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>300.18</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="44">
@@ -1308,11 +1308,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>382.68</v>
+        <v>55.69</v>
       </c>
     </row>
     <row r="45">
@@ -1328,11 +1328,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>704.4299999999999</v>
+        <v>126.64</v>
       </c>
     </row>
     <row r="46">
@@ -1348,11 +1348,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>332.36</v>
+        <v>139.01</v>
       </c>
     </row>
     <row r="47">
@@ -1363,16 +1363,16 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>295.76</v>
       </c>
     </row>
     <row r="48">
@@ -1383,16 +1383,16 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>24.75</v>
+        <v>378.26</v>
       </c>
     </row>
     <row r="49">
@@ -1403,16 +1403,16 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>60.11</v>
+        <v>601.01</v>
       </c>
     </row>
     <row r="50">
@@ -1423,16 +1423,16 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>170.66</v>
+        <v>228.94</v>
       </c>
     </row>
     <row r="51">
@@ -1443,16 +1443,16 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>183.03</v>
+        <v>228.94</v>
       </c>
     </row>
     <row r="52">
@@ -1468,11 +1468,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>339.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1488,11 +1488,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>422.28</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="54">
@@ -1508,11 +1508,11 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>793.53</v>
+        <v>55.69</v>
       </c>
     </row>
     <row r="55">
@@ -1528,11 +1528,11 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>381.86</v>
+        <v>166.24</v>
       </c>
     </row>
     <row r="56">
@@ -1543,16 +1543,16 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>178.61</v>
       </c>
     </row>
     <row r="57">
@@ -1563,16 +1563,16 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>335.36</v>
       </c>
     </row>
     <row r="58">
@@ -1583,16 +1583,16 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>417.86</v>
       </c>
     </row>
     <row r="59">
@@ -1603,16 +1603,16 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>673.61</v>
       </c>
     </row>
     <row r="60">
@@ -1623,16 +1623,16 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>261.94</v>
       </c>
     </row>
     <row r="61">
@@ -1643,16 +1643,16 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>261.94</v>
       </c>
     </row>
     <row r="62">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -1743,16 +1743,16 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8551.860000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1763,16 +1763,16 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>8551.860000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1783,16 +1783,16 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>9733.940000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1803,16 +1803,16 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>10304.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1823,16 +1823,16 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>10304.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1843,16 +1843,16 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>10829.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -1868,11 +1868,11 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>5426.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -1888,11 +1888,171 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>2025-03-24</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>8551.860000000001</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>8551.860000000001</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2025-03-26</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>9733.940000000001</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>10305.48</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>10305.48</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2025-03-29</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>10835.07</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>5482</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
           <t>2025-03-31</t>
         </is>
       </c>
-      <c r="D73" t="n">
-        <v>5426.34</v>
+      <c r="D80" t="n">
+        <v>5482</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>6483.48</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_diario_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_diario_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7456.39</v>
+        <v>7375.44</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7966.18</v>
+        <v>7915.62</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5396.64</v>
+        <v>5347.85</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7105.04</v>
+        <v>7155.1</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8889.6</v>
+        <v>9017.76</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9367.780000000001</v>
+        <v>9795.27</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8692.26</v>
+        <v>9190.540000000001</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6503.48</v>
+        <v>8616.76</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3851.32</v>
+        <v>11905.55</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3851.32</v>
+        <v>11090.3</v>
       </c>
     </row>
     <row r="12">
@@ -663,16 +663,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>11201.89</v>
+        <v>6430.85</v>
       </c>
     </row>
     <row r="13">
@@ -688,11 +688,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>19081.68</v>
+        <v>11120.94</v>
       </c>
     </row>
     <row r="14">
@@ -708,11 +708,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>15138.52</v>
+        <v>19080.34</v>
       </c>
     </row>
     <row r="15">
@@ -728,11 +728,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>8700.67</v>
+        <v>15161.93</v>
       </c>
     </row>
     <row r="16">
@@ -748,11 +748,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>10419.22</v>
+        <v>8822.93</v>
       </c>
     </row>
     <row r="17">
@@ -768,11 +768,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>10897.41</v>
+        <v>10619.59</v>
       </c>
     </row>
     <row r="18">
@@ -788,11 +788,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>10971.38</v>
+        <v>11397.1</v>
       </c>
     </row>
     <row r="19">
@@ -808,11 +808,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>8282.85</v>
+        <v>11541.87</v>
       </c>
     </row>
     <row r="20">
@@ -828,11 +828,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4881.2</v>
+        <v>10468.34</v>
       </c>
     </row>
     <row r="21">
@@ -848,11 +848,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4881.2</v>
+        <v>17825.63</v>
       </c>
     </row>
     <row r="22">
@@ -863,16 +863,16 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>15650.9</v>
       </c>
     </row>
     <row r="23">
@@ -883,16 +883,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1968</v>
+        <v>10892.45</v>
       </c>
     </row>
     <row r="24">
@@ -908,11 +908,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -928,11 +928,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>6968</v>
+        <v>1972.5</v>
       </c>
     </row>
     <row r="26">
@@ -948,11 +948,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>6968</v>
+        <v>6972.5</v>
       </c>
     </row>
     <row r="27">
@@ -968,11 +968,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>5000</v>
+        <v>6972.5</v>
       </c>
     </row>
     <row r="28">
@@ -988,11 +988,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>5000</v>
+        <v>6972.5</v>
       </c>
     </row>
     <row r="29">
@@ -1008,11 +1008,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6968</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="30">
@@ -1028,11 +1028,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>6968</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="31">
@@ -1048,11 +1048,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>10252.5</v>
+        <v>6972.5</v>
       </c>
     </row>
     <row r="32">
@@ -1063,16 +1063,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>10180</v>
       </c>
     </row>
     <row r="33">
@@ -1083,16 +1083,16 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1580.85</v>
+        <v>10368.5</v>
       </c>
     </row>
     <row r="34">
@@ -1103,16 +1103,16 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1580.85</v>
+        <v>18322.5</v>
       </c>
     </row>
     <row r="35">
@@ -1128,11 +1128,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1580.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1208,11 +1208,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>8169.28</v>
+        <v>1580.85</v>
       </c>
     </row>
     <row r="40">
@@ -1228,11 +1228,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>10357.67</v>
+        <v>1580.85</v>
       </c>
     </row>
     <row r="41">
@@ -1248,91 +1248,91 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>10357.67</v>
+        <v>1580.85</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>8225.690000000001</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>24.75</v>
+        <v>10743.65</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>55.69</v>
+        <v>10743.65</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>126.64</v>
+        <v>10743.65</v>
       </c>
     </row>
     <row r="46">
@@ -1348,11 +1348,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>139.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1368,11 +1368,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>295.76</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="48">
@@ -1388,11 +1388,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>378.26</v>
+        <v>65.29000000000001</v>
       </c>
     </row>
     <row r="49">
@@ -1408,11 +1408,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>601.01</v>
+        <v>127.99</v>
       </c>
     </row>
     <row r="50">
@@ -1428,11 +1428,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>228.94</v>
+        <v>137.89</v>
       </c>
     </row>
     <row r="51">
@@ -1448,11 +1448,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>228.94</v>
+        <v>274.02</v>
       </c>
     </row>
     <row r="52">
@@ -1463,16 +1463,16 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>331.77</v>
       </c>
     </row>
     <row r="53">
@@ -1483,16 +1483,16 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>24.75</v>
+        <v>519.87</v>
       </c>
     </row>
     <row r="54">
@@ -1503,16 +1503,16 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>55.69</v>
+        <v>465.42</v>
       </c>
     </row>
     <row r="55">
@@ -1523,16 +1523,16 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>166.24</v>
+        <v>288.75</v>
       </c>
     </row>
     <row r="56">
@@ -1543,16 +1543,16 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>178.61</v>
+        <v>288.75</v>
       </c>
     </row>
     <row r="57">
@@ -1568,11 +1568,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>335.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1588,11 +1588,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>417.86</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="59">
@@ -1608,11 +1608,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>673.61</v>
+        <v>65.29000000000001</v>
       </c>
     </row>
     <row r="60">
@@ -1628,11 +1628,11 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>261.94</v>
+        <v>167.59</v>
       </c>
     </row>
     <row r="61">
@@ -1648,11 +1648,11 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>261.94</v>
+        <v>177.49</v>
       </c>
     </row>
     <row r="62">
@@ -1663,16 +1663,16 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>313.62</v>
       </c>
     </row>
     <row r="63">
@@ -1683,16 +1683,16 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>371.37</v>
       </c>
     </row>
     <row r="64">
@@ -1703,16 +1703,16 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>584.22</v>
       </c>
     </row>
     <row r="65">
@@ -1723,16 +1723,16 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>556.17</v>
       </c>
     </row>
     <row r="66">
@@ -1743,16 +1743,16 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>379.5</v>
       </c>
     </row>
     <row r="67">
@@ -1763,16 +1763,16 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>379.5</v>
       </c>
     </row>
     <row r="68">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -1848,7 +1848,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -1863,12 +1863,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -1883,16 +1883,16 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>8551.860000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1903,16 +1903,16 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>8551.860000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1923,16 +1923,16 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>9733.940000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -1943,16 +1943,16 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>10305.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1963,16 +1963,16 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>10305.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -1983,16 +1983,16 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>10835.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -2008,11 +2008,11 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>5482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2028,11 +2028,11 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5482</v>
+        <v>8551.860000000001</v>
       </c>
     </row>
     <row r="81">
@@ -2048,11 +2048,171 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>8551.860000000001</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2025-03-26</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>9733.940000000001</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>10305.48</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>10305.48</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2025-03-29</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>10836.92</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>5489.2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>5489.2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
           <t>2025-04-01</t>
         </is>
       </c>
-      <c r="D81" t="n">
-        <v>6483.48</v>
+      <c r="D88" t="n">
+        <v>6576.55</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>7097.14</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_diario_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_diario_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7375.44</v>
+        <v>7367.57</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7915.62</v>
+        <v>7907.29</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5347.85</v>
+        <v>5339.52</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7155.1</v>
+        <v>7146.77</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9017.76</v>
+        <v>8964.82</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9795.27</v>
+        <v>9590</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>9190.540000000001</v>
+        <v>8974.5</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8616.76</v>
+        <v>8650.950000000001</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>11905.55</v>
+        <v>12345.08</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>11090.3</v>
+        <v>12204.99</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6430.85</v>
+        <v>8977.629999999999</v>
       </c>
     </row>
     <row r="13">
@@ -683,16 +683,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>11120.94</v>
+        <v>7612.9</v>
       </c>
     </row>
     <row r="14">
@@ -708,11 +708,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>19080.34</v>
+        <v>11113.07</v>
       </c>
     </row>
     <row r="15">
@@ -728,11 +728,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>15161.93</v>
+        <v>19050.42</v>
       </c>
     </row>
     <row r="16">
@@ -748,11 +748,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>8822.93</v>
+        <v>15132</v>
       </c>
     </row>
     <row r="17">
@@ -768,11 +768,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>10619.59</v>
+        <v>8793</v>
       </c>
     </row>
     <row r="18">
@@ -788,11 +788,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>11397.1</v>
+        <v>10545.05</v>
       </c>
     </row>
     <row r="19">
@@ -808,11 +808,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>11541.87</v>
+        <v>11170.23</v>
       </c>
     </row>
     <row r="20">
@@ -828,11 +828,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>10468.34</v>
+        <v>11304.23</v>
       </c>
     </row>
     <row r="21">
@@ -848,11 +848,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>17825.63</v>
+        <v>10480.93</v>
       </c>
     </row>
     <row r="22">
@@ -868,11 +868,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>15650.9</v>
+        <v>17154.56</v>
       </c>
     </row>
     <row r="23">
@@ -888,11 +888,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>10892.45</v>
+        <v>15654.99</v>
       </c>
     </row>
     <row r="24">
@@ -903,16 +903,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>12427.63</v>
       </c>
     </row>
     <row r="25">
@@ -923,16 +923,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1972.5</v>
+        <v>10996.9</v>
       </c>
     </row>
     <row r="26">
@@ -948,11 +948,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>6972.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -968,11 +968,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>6972.5</v>
+        <v>1978.5</v>
       </c>
     </row>
     <row r="28">
@@ -988,11 +988,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>6972.5</v>
+        <v>6978.5</v>
       </c>
     </row>
     <row r="29">
@@ -1008,11 +1008,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>5000</v>
+        <v>6978.5</v>
       </c>
     </row>
     <row r="30">
@@ -1028,11 +1028,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>5000</v>
+        <v>6978.5</v>
       </c>
     </row>
     <row r="31">
@@ -1048,11 +1048,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>6972.5</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="32">
@@ -1068,11 +1068,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>10180</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="33">
@@ -1088,11 +1088,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>10368.5</v>
+        <v>6978.5</v>
       </c>
     </row>
     <row r="34">
@@ -1108,11 +1108,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>18322.5</v>
+        <v>10223</v>
       </c>
     </row>
     <row r="35">
@@ -1123,16 +1123,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>10444</v>
       </c>
     </row>
     <row r="36">
@@ -1143,16 +1143,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1580.85</v>
+        <v>18688.5</v>
       </c>
     </row>
     <row r="37">
@@ -1163,16 +1163,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1580.85</v>
+        <v>18688.5</v>
       </c>
     </row>
     <row r="38">
@@ -1188,11 +1188,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1580.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1268,11 +1268,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>8225.690000000001</v>
+        <v>1580.85</v>
       </c>
     </row>
     <row r="43">
@@ -1288,11 +1288,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>10743.65</v>
+        <v>1580.85</v>
       </c>
     </row>
     <row r="44">
@@ -1308,11 +1308,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>10743.65</v>
+        <v>1580.85</v>
       </c>
     </row>
     <row r="45">
@@ -1328,91 +1328,91 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>10743.65</v>
+        <v>8271.76</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>10841.51</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>24.75</v>
+        <v>10841.51</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>65.29000000000001</v>
+        <v>10841.51</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>127.99</v>
+        <v>10841.51</v>
       </c>
     </row>
     <row r="50">
@@ -1428,11 +1428,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>137.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1448,11 +1448,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>274.02</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="52">
@@ -1468,11 +1468,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>331.77</v>
+        <v>63.64</v>
       </c>
     </row>
     <row r="53">
@@ -1488,11 +1488,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>519.87</v>
+        <v>126.34</v>
       </c>
     </row>
     <row r="54">
@@ -1508,11 +1508,11 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>465.42</v>
+        <v>136.24</v>
       </c>
     </row>
     <row r="55">
@@ -1528,11 +1528,11 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>288.75</v>
+        <v>259.99</v>
       </c>
     </row>
     <row r="56">
@@ -1548,11 +1548,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>288.75</v>
+        <v>309.49</v>
       </c>
     </row>
     <row r="57">
@@ -1563,16 +1563,16 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>502.54</v>
       </c>
     </row>
     <row r="58">
@@ -1583,16 +1583,16 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>24.75</v>
+        <v>485.22</v>
       </c>
     </row>
     <row r="59">
@@ -1603,16 +1603,16 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>65.29000000000001</v>
+        <v>254.92</v>
       </c>
     </row>
     <row r="60">
@@ -1623,16 +1623,16 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>167.59</v>
+        <v>329.42</v>
       </c>
     </row>
     <row r="61">
@@ -1643,16 +1643,16 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>177.49</v>
+        <v>180.92</v>
       </c>
     </row>
     <row r="62">
@@ -1668,11 +1668,11 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>313.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1688,11 +1688,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>371.37</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="64">
@@ -1708,11 +1708,11 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>584.22</v>
+        <v>63.64</v>
       </c>
     </row>
     <row r="65">
@@ -1728,11 +1728,11 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>556.17</v>
+        <v>165.94</v>
       </c>
     </row>
     <row r="66">
@@ -1748,11 +1748,11 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>379.5</v>
+        <v>175.84</v>
       </c>
     </row>
     <row r="67">
@@ -1768,11 +1768,11 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>379.5</v>
+        <v>299.59</v>
       </c>
     </row>
     <row r="68">
@@ -1783,16 +1783,16 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>349.09</v>
       </c>
     </row>
     <row r="69">
@@ -1803,16 +1803,16 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>606.6900000000001</v>
       </c>
     </row>
     <row r="70">
@@ -1823,16 +1823,16 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>599.52</v>
       </c>
     </row>
     <row r="71">
@@ -1843,16 +1843,16 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>369.22</v>
       </c>
     </row>
     <row r="72">
@@ -1863,16 +1863,16 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>443.72</v>
       </c>
     </row>
     <row r="73">
@@ -1883,16 +1883,16 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>270.48</v>
       </c>
     </row>
     <row r="74">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -2003,12 +2003,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -2023,16 +2023,16 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>8551.860000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -2043,16 +2043,16 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>8551.860000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2063,16 +2063,16 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>9733.940000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2083,16 +2083,16 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>10305.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2103,16 +2103,16 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>10305.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2123,16 +2123,16 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>10836.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2148,11 +2148,11 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5489.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2168,11 +2168,11 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>5489.2</v>
+        <v>8551.860000000001</v>
       </c>
     </row>
     <row r="88">
@@ -2188,11 +2188,11 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>6576.55</v>
+        <v>8551.860000000001</v>
       </c>
     </row>
     <row r="89">
@@ -2208,11 +2208,171 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>2025-03-26</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>9733.940000000001</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>10305.48</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>10305.48</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2025-03-29</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>10838.03</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>5493.19</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>5558.33</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>6656.81</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
           <t>2025-04-02</t>
         </is>
       </c>
-      <c r="D89" t="n">
-        <v>7097.14</v>
+      <c r="D96" t="n">
+        <v>7723.77</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>7723.77</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_diario_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_diario_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7367.57</v>
+        <v>7360.91</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7907.29</v>
+        <v>7900.25</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5339.52</v>
+        <v>5332.48</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7146.77</v>
+        <v>7139.73</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8964.82</v>
+        <v>8978.629999999999</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9590</v>
+        <v>9577.049999999999</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8974.5</v>
+        <v>8955.620000000001</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8650.950000000001</v>
+        <v>8468.82</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>12345.08</v>
+        <v>12492.25</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>12204.99</v>
+        <v>12390.49</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8977.629999999999</v>
+        <v>9570.549999999999</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>7612.9</v>
+        <v>11314.07</v>
       </c>
     </row>
     <row r="14">
@@ -703,16 +703,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11113.07</v>
+        <v>9005.67</v>
       </c>
     </row>
     <row r="15">
@@ -728,11 +728,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>19050.42</v>
+        <v>11106.41</v>
       </c>
     </row>
     <row r="16">
@@ -748,11 +748,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>15132</v>
+        <v>19025.38</v>
       </c>
     </row>
     <row r="17">
@@ -768,11 +768,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>8793</v>
+        <v>15106.96</v>
       </c>
     </row>
     <row r="18">
@@ -788,11 +788,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>10545.05</v>
+        <v>8767.959999999999</v>
       </c>
     </row>
     <row r="19">
@@ -808,11 +808,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>11170.23</v>
+        <v>10540.87</v>
       </c>
     </row>
     <row r="20">
@@ -828,11 +828,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>11304.23</v>
+        <v>11139.28</v>
       </c>
     </row>
     <row r="21">
@@ -848,11 +848,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>10480.93</v>
+        <v>11267.35</v>
       </c>
     </row>
     <row r="22">
@@ -868,11 +868,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>17154.56</v>
+        <v>10280.8</v>
       </c>
     </row>
     <row r="23">
@@ -888,11 +888,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>15654.99</v>
+        <v>16732.63</v>
       </c>
     </row>
     <row r="24">
@@ -908,11 +908,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>12427.63</v>
+        <v>15271.39</v>
       </c>
     </row>
     <row r="25">
@@ -928,11 +928,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>10996.9</v>
+        <v>12451.45</v>
       </c>
     </row>
     <row r="26">
@@ -943,16 +943,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>15333.47</v>
       </c>
     </row>
     <row r="27">
@@ -963,16 +963,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1978.5</v>
+        <v>12480.57</v>
       </c>
     </row>
     <row r="28">
@@ -988,11 +988,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>6978.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1008,11 +1008,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6978.5</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="30">
@@ -1028,11 +1028,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>6978.5</v>
+        <v>6982</v>
       </c>
     </row>
     <row r="31">
@@ -1048,11 +1048,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5000</v>
+        <v>6982</v>
       </c>
     </row>
     <row r="32">
@@ -1068,11 +1068,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5000</v>
+        <v>12482</v>
       </c>
     </row>
     <row r="33">
@@ -1088,11 +1088,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>6978.5</v>
+        <v>5522</v>
       </c>
     </row>
     <row r="34">
@@ -1108,11 +1108,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>10223</v>
+        <v>16221</v>
       </c>
     </row>
     <row r="35">
@@ -1128,11 +1128,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>10444</v>
+        <v>18203</v>
       </c>
     </row>
     <row r="36">
@@ -1148,11 +1148,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>18688.5</v>
+        <v>26091</v>
       </c>
     </row>
     <row r="37">
@@ -1168,11 +1168,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>18688.5</v>
+        <v>26313.5</v>
       </c>
     </row>
     <row r="38">
@@ -1183,16 +1183,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>39175.5</v>
       </c>
     </row>
     <row r="39">
@@ -1203,16 +1203,16 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1580.85</v>
+        <v>46808.5</v>
       </c>
     </row>
     <row r="40">
@@ -1223,16 +1223,16 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1580.85</v>
+        <v>58187</v>
       </c>
     </row>
     <row r="41">
@@ -1248,11 +1248,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1580.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1328,11 +1328,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>8271.76</v>
+        <v>1580.85</v>
       </c>
     </row>
     <row r="46">
@@ -1348,11 +1348,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>10841.51</v>
+        <v>1580.85</v>
       </c>
     </row>
     <row r="47">
@@ -1368,11 +1368,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>10841.51</v>
+        <v>1580.85</v>
       </c>
     </row>
     <row r="48">
@@ -1388,11 +1388,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>10841.51</v>
+        <v>8294.629999999999</v>
       </c>
     </row>
     <row r="49">
@@ -1408,91 +1408,91 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>10841.51</v>
+        <v>10884.92</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>10884.92</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>24.75</v>
+        <v>10884.92</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>63.64</v>
+        <v>10884.92</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>126.34</v>
+        <v>10884.92</v>
       </c>
     </row>
     <row r="54">
@@ -1508,11 +1508,11 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>136.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1528,11 +1528,11 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>259.99</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="56">
@@ -1548,11 +1548,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>309.49</v>
+        <v>63.64</v>
       </c>
     </row>
     <row r="57">
@@ -1568,11 +1568,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>502.54</v>
+        <v>126.34</v>
       </c>
     </row>
     <row r="58">
@@ -1588,11 +1588,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>485.22</v>
+        <v>136.24</v>
       </c>
     </row>
     <row r="59">
@@ -1608,11 +1608,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>254.92</v>
+        <v>259.99</v>
       </c>
     </row>
     <row r="60">
@@ -1628,11 +1628,11 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>329.42</v>
+        <v>309.49</v>
       </c>
     </row>
     <row r="61">
@@ -1648,11 +1648,11 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>180.92</v>
+        <v>489.43</v>
       </c>
     </row>
     <row r="62">
@@ -1663,16 +1663,16 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>480.35</v>
       </c>
     </row>
     <row r="63">
@@ -1683,16 +1683,16 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>24.75</v>
+        <v>250.06</v>
       </c>
     </row>
     <row r="64">
@@ -1703,16 +1703,16 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>63.64</v>
+        <v>349.72</v>
       </c>
     </row>
     <row r="65">
@@ -1723,16 +1723,16 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>165.94</v>
+        <v>316.73</v>
       </c>
     </row>
     <row r="66">
@@ -1743,16 +1743,16 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>175.84</v>
+        <v>165.75</v>
       </c>
     </row>
     <row r="67">
@@ -1768,11 +1768,11 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>299.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1788,11 +1788,11 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>349.09</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="69">
@@ -1808,11 +1808,11 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>606.6900000000001</v>
+        <v>63.64</v>
       </c>
     </row>
     <row r="70">
@@ -1828,11 +1828,11 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>599.52</v>
+        <v>165.94</v>
       </c>
     </row>
     <row r="71">
@@ -1848,11 +1848,11 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>369.22</v>
+        <v>175.84</v>
       </c>
     </row>
     <row r="72">
@@ -1868,11 +1868,11 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>443.72</v>
+        <v>299.59</v>
       </c>
     </row>
     <row r="73">
@@ -1888,11 +1888,11 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>270.48</v>
+        <v>349.09</v>
       </c>
     </row>
     <row r="74">
@@ -1903,16 +1903,16 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>593.58</v>
       </c>
     </row>
     <row r="75">
@@ -1923,16 +1923,16 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>594.65</v>
       </c>
     </row>
     <row r="76">
@@ -1943,16 +1943,16 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>364.36</v>
       </c>
     </row>
     <row r="77">
@@ -1963,16 +1963,16 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>464.02</v>
       </c>
     </row>
     <row r="78">
@@ -1983,16 +1983,16 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>406.28</v>
       </c>
     </row>
     <row r="79">
@@ -2003,16 +2003,16 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>165.75</v>
       </c>
     </row>
     <row r="80">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -2128,7 +2128,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -2143,12 +2143,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -2163,16 +2163,16 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>8551.860000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2183,16 +2183,16 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>8551.860000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2203,16 +2203,16 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>9733.940000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2223,16 +2223,16 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>10305.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2243,16 +2243,16 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>10305.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2263,16 +2263,16 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>10838.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -2288,11 +2288,11 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>5493.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2308,11 +2308,11 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>5558.33</v>
+        <v>8551.860000000001</v>
       </c>
     </row>
     <row r="95">
@@ -2328,11 +2328,11 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>6656.81</v>
+        <v>8551.860000000001</v>
       </c>
     </row>
     <row r="96">
@@ -2348,11 +2348,11 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>7723.77</v>
+        <v>9733.940000000001</v>
       </c>
     </row>
     <row r="97">
@@ -2368,11 +2368,171 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>10305.48</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>10305.48</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2025-03-29</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>10838.03</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>5494.51</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>5559.99</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>6663.85</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>7782.17</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="D97" t="n">
-        <v>7723.77</v>
+      <c r="D104" t="n">
+        <v>7782.17</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>7249.62</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_diario_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_diario_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D105"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7360.91</v>
+        <v>7355.19</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7900.25</v>
+        <v>7894.23</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5332.48</v>
+        <v>5326.45</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7139.73</v>
+        <v>7133.7</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8978.629999999999</v>
+        <v>8964.290000000001</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9577.049999999999</v>
+        <v>9541.889999999999</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8955.620000000001</v>
+        <v>8927.6</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8468.82</v>
+        <v>8429.200000000001</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>12492.25</v>
+        <v>12067.11</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>12390.49</v>
+        <v>12158.46</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>9570.549999999999</v>
+        <v>9610.23</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>11314.07</v>
+        <v>12805.91</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>9005.67</v>
+        <v>13044.03</v>
       </c>
     </row>
     <row r="15">
@@ -723,16 +723,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11106.41</v>
+        <v>11009.24</v>
       </c>
     </row>
     <row r="16">
@@ -748,11 +748,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>19025.38</v>
+        <v>11100.69</v>
       </c>
     </row>
     <row r="17">
@@ -768,11 +768,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>15106.96</v>
+        <v>19004.12</v>
       </c>
     </row>
     <row r="18">
@@ -788,11 +788,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>8767.959999999999</v>
+        <v>15085.71</v>
       </c>
     </row>
     <row r="19">
@@ -808,11 +808,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>10540.87</v>
+        <v>8746.709999999999</v>
       </c>
     </row>
     <row r="20">
@@ -828,11 +828,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>11139.28</v>
+        <v>10511.29</v>
       </c>
     </row>
     <row r="21">
@@ -848,11 +848,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>11267.35</v>
+        <v>11088.89</v>
       </c>
     </row>
     <row r="22">
@@ -868,11 +868,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>10280.8</v>
+        <v>11224.1</v>
       </c>
     </row>
     <row r="23">
@@ -888,11 +888,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>16732.63</v>
+        <v>10225.95</v>
       </c>
     </row>
     <row r="24">
@@ -908,11 +908,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>15271.39</v>
+        <v>15916.07</v>
       </c>
     </row>
     <row r="25">
@@ -928,11 +928,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>12451.45</v>
+        <v>14647.93</v>
       </c>
     </row>
     <row r="26">
@@ -948,11 +948,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>15333.47</v>
+        <v>12099.69</v>
       </c>
     </row>
     <row r="27">
@@ -968,11 +968,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>12480.57</v>
+        <v>16054.38</v>
       </c>
     </row>
     <row r="28">
@@ -983,16 +983,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>15847</v>
       </c>
     </row>
     <row r="29">
@@ -1003,16 +1003,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1982</v>
+        <v>13733.01</v>
       </c>
     </row>
     <row r="30">
@@ -1028,11 +1028,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>6982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1048,11 +1048,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>6982</v>
+        <v>1986.5</v>
       </c>
     </row>
     <row r="32">
@@ -1068,11 +1068,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>12482</v>
+        <v>7486.5</v>
       </c>
     </row>
     <row r="33">
@@ -1088,11 +1088,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5522</v>
+        <v>7486.5</v>
       </c>
     </row>
     <row r="34">
@@ -1108,11 +1108,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>16221</v>
+        <v>12986.5</v>
       </c>
     </row>
     <row r="35">
@@ -1128,11 +1128,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>18203</v>
+        <v>6024.5</v>
       </c>
     </row>
     <row r="36">
@@ -1148,11 +1148,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>26091</v>
+        <v>16760.5</v>
       </c>
     </row>
     <row r="37">
@@ -1168,11 +1168,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>26313.5</v>
+        <v>19313</v>
       </c>
     </row>
     <row r="38">
@@ -1188,11 +1188,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>39175.5</v>
+        <v>26682</v>
       </c>
     </row>
     <row r="39">
@@ -1208,11 +1208,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>46808.5</v>
+        <v>27472</v>
       </c>
     </row>
     <row r="40">
@@ -1228,11 +1228,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>58187</v>
+        <v>40382.5</v>
       </c>
     </row>
     <row r="41">
@@ -1243,16 +1243,16 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>48171</v>
       </c>
     </row>
     <row r="42">
@@ -1263,16 +1263,16 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1580.85</v>
+        <v>60154</v>
       </c>
     </row>
     <row r="43">
@@ -1283,16 +1283,16 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1580.85</v>
+        <v>58131</v>
       </c>
     </row>
     <row r="44">
@@ -1308,11 +1308,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1580.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -1388,11 +1388,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>8294.629999999999</v>
+        <v>1580.85</v>
       </c>
     </row>
     <row r="49">
@@ -1408,11 +1408,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>10884.92</v>
+        <v>1580.85</v>
       </c>
     </row>
     <row r="50">
@@ -1428,11 +1428,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>10884.92</v>
+        <v>1580.85</v>
       </c>
     </row>
     <row r="51">
@@ -1448,11 +1448,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>10884.92</v>
+        <v>8294.629999999999</v>
       </c>
     </row>
     <row r="52">
@@ -1468,11 +1468,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>10884.92</v>
+        <v>10903.14</v>
       </c>
     </row>
     <row r="53">
@@ -1488,91 +1488,91 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>10884.92</v>
+        <v>10903.14</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>10903.14</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>24.75</v>
+        <v>10903.14</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>63.64</v>
+        <v>10903.14</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>126.34</v>
+        <v>2608.51</v>
       </c>
     </row>
     <row r="58">
@@ -1588,11 +1588,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>136.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1608,11 +1608,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>259.99</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="60">
@@ -1628,11 +1628,11 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>309.49</v>
+        <v>63.64</v>
       </c>
     </row>
     <row r="61">
@@ -1648,11 +1648,11 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>489.43</v>
+        <v>126.34</v>
       </c>
     </row>
     <row r="62">
@@ -1668,11 +1668,11 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>480.35</v>
+        <v>136.24</v>
       </c>
     </row>
     <row r="63">
@@ -1688,11 +1688,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>250.06</v>
+        <v>259.99</v>
       </c>
     </row>
     <row r="64">
@@ -1708,11 +1708,11 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>349.72</v>
+        <v>309.49</v>
       </c>
     </row>
     <row r="65">
@@ -1728,11 +1728,11 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>316.73</v>
+        <v>494.2</v>
       </c>
     </row>
     <row r="66">
@@ -1748,11 +1748,11 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>165.75</v>
+        <v>485.12</v>
       </c>
     </row>
     <row r="67">
@@ -1763,16 +1763,16 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>254.83</v>
       </c>
     </row>
     <row r="68">
@@ -1783,16 +1783,16 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>24.75</v>
+        <v>454.33</v>
       </c>
     </row>
     <row r="69">
@@ -1803,16 +1803,16 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>63.64</v>
+        <v>371.83</v>
       </c>
     </row>
     <row r="70">
@@ -1823,16 +1823,16 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>165.94</v>
+        <v>270.61</v>
       </c>
     </row>
     <row r="71">
@@ -1843,16 +1843,16 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>175.84</v>
+        <v>270.61</v>
       </c>
     </row>
     <row r="72">
@@ -1868,11 +1868,11 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>299.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -1888,11 +1888,11 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>349.09</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="74">
@@ -1908,11 +1908,11 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>593.58</v>
+        <v>63.64</v>
       </c>
     </row>
     <row r="75">
@@ -1928,11 +1928,11 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>594.65</v>
+        <v>165.94</v>
       </c>
     </row>
     <row r="76">
@@ -1948,11 +1948,11 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>364.36</v>
+        <v>175.84</v>
       </c>
     </row>
     <row r="77">
@@ -1968,11 +1968,11 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>464.02</v>
+        <v>299.59</v>
       </c>
     </row>
     <row r="78">
@@ -1988,11 +1988,11 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>406.28</v>
+        <v>349.09</v>
       </c>
     </row>
     <row r="79">
@@ -2008,11 +2008,11 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>165.75</v>
+        <v>598.35</v>
       </c>
     </row>
     <row r="80">
@@ -2023,16 +2023,16 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>599.42</v>
       </c>
     </row>
     <row r="81">
@@ -2043,16 +2043,16 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>369.13</v>
       </c>
     </row>
     <row r="82">
@@ -2063,16 +2063,16 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>568.63</v>
       </c>
     </row>
     <row r="83">
@@ -2083,16 +2083,16 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>461.38</v>
       </c>
     </row>
     <row r="84">
@@ -2103,16 +2103,16 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>270.61</v>
       </c>
     </row>
     <row r="85">
@@ -2123,16 +2123,16 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>270.61</v>
       </c>
     </row>
     <row r="86">
@@ -2148,7 +2148,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -2188,7 +2188,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -2208,7 +2208,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -2268,7 +2268,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -2283,12 +2283,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -2303,16 +2303,16 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>8551.860000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2323,16 +2323,16 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>8551.860000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2343,16 +2343,16 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>9733.940000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2363,16 +2363,16 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>10305.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2383,16 +2383,16 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>10305.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2403,16 +2403,16 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>10838.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -2428,11 +2428,11 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>5494.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -2448,11 +2448,11 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>5559.99</v>
+        <v>8551.860000000001</v>
       </c>
     </row>
     <row r="102">
@@ -2468,11 +2468,11 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>6663.85</v>
+        <v>8551.860000000001</v>
       </c>
     </row>
     <row r="103">
@@ -2488,11 +2488,11 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>7782.17</v>
+        <v>9733.940000000001</v>
       </c>
     </row>
     <row r="104">
@@ -2508,11 +2508,11 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>7782.17</v>
+        <v>10305.48</v>
       </c>
     </row>
     <row r="105">
@@ -2528,11 +2528,171 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>10305.48</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2025-03-29</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>10838.03</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>5494.51</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>5560.28</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>6665.43</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>7788.83</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>7788.83</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
           <t>2025-04-04</t>
         </is>
       </c>
-      <c r="D105" t="n">
-        <v>7249.62</v>
+      <c r="D112" t="n">
+        <v>7256.28</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>4751.59</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_diario_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_diario_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7355.19</v>
+        <v>7350.24</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7894.23</v>
+        <v>7889</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5326.45</v>
+        <v>5321.23</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7133.7</v>
+        <v>7128.48</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8964.290000000001</v>
+        <v>8929.530000000001</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9541.889999999999</v>
+        <v>9515.48</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8927.6</v>
+        <v>8896.73</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8429.200000000001</v>
+        <v>8328.440000000001</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>12067.11</v>
+        <v>11825.72</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>12158.46</v>
+        <v>11853.96</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>9610.23</v>
+        <v>9494.43</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>12805.91</v>
+        <v>13542.57</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>13044.03</v>
+        <v>18373.69</v>
       </c>
     </row>
     <row r="15">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11009.24</v>
+        <v>17069.99</v>
       </c>
     </row>
     <row r="16">
@@ -743,16 +743,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>11100.69</v>
+        <v>14470.02</v>
       </c>
     </row>
     <row r="17">
@@ -768,11 +768,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>19004.12</v>
+        <v>11095.74</v>
       </c>
     </row>
     <row r="18">
@@ -788,11 +788,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15085.71</v>
+        <v>18985.84</v>
       </c>
     </row>
     <row r="19">
@@ -808,11 +808,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>8746.709999999999</v>
+        <v>15067.43</v>
       </c>
     </row>
     <row r="20">
@@ -828,11 +828,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>10511.29</v>
+        <v>8728.43</v>
       </c>
     </row>
     <row r="21">
@@ -848,11 +848,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>11088.89</v>
+        <v>10463.48</v>
       </c>
     </row>
     <row r="22">
@@ -868,11 +868,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>11224.1</v>
+        <v>11049.42</v>
       </c>
     </row>
     <row r="23">
@@ -888,11 +888,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>10225.95</v>
+        <v>11180.18</v>
       </c>
     </row>
     <row r="24">
@@ -908,11 +908,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>15916.07</v>
+        <v>10112.14</v>
       </c>
     </row>
     <row r="25">
@@ -928,11 +928,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>14647.93</v>
+        <v>15395.73</v>
       </c>
     </row>
     <row r="26">
@@ -948,11 +948,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>12099.69</v>
+        <v>14064.49</v>
       </c>
     </row>
     <row r="27">
@@ -968,11 +968,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>16054.38</v>
+        <v>11704.96</v>
       </c>
     </row>
     <row r="28">
@@ -988,11 +988,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>15847</v>
+        <v>16322.35</v>
       </c>
     </row>
     <row r="29">
@@ -1008,11 +1008,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>13733.01</v>
+        <v>20707.97</v>
       </c>
     </row>
     <row r="30">
@@ -1023,16 +1023,16 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>19364.67</v>
       </c>
     </row>
     <row r="31">
@@ -1043,16 +1043,16 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1986.5</v>
+        <v>16764.7</v>
       </c>
     </row>
     <row r="32">
@@ -1068,11 +1068,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>7486.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1088,11 +1088,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>7486.5</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="34">
@@ -1108,11 +1108,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>12986.5</v>
+        <v>7491</v>
       </c>
     </row>
     <row r="35">
@@ -1128,11 +1128,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>6024.5</v>
+        <v>7491</v>
       </c>
     </row>
     <row r="36">
@@ -1148,11 +1148,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>16760.5</v>
+        <v>12991</v>
       </c>
     </row>
     <row r="37">
@@ -1168,11 +1168,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>19313</v>
+        <v>7969.5</v>
       </c>
     </row>
     <row r="38">
@@ -1188,11 +1188,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>26682</v>
+        <v>18771.5</v>
       </c>
     </row>
     <row r="39">
@@ -1208,11 +1208,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>27472</v>
+        <v>21329.5</v>
       </c>
     </row>
     <row r="40">
@@ -1228,11 +1228,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>40382.5</v>
+        <v>27823.5</v>
       </c>
     </row>
     <row r="41">
@@ -1248,11 +1248,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>48171</v>
+        <v>30586</v>
       </c>
     </row>
     <row r="42">
@@ -1268,11 +1268,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>60154</v>
+        <v>44556.5</v>
       </c>
     </row>
     <row r="43">
@@ -1288,11 +1288,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>58131</v>
+        <v>54483.5</v>
       </c>
     </row>
     <row r="44">
@@ -1303,16 +1303,16 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>72489.5</v>
       </c>
     </row>
     <row r="45">
@@ -1323,16 +1323,16 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1580.85</v>
+        <v>71548.5</v>
       </c>
     </row>
     <row r="46">
@@ -1343,16 +1343,16 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1580.85</v>
+        <v>68489.5</v>
       </c>
     </row>
     <row r="47">
@@ -1368,11 +1368,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1580.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -1448,11 +1448,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>8294.629999999999</v>
+        <v>1580.85</v>
       </c>
     </row>
     <row r="52">
@@ -1468,11 +1468,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>10903.14</v>
+        <v>1580.85</v>
       </c>
     </row>
     <row r="53">
@@ -1488,11 +1488,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>10903.14</v>
+        <v>1580.85</v>
       </c>
     </row>
     <row r="54">
@@ -1508,11 +1508,11 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>10903.14</v>
+        <v>8294.629999999999</v>
       </c>
     </row>
     <row r="55">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -1568,91 +1568,91 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2608.51</v>
+        <v>10903.14</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>10903.14</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>24.75</v>
+        <v>10903.14</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>63.64</v>
+        <v>2608.51</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>126.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1668,11 +1668,11 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>136.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1688,11 +1688,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>259.99</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="64">
@@ -1708,11 +1708,11 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>309.49</v>
+        <v>63.64</v>
       </c>
     </row>
     <row r="65">
@@ -1728,11 +1728,11 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>494.2</v>
+        <v>126.34</v>
       </c>
     </row>
     <row r="66">
@@ -1748,11 +1748,11 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>485.12</v>
+        <v>136.24</v>
       </c>
     </row>
     <row r="67">
@@ -1768,11 +1768,11 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>254.83</v>
+        <v>259.99</v>
       </c>
     </row>
     <row r="68">
@@ -1788,11 +1788,11 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>454.33</v>
+        <v>309.49</v>
       </c>
     </row>
     <row r="69">
@@ -1808,11 +1808,11 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>371.83</v>
+        <v>489.06</v>
       </c>
     </row>
     <row r="70">
@@ -1828,11 +1828,11 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>270.61</v>
+        <v>479.98</v>
       </c>
     </row>
     <row r="71">
@@ -1848,11 +1848,11 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>270.61</v>
+        <v>249.69</v>
       </c>
     </row>
     <row r="72">
@@ -1863,16 +1863,16 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>639.29</v>
       </c>
     </row>
     <row r="73">
@@ -1883,16 +1883,16 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>24.75</v>
+        <v>569.16</v>
       </c>
     </row>
     <row r="74">
@@ -1903,16 +1903,16 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>63.64</v>
+        <v>658.12</v>
       </c>
     </row>
     <row r="75">
@@ -1923,16 +1923,16 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>165.94</v>
+        <v>658.12</v>
       </c>
     </row>
     <row r="76">
@@ -1943,16 +1943,16 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>175.84</v>
+        <v>658.12</v>
       </c>
     </row>
     <row r="77">
@@ -1968,11 +1968,11 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>299.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -1988,11 +1988,11 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>349.09</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="79">
@@ -2008,11 +2008,11 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>598.35</v>
+        <v>63.64</v>
       </c>
     </row>
     <row r="80">
@@ -2028,11 +2028,11 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>599.42</v>
+        <v>165.94</v>
       </c>
     </row>
     <row r="81">
@@ -2048,11 +2048,11 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>369.13</v>
+        <v>175.84</v>
       </c>
     </row>
     <row r="82">
@@ -2068,11 +2068,11 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>568.63</v>
+        <v>299.59</v>
       </c>
     </row>
     <row r="83">
@@ -2088,11 +2088,11 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>461.38</v>
+        <v>349.09</v>
       </c>
     </row>
     <row r="84">
@@ -2108,11 +2108,11 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>270.61</v>
+        <v>593.21</v>
       </c>
     </row>
     <row r="85">
@@ -2128,11 +2128,11 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>270.61</v>
+        <v>594.28</v>
       </c>
     </row>
     <row r="86">
@@ -2143,16 +2143,16 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>363.99</v>
       </c>
     </row>
     <row r="87">
@@ -2163,16 +2163,16 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>753.59</v>
       </c>
     </row>
     <row r="88">
@@ -2183,16 +2183,16 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>658.71</v>
       </c>
     </row>
     <row r="89">
@@ -2203,16 +2203,16 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>658.12</v>
       </c>
     </row>
     <row r="90">
@@ -2223,16 +2223,16 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>658.12</v>
       </c>
     </row>
     <row r="91">
@@ -2243,16 +2243,16 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>658.12</v>
       </c>
     </row>
     <row r="92">
@@ -2268,7 +2268,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -2288,7 +2288,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -2308,7 +2308,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -2423,12 +2423,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -2443,16 +2443,16 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>8551.860000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -2463,16 +2463,16 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>8551.860000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -2483,16 +2483,16 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>9733.940000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -2503,16 +2503,16 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>10305.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -2523,16 +2523,16 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>10305.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -2543,16 +2543,16 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>10838.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -2568,11 +2568,11 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>5494.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -2588,11 +2588,11 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>5560.28</v>
+        <v>8551.860000000001</v>
       </c>
     </row>
     <row r="109">
@@ -2608,11 +2608,11 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>6665.43</v>
+        <v>8551.860000000001</v>
       </c>
     </row>
     <row r="110">
@@ -2628,11 +2628,11 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>7788.83</v>
+        <v>9733.940000000001</v>
       </c>
     </row>
     <row r="111">
@@ -2648,11 +2648,11 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>7788.83</v>
+        <v>10305.48</v>
       </c>
     </row>
     <row r="112">
@@ -2668,11 +2668,11 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>7256.28</v>
+        <v>10305.48</v>
       </c>
     </row>
     <row r="113">
@@ -2688,11 +2688,171 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>2025-03-29</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>10838.03</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>5494.51</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>5560.28</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>6666.51</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>7792.23</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>7792.23</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>7259.68</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
           <t>2025-04-05</t>
         </is>
       </c>
-      <c r="D113" t="n">
-        <v>4751.59</v>
+      <c r="D120" t="n">
+        <v>5606.97</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>5541.2</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_diario_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_diario_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7350.24</v>
+        <v>7345.91</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7889</v>
+        <v>7884.44</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5321.23</v>
+        <v>5316.66</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7128.48</v>
+        <v>7123.91</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8929.530000000001</v>
+        <v>8900.360000000001</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9515.48</v>
+        <v>9479.49</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8896.73</v>
+        <v>8860.74</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8328.440000000001</v>
+        <v>8229.959999999999</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>11825.72</v>
+        <v>11563.69</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>11853.96</v>
+        <v>11491.03</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>9494.43</v>
+        <v>9056.91</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>13542.57</v>
+        <v>12719.44</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>18373.69</v>
+        <v>17761.52</v>
       </c>
     </row>
     <row r="15">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>17069.99</v>
+        <v>17710.82</v>
       </c>
     </row>
     <row r="16">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>14470.02</v>
+        <v>17746.12</v>
       </c>
     </row>
     <row r="17">
@@ -763,16 +763,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>11095.74</v>
+        <v>15414.51</v>
       </c>
     </row>
     <row r="18">
@@ -788,11 +788,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>18985.84</v>
+        <v>11091.41</v>
       </c>
     </row>
     <row r="19">
@@ -808,11 +808,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>15067.43</v>
+        <v>18969.96</v>
       </c>
     </row>
     <row r="20">
@@ -828,11 +828,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>8728.43</v>
+        <v>15051.55</v>
       </c>
     </row>
     <row r="21">
@@ -848,11 +848,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>10463.48</v>
+        <v>8712.549999999999</v>
       </c>
     </row>
     <row r="22">
@@ -868,11 +868,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>11049.42</v>
+        <v>10422.99</v>
       </c>
     </row>
     <row r="23">
@@ -888,11 +888,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>11180.18</v>
+        <v>11002.12</v>
       </c>
     </row>
     <row r="24">
@@ -908,11 +908,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>10112.14</v>
+        <v>11132.88</v>
       </c>
     </row>
     <row r="25">
@@ -928,11 +928,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>15395.73</v>
+        <v>10002.35</v>
       </c>
     </row>
     <row r="26">
@@ -948,11 +948,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>14064.49</v>
+        <v>14927.93</v>
       </c>
     </row>
     <row r="27">
@@ -968,11 +968,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>11704.96</v>
+        <v>13495.78</v>
       </c>
     </row>
     <row r="28">
@@ -988,11 +988,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>16322.35</v>
+        <v>11061.66</v>
       </c>
     </row>
     <row r="29">
@@ -1008,11 +1008,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>20707.97</v>
+        <v>15179.59</v>
       </c>
     </row>
     <row r="30">
@@ -1028,11 +1028,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>19364.67</v>
+        <v>19776.17</v>
       </c>
     </row>
     <row r="31">
@@ -1048,11 +1048,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>16764.7</v>
+        <v>19685.87</v>
       </c>
     </row>
     <row r="32">
@@ -1063,16 +1063,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>19721.17</v>
       </c>
     </row>
     <row r="33">
@@ -1083,16 +1083,16 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1991</v>
+        <v>17389.56</v>
       </c>
     </row>
     <row r="34">
@@ -1108,11 +1108,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1128,11 +1128,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7491</v>
+        <v>1994.5</v>
       </c>
     </row>
     <row r="36">
@@ -1148,11 +1148,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>12991</v>
+        <v>7494.5</v>
       </c>
     </row>
     <row r="37">
@@ -1168,11 +1168,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>7969.5</v>
+        <v>7494.5</v>
       </c>
     </row>
     <row r="38">
@@ -1188,11 +1188,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>18771.5</v>
+        <v>12994.5</v>
       </c>
     </row>
     <row r="39">
@@ -1208,11 +1208,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>21329.5</v>
+        <v>7978</v>
       </c>
     </row>
     <row r="40">
@@ -1228,11 +1228,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>27823.5</v>
+        <v>18820.5</v>
       </c>
     </row>
     <row r="41">
@@ -1248,11 +1248,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>30586</v>
+        <v>21382.5</v>
       </c>
     </row>
     <row r="42">
@@ -1268,11 +1268,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>44556.5</v>
+        <v>27903.5</v>
       </c>
     </row>
     <row r="43">
@@ -1288,11 +1288,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>54483.5</v>
+        <v>30674</v>
       </c>
     </row>
     <row r="44">
@@ -1308,11 +1308,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>72489.5</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="45">
@@ -1328,11 +1328,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>71548.5</v>
+        <v>54611</v>
       </c>
     </row>
     <row r="46">
@@ -1348,11 +1348,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>68489.5</v>
+        <v>73117.5</v>
       </c>
     </row>
     <row r="47">
@@ -1363,16 +1363,16 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>72177</v>
       </c>
     </row>
     <row r="48">
@@ -1383,16 +1383,16 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1580.85</v>
+        <v>68616.5</v>
       </c>
     </row>
     <row r="49">
@@ -1403,16 +1403,16 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1580.85</v>
+        <v>72696</v>
       </c>
     </row>
     <row r="50">
@@ -1428,11 +1428,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1580.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -1508,11 +1508,11 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>8294.629999999999</v>
+        <v>1580.85</v>
       </c>
     </row>
     <row r="55">
@@ -1528,11 +1528,11 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>10903.14</v>
+        <v>1580.85</v>
       </c>
     </row>
     <row r="56">
@@ -1548,11 +1548,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>10903.14</v>
+        <v>1580.85</v>
       </c>
     </row>
     <row r="57">
@@ -1568,11 +1568,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>10903.14</v>
+        <v>8294.629999999999</v>
       </c>
     </row>
     <row r="58">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -1628,11 +1628,11 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2608.51</v>
+        <v>10903.14</v>
       </c>
     </row>
     <row r="61">
@@ -1648,91 +1648,91 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>10903.14</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>10903.14</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>24.75</v>
+        <v>3929.72</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>63.64</v>
+        <v>1321.21</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>126.34</v>
+        <v>1774.5</v>
       </c>
     </row>
     <row r="66">
@@ -1748,11 +1748,11 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>136.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1768,11 +1768,11 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>259.99</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="68">
@@ -1788,11 +1788,11 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>309.49</v>
+        <v>63.64</v>
       </c>
     </row>
     <row r="69">
@@ -1808,11 +1808,11 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>489.06</v>
+        <v>126.34</v>
       </c>
     </row>
     <row r="70">
@@ -1828,11 +1828,11 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>479.98</v>
+        <v>136.24</v>
       </c>
     </row>
     <row r="71">
@@ -1848,11 +1848,11 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>249.69</v>
+        <v>259.99</v>
       </c>
     </row>
     <row r="72">
@@ -1868,11 +1868,11 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>639.29</v>
+        <v>309.49</v>
       </c>
     </row>
     <row r="73">
@@ -1888,11 +1888,11 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>569.16</v>
+        <v>492.53</v>
       </c>
     </row>
     <row r="74">
@@ -1908,11 +1908,11 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>658.12</v>
+        <v>483.46</v>
       </c>
     </row>
     <row r="75">
@@ -1928,11 +1928,11 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>658.12</v>
+        <v>253.17</v>
       </c>
     </row>
     <row r="76">
@@ -1948,11 +1948,11 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>658.12</v>
+        <v>786.17</v>
       </c>
     </row>
     <row r="77">
@@ -1963,16 +1963,16 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>716.04</v>
       </c>
     </row>
     <row r="78">
@@ -1983,16 +1983,16 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>24.75</v>
+        <v>805.04</v>
       </c>
     </row>
     <row r="79">
@@ -2003,16 +2003,16 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>63.64</v>
+        <v>805.04</v>
       </c>
     </row>
     <row r="80">
@@ -2023,16 +2023,16 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>165.94</v>
+        <v>805.04</v>
       </c>
     </row>
     <row r="81">
@@ -2043,16 +2043,16 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>175.84</v>
+        <v>805.04</v>
       </c>
     </row>
     <row r="82">
@@ -2068,11 +2068,11 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>299.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2088,11 +2088,11 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>349.09</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="84">
@@ -2108,11 +2108,11 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>593.21</v>
+        <v>63.64</v>
       </c>
     </row>
     <row r="85">
@@ -2128,11 +2128,11 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>594.28</v>
+        <v>165.94</v>
       </c>
     </row>
     <row r="86">
@@ -2148,11 +2148,11 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>363.99</v>
+        <v>175.84</v>
       </c>
     </row>
     <row r="87">
@@ -2168,11 +2168,11 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>753.59</v>
+        <v>299.59</v>
       </c>
     </row>
     <row r="88">
@@ -2188,11 +2188,11 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>658.71</v>
+        <v>349.09</v>
       </c>
     </row>
     <row r="89">
@@ -2208,11 +2208,11 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>658.12</v>
+        <v>596.6799999999999</v>
       </c>
     </row>
     <row r="90">
@@ -2228,11 +2228,11 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>658.12</v>
+        <v>597.76</v>
       </c>
     </row>
     <row r="91">
@@ -2248,11 +2248,11 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>658.12</v>
+        <v>367.47</v>
       </c>
     </row>
     <row r="92">
@@ -2263,16 +2263,16 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>900.47</v>
       </c>
     </row>
     <row r="93">
@@ -2283,16 +2283,16 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>805.59</v>
       </c>
     </row>
     <row r="94">
@@ -2303,16 +2303,16 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>805.04</v>
       </c>
     </row>
     <row r="95">
@@ -2323,16 +2323,16 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>805.04</v>
       </c>
     </row>
     <row r="96">
@@ -2343,16 +2343,16 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>805.04</v>
       </c>
     </row>
     <row r="97">
@@ -2363,16 +2363,16 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>805.04</v>
       </c>
     </row>
     <row r="98">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -2428,7 +2428,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -2448,7 +2448,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -2508,7 +2508,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D106" t="n">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -2583,16 +2583,16 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>8551.860000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -2603,16 +2603,16 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>8551.860000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -2623,16 +2623,16 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>9733.940000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -2643,16 +2643,16 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>10305.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -2663,16 +2663,16 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>10305.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -2683,16 +2683,16 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>10838.03</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114">
@@ -2708,11 +2708,11 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>5494.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -2728,11 +2728,11 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>5560.28</v>
+        <v>8551.860000000001</v>
       </c>
     </row>
     <row r="116">
@@ -2748,11 +2748,11 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>6666.51</v>
+        <v>8551.860000000001</v>
       </c>
     </row>
     <row r="117">
@@ -2768,11 +2768,11 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>7792.23</v>
+        <v>9733.940000000001</v>
       </c>
     </row>
     <row r="118">
@@ -2788,11 +2788,11 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>7792.23</v>
+        <v>10305.48</v>
       </c>
     </row>
     <row r="119">
@@ -2808,11 +2808,11 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>7259.68</v>
+        <v>10305.48</v>
       </c>
     </row>
     <row r="120">
@@ -2828,11 +2828,11 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>5606.97</v>
+        <v>10838.03</v>
       </c>
     </row>
     <row r="121">
@@ -2848,11 +2848,171 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>5494.51</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>5560.28</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>6666.51</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>7793.3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>7793.3</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>7260.75</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>5711.34</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
           <t>2025-04-06</t>
         </is>
       </c>
-      <c r="D121" t="n">
-        <v>5541.2</v>
+      <c r="D128" t="n">
+        <v>5645.57</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>3357.26</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_diario_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_diario_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D129"/>
+  <dimension ref="A1:D137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7345.91</v>
+        <v>7342.64</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7884.44</v>
+        <v>7880.96</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5316.66</v>
+        <v>5313.18</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7123.91</v>
+        <v>7120.43</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8900.360000000001</v>
+        <v>8876.049999999999</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9479.49</v>
+        <v>9432.84</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8860.74</v>
+        <v>8814.1</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8229.959999999999</v>
+        <v>8089.61</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>11563.69</v>
+        <v>11247.7</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>11491.03</v>
+        <v>11049.89</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>9056.91</v>
+        <v>8605.209999999999</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>12719.44</v>
+        <v>12343.73</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>17761.52</v>
+        <v>17559.93</v>
       </c>
     </row>
     <row r="15">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>17710.82</v>
+        <v>17099.35</v>
       </c>
     </row>
     <row r="16">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>17746.12</v>
+        <v>18500.73</v>
       </c>
     </row>
     <row r="17">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>15414.51</v>
+        <v>22986.07</v>
       </c>
     </row>
     <row r="18">
@@ -783,16 +783,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>11091.41</v>
+        <v>21069.12</v>
       </c>
     </row>
     <row r="19">
@@ -808,11 +808,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>18969.96</v>
+        <v>11088.14</v>
       </c>
     </row>
     <row r="20">
@@ -828,11 +828,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>15051.55</v>
+        <v>18962.36</v>
       </c>
     </row>
     <row r="21">
@@ -848,11 +848,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>8712.549999999999</v>
+        <v>15036.4</v>
       </c>
     </row>
     <row r="22">
@@ -868,11 +868,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>10422.99</v>
+        <v>8697.4</v>
       </c>
     </row>
     <row r="23">
@@ -888,11 +888,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>11002.12</v>
+        <v>10387.02</v>
       </c>
     </row>
     <row r="24">
@@ -908,11 +908,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>11132.88</v>
+        <v>10943.81</v>
       </c>
     </row>
     <row r="25">
@@ -928,11 +928,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>10002.35</v>
+        <v>11074.57</v>
       </c>
     </row>
     <row r="26">
@@ -948,11 +948,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>14927.93</v>
+        <v>9850.32</v>
       </c>
     </row>
     <row r="27">
@@ -968,11 +968,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>13495.78</v>
+        <v>14534.46</v>
       </c>
     </row>
     <row r="28">
@@ -988,11 +988,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>11061.66</v>
+        <v>12991.31</v>
       </c>
     </row>
     <row r="29">
@@ -1008,11 +1008,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>15179.59</v>
+        <v>10546.63</v>
       </c>
     </row>
     <row r="30">
@@ -1028,11 +1028,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>19776.17</v>
+        <v>14717.45</v>
       </c>
     </row>
     <row r="31">
@@ -1048,11 +1048,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>19685.87</v>
+        <v>19488.15</v>
       </c>
     </row>
     <row r="32">
@@ -1068,11 +1068,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>19721.17</v>
+        <v>18987.97</v>
       </c>
     </row>
     <row r="33">
@@ -1088,11 +1088,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>17389.56</v>
+        <v>20389.35</v>
       </c>
     </row>
     <row r="34">
@@ -1103,16 +1103,16 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>24815.12</v>
       </c>
     </row>
     <row r="35">
@@ -1123,16 +1123,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1994.5</v>
+        <v>21833.09</v>
       </c>
     </row>
     <row r="36">
@@ -1148,11 +1148,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>7494.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1168,11 +1168,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>7494.5</v>
+        <v>1998.5</v>
       </c>
     </row>
     <row r="38">
@@ -1188,11 +1188,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>12994.5</v>
+        <v>7498.5</v>
       </c>
     </row>
     <row r="39">
@@ -1208,11 +1208,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>7978</v>
+        <v>7498.5</v>
       </c>
     </row>
     <row r="40">
@@ -1228,11 +1228,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>18820.5</v>
+        <v>12998.5</v>
       </c>
     </row>
     <row r="41">
@@ -1248,11 +1248,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>21382.5</v>
+        <v>7986.5</v>
       </c>
     </row>
     <row r="42">
@@ -1268,11 +1268,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>27903.5</v>
+        <v>18865.5</v>
       </c>
     </row>
     <row r="43">
@@ -1288,11 +1288,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>30674</v>
+        <v>21432.5</v>
       </c>
     </row>
     <row r="44">
@@ -1308,11 +1308,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>44685</v>
+        <v>27978.5</v>
       </c>
     </row>
     <row r="45">
@@ -1328,11 +1328,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>54611</v>
+        <v>30758</v>
       </c>
     </row>
     <row r="46">
@@ -1348,11 +1348,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>73117.5</v>
+        <v>44805.5</v>
       </c>
     </row>
     <row r="47">
@@ -1368,11 +1368,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>72177</v>
+        <v>54730.5</v>
       </c>
     </row>
     <row r="48">
@@ -1388,11 +1388,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>68616.5</v>
+        <v>73737</v>
       </c>
     </row>
     <row r="49">
@@ -1408,11 +1408,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>72696</v>
+        <v>73805.5</v>
       </c>
     </row>
     <row r="50">
@@ -1423,16 +1423,16 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>69744.5</v>
       </c>
     </row>
     <row r="51">
@@ -1443,16 +1443,16 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1580.85</v>
+        <v>73805.5</v>
       </c>
     </row>
     <row r="52">
@@ -1463,16 +1463,16 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1580.85</v>
+        <v>88319</v>
       </c>
     </row>
     <row r="53">
@@ -1488,11 +1488,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1580.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -1568,11 +1568,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>8294.629999999999</v>
+        <v>1580.85</v>
       </c>
     </row>
     <row r="58">
@@ -1588,11 +1588,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>10903.14</v>
+        <v>1580.85</v>
       </c>
     </row>
     <row r="59">
@@ -1608,11 +1608,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>10903.14</v>
+        <v>1580.85</v>
       </c>
     </row>
     <row r="60">
@@ -1628,11 +1628,11 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>10903.14</v>
+        <v>8294.629999999999</v>
       </c>
     </row>
     <row r="61">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -1688,11 +1688,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>3929.72</v>
+        <v>10903.14</v>
       </c>
     </row>
     <row r="64">
@@ -1708,11 +1708,11 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1321.21</v>
+        <v>10903.14</v>
       </c>
     </row>
     <row r="65">
@@ -1728,91 +1728,91 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1774.5</v>
+        <v>10903.14</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>4010.2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>24.75</v>
+        <v>1401.69</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>63.64</v>
+        <v>1935.92</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>126.34</v>
+        <v>3182.93</v>
       </c>
     </row>
     <row r="70">
@@ -1828,11 +1828,11 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>136.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1848,11 +1848,11 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>259.99</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="72">
@@ -1868,11 +1868,11 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>309.49</v>
+        <v>63.64</v>
       </c>
     </row>
     <row r="73">
@@ -1888,11 +1888,11 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>492.53</v>
+        <v>126.34</v>
       </c>
     </row>
     <row r="74">
@@ -1908,11 +1908,11 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>483.46</v>
+        <v>136.24</v>
       </c>
     </row>
     <row r="75">
@@ -1928,11 +1928,11 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>253.17</v>
+        <v>259.99</v>
       </c>
     </row>
     <row r="76">
@@ -1948,11 +1948,11 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>786.17</v>
+        <v>309.49</v>
       </c>
     </row>
     <row r="77">
@@ -1968,11 +1968,11 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>716.04</v>
+        <v>495.32</v>
       </c>
     </row>
     <row r="78">
@@ -1988,11 +1988,11 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>805.04</v>
+        <v>486.24</v>
       </c>
     </row>
     <row r="79">
@@ -2008,11 +2008,11 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>805.04</v>
+        <v>255.95</v>
       </c>
     </row>
     <row r="80">
@@ -2028,11 +2028,11 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>805.04</v>
+        <v>941.38</v>
       </c>
     </row>
     <row r="81">
@@ -2048,11 +2048,11 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>805.04</v>
+        <v>871.25</v>
       </c>
     </row>
     <row r="82">
@@ -2063,16 +2063,16 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>1110.28</v>
       </c>
     </row>
     <row r="83">
@@ -2083,16 +2083,16 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>24.75</v>
+        <v>1110.28</v>
       </c>
     </row>
     <row r="84">
@@ -2103,16 +2103,16 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>63.64</v>
+        <v>1110.28</v>
       </c>
     </row>
     <row r="85">
@@ -2123,16 +2123,16 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>165.94</v>
+        <v>1110.28</v>
       </c>
     </row>
     <row r="86">
@@ -2143,16 +2143,16 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>175.84</v>
+        <v>1110.28</v>
       </c>
     </row>
     <row r="87">
@@ -2168,11 +2168,11 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>299.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2188,11 +2188,11 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>349.09</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="89">
@@ -2208,11 +2208,11 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>596.6799999999999</v>
+        <v>63.64</v>
       </c>
     </row>
     <row r="90">
@@ -2228,11 +2228,11 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>597.76</v>
+        <v>165.94</v>
       </c>
     </row>
     <row r="91">
@@ -2248,11 +2248,11 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>367.47</v>
+        <v>175.84</v>
       </c>
     </row>
     <row r="92">
@@ -2268,11 +2268,11 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>900.47</v>
+        <v>299.59</v>
       </c>
     </row>
     <row r="93">
@@ -2288,11 +2288,11 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>805.59</v>
+        <v>349.09</v>
       </c>
     </row>
     <row r="94">
@@ -2308,11 +2308,11 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>805.04</v>
+        <v>599.47</v>
       </c>
     </row>
     <row r="95">
@@ -2328,11 +2328,11 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>805.04</v>
+        <v>600.54</v>
       </c>
     </row>
     <row r="96">
@@ -2348,11 +2348,11 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>805.04</v>
+        <v>370.25</v>
       </c>
     </row>
     <row r="97">
@@ -2368,11 +2368,11 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>805.04</v>
+        <v>1055.68</v>
       </c>
     </row>
     <row r="98">
@@ -2383,16 +2383,16 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>960.8</v>
       </c>
     </row>
     <row r="99">
@@ -2403,16 +2403,16 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>1110.28</v>
       </c>
     </row>
     <row r="100">
@@ -2423,16 +2423,16 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>1110.28</v>
       </c>
     </row>
     <row r="101">
@@ -2443,16 +2443,16 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>1110.28</v>
       </c>
     </row>
     <row r="102">
@@ -2463,16 +2463,16 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>1110.28</v>
       </c>
     </row>
     <row r="103">
@@ -2483,16 +2483,16 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>1110.28</v>
       </c>
     </row>
     <row r="104">
@@ -2508,7 +2508,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D106" t="n">
@@ -2568,7 +2568,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -2608,7 +2608,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D109" t="n">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D111" t="n">
@@ -2668,7 +2668,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D112" t="n">
@@ -2688,11 +2688,11 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -2703,12 +2703,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -2723,16 +2723,16 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>8551.860000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -2743,16 +2743,16 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>8551.860000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -2763,16 +2763,16 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>9733.940000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -2783,16 +2783,16 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>10305.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -2803,16 +2803,16 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>10305.48</v>
+        <v>152</v>
       </c>
     </row>
     <row r="120">
@@ -2823,16 +2823,16 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>10838.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -2848,11 +2848,11 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>5494.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -2868,11 +2868,11 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>5560.28</v>
+        <v>8551.860000000001</v>
       </c>
     </row>
     <row r="123">
@@ -2888,11 +2888,11 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>6666.51</v>
+        <v>8551.860000000001</v>
       </c>
     </row>
     <row r="124">
@@ -2908,11 +2908,11 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7793.3</v>
+        <v>9733.940000000001</v>
       </c>
     </row>
     <row r="125">
@@ -2928,11 +2928,11 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>7793.3</v>
+        <v>10305.48</v>
       </c>
     </row>
     <row r="126">
@@ -2948,11 +2948,11 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>7260.75</v>
+        <v>10305.48</v>
       </c>
     </row>
     <row r="127">
@@ -2968,11 +2968,11 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>5711.34</v>
+        <v>10838.03</v>
       </c>
     </row>
     <row r="128">
@@ -2988,11 +2988,11 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>5645.57</v>
+        <v>5494.51</v>
       </c>
     </row>
     <row r="129">
@@ -3008,11 +3008,171 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>5560.28</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>6666.51</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>7793.3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>7793.3</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>7260.75</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>5727.71</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>5661.94</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
           <t>2025-04-07</t>
         </is>
       </c>
-      <c r="D129" t="n">
-        <v>3357.26</v>
+      <c r="D136" t="n">
+        <v>3373.63</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>1675.3</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_diario_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_diario_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D137"/>
+  <dimension ref="A1:D145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7342.64</v>
+        <v>7339.54</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7880.96</v>
+        <v>7877.68</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5313.18</v>
+        <v>5309.91</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7120.43</v>
+        <v>7117.16</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8876.049999999999</v>
+        <v>8872.780000000001</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9432.84</v>
+        <v>9442.059999999999</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8814.1</v>
+        <v>8823.32</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8089.61</v>
+        <v>8098.82</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>11247.7</v>
+        <v>11310.03</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>11049.89</v>
+        <v>11146.25</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8605.209999999999</v>
+        <v>8744.59</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>12343.73</v>
+        <v>13096.19</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>17559.93</v>
+        <v>19506.56</v>
       </c>
     </row>
     <row r="15">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>17099.35</v>
+        <v>19828.31</v>
       </c>
     </row>
     <row r="16">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>18500.73</v>
+        <v>23179.48</v>
       </c>
     </row>
     <row r="17">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>22986.07</v>
+        <v>31215.15</v>
       </c>
     </row>
     <row r="18">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>21069.12</v>
+        <v>34593.1</v>
       </c>
     </row>
     <row r="19">
@@ -803,16 +803,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>11088.14</v>
+        <v>13429.6</v>
       </c>
     </row>
     <row r="20">
@@ -828,11 +828,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>18962.36</v>
+        <v>11085.04</v>
       </c>
     </row>
     <row r="21">
@@ -848,11 +848,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>15036.4</v>
+        <v>18955.44</v>
       </c>
     </row>
     <row r="22">
@@ -868,11 +868,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>8697.4</v>
+        <v>15029.07</v>
       </c>
     </row>
     <row r="23">
@@ -888,11 +888,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>10387.02</v>
+        <v>8690.07</v>
       </c>
     </row>
     <row r="24">
@@ -908,11 +908,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>10943.81</v>
+        <v>10379.69</v>
       </c>
     </row>
     <row r="25">
@@ -928,11 +928,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>11074.57</v>
+        <v>10948.97</v>
       </c>
     </row>
     <row r="26">
@@ -948,11 +948,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>9850.32</v>
+        <v>11079.73</v>
       </c>
     </row>
     <row r="27">
@@ -968,11 +968,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>14534.46</v>
+        <v>9855.49</v>
       </c>
     </row>
     <row r="28">
@@ -988,11 +988,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>12991.31</v>
+        <v>14533.06</v>
       </c>
     </row>
     <row r="29">
@@ -1008,11 +1008,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>10546.63</v>
+        <v>13023.94</v>
       </c>
     </row>
     <row r="30">
@@ -1028,11 +1028,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>14717.45</v>
+        <v>10622.28</v>
       </c>
     </row>
     <row r="31">
@@ -1048,11 +1048,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>19488.15</v>
+        <v>15379.78</v>
       </c>
     </row>
     <row r="32">
@@ -1068,11 +1068,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>18987.97</v>
+        <v>21344.66</v>
       </c>
     </row>
     <row r="33">
@@ -1088,11 +1088,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>20389.35</v>
+        <v>21626.8</v>
       </c>
     </row>
     <row r="34">
@@ -1108,11 +1108,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>24815.12</v>
+        <v>24977.98</v>
       </c>
     </row>
     <row r="35">
@@ -1128,11 +1128,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>21833.09</v>
+        <v>32155.07</v>
       </c>
     </row>
     <row r="36">
@@ -1143,16 +1143,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>34539.73</v>
       </c>
     </row>
     <row r="37">
@@ -1163,16 +1163,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1998.5</v>
+        <v>13315.72</v>
       </c>
     </row>
     <row r="38">
@@ -1188,11 +1188,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>7498.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1208,11 +1208,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>7498.5</v>
+        <v>2002.5</v>
       </c>
     </row>
     <row r="40">
@@ -1228,11 +1228,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>12998.5</v>
+        <v>7502.5</v>
       </c>
     </row>
     <row r="41">
@@ -1248,11 +1248,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7986.5</v>
+        <v>7502.5</v>
       </c>
     </row>
     <row r="42">
@@ -1268,11 +1268,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>18865.5</v>
+        <v>13002.5</v>
       </c>
     </row>
     <row r="43">
@@ -1288,11 +1288,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>21432.5</v>
+        <v>7986.5</v>
       </c>
     </row>
     <row r="44">
@@ -1308,11 +1308,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>27978.5</v>
+        <v>18865.5</v>
       </c>
     </row>
     <row r="45">
@@ -1328,11 +1328,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>30758</v>
+        <v>21436.5</v>
       </c>
     </row>
     <row r="46">
@@ -1348,11 +1348,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>44805.5</v>
+        <v>27982.5</v>
       </c>
     </row>
     <row r="47">
@@ -1368,11 +1368,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>54730.5</v>
+        <v>30762</v>
       </c>
     </row>
     <row r="48">
@@ -1388,11 +1388,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>73737</v>
+        <v>44809.5</v>
       </c>
     </row>
     <row r="49">
@@ -1408,11 +1408,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>73805.5</v>
+        <v>54734.5</v>
       </c>
     </row>
     <row r="50">
@@ -1428,11 +1428,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>69744.5</v>
+        <v>73741</v>
       </c>
     </row>
     <row r="51">
@@ -1448,11 +1448,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>73805.5</v>
+        <v>73809.5</v>
       </c>
     </row>
     <row r="52">
@@ -1468,11 +1468,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>88319</v>
+        <v>69748.5</v>
       </c>
     </row>
     <row r="53">
@@ -1483,16 +1483,16 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>73809.5</v>
       </c>
     </row>
     <row r="54">
@@ -1503,16 +1503,16 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1580.85</v>
+        <v>88323</v>
       </c>
     </row>
     <row r="55">
@@ -1523,16 +1523,16 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1580.85</v>
+        <v>7502.5</v>
       </c>
     </row>
     <row r="56">
@@ -1548,11 +1548,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1580.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -1628,11 +1628,11 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>8294.629999999999</v>
+        <v>1580.85</v>
       </c>
     </row>
     <row r="61">
@@ -1648,11 +1648,11 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>10903.14</v>
+        <v>1580.85</v>
       </c>
     </row>
     <row r="62">
@@ -1668,11 +1668,11 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>10903.14</v>
+        <v>1580.85</v>
       </c>
     </row>
     <row r="63">
@@ -1688,11 +1688,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>10903.14</v>
+        <v>8294.629999999999</v>
       </c>
     </row>
     <row r="64">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -1748,11 +1748,11 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>4010.2</v>
+        <v>10903.14</v>
       </c>
     </row>
     <row r="67">
@@ -1768,11 +1768,11 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1401.69</v>
+        <v>10903.14</v>
       </c>
     </row>
     <row r="68">
@@ -1788,11 +1788,11 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1935.92</v>
+        <v>10903.14</v>
       </c>
     </row>
     <row r="69">
@@ -1808,91 +1808,91 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>3182.93</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>1417.49</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>24.75</v>
+        <v>1970.78</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>63.64</v>
+        <v>3409.36</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>126.34</v>
+        <v>4636.32</v>
       </c>
     </row>
     <row r="74">
@@ -1908,11 +1908,11 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>136.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1928,11 +1928,11 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>259.99</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="76">
@@ -1948,11 +1948,11 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>309.49</v>
+        <v>63.64</v>
       </c>
     </row>
     <row r="77">
@@ -1968,11 +1968,11 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>495.32</v>
+        <v>126.34</v>
       </c>
     </row>
     <row r="78">
@@ -1988,11 +1988,11 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>486.24</v>
+        <v>136.24</v>
       </c>
     </row>
     <row r="79">
@@ -2008,11 +2008,11 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>255.95</v>
+        <v>259.99</v>
       </c>
     </row>
     <row r="80">
@@ -2028,11 +2028,11 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>941.38</v>
+        <v>309.49</v>
       </c>
     </row>
     <row r="81">
@@ -2048,11 +2048,11 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>871.25</v>
+        <v>497.6</v>
       </c>
     </row>
     <row r="82">
@@ -2068,11 +2068,11 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1110.28</v>
+        <v>488.52</v>
       </c>
     </row>
     <row r="83">
@@ -2088,11 +2088,11 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1110.28</v>
+        <v>258.23</v>
       </c>
     </row>
     <row r="84">
@@ -2108,11 +2108,11 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1110.28</v>
+        <v>1057.98</v>
       </c>
     </row>
     <row r="85">
@@ -2128,11 +2128,11 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1110.28</v>
+        <v>987.85</v>
       </c>
     </row>
     <row r="86">
@@ -2148,11 +2148,11 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1110.28</v>
+        <v>1326.89</v>
       </c>
     </row>
     <row r="87">
@@ -2163,16 +2163,16 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>1326.89</v>
       </c>
     </row>
     <row r="88">
@@ -2183,16 +2183,16 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>24.75</v>
+        <v>1326.89</v>
       </c>
     </row>
     <row r="89">
@@ -2203,16 +2203,16 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>63.64</v>
+        <v>1326.89</v>
       </c>
     </row>
     <row r="90">
@@ -2223,16 +2223,16 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>165.94</v>
+        <v>1326.89</v>
       </c>
     </row>
     <row r="91">
@@ -2243,16 +2243,16 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>175.84</v>
+        <v>1326.89</v>
       </c>
     </row>
     <row r="92">
@@ -2268,11 +2268,11 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>299.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -2288,11 +2288,11 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>349.09</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="94">
@@ -2308,11 +2308,11 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>599.47</v>
+        <v>63.64</v>
       </c>
     </row>
     <row r="95">
@@ -2328,11 +2328,11 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>600.54</v>
+        <v>165.94</v>
       </c>
     </row>
     <row r="96">
@@ -2348,11 +2348,11 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>370.25</v>
+        <v>175.84</v>
       </c>
     </row>
     <row r="97">
@@ -2368,11 +2368,11 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1055.68</v>
+        <v>299.59</v>
       </c>
     </row>
     <row r="98">
@@ -2388,11 +2388,11 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>960.8</v>
+        <v>349.09</v>
       </c>
     </row>
     <row r="99">
@@ -2408,11 +2408,11 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1110.28</v>
+        <v>601.75</v>
       </c>
     </row>
     <row r="100">
@@ -2428,11 +2428,11 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1110.28</v>
+        <v>602.8200000000001</v>
       </c>
     </row>
     <row r="101">
@@ -2448,11 +2448,11 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1110.28</v>
+        <v>372.53</v>
       </c>
     </row>
     <row r="102">
@@ -2468,11 +2468,11 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1110.28</v>
+        <v>1172.28</v>
       </c>
     </row>
     <row r="103">
@@ -2488,11 +2488,11 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1110.28</v>
+        <v>1077.4</v>
       </c>
     </row>
     <row r="104">
@@ -2503,16 +2503,16 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>1326.89</v>
       </c>
     </row>
     <row r="105">
@@ -2523,16 +2523,16 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>1326.89</v>
       </c>
     </row>
     <row r="106">
@@ -2543,16 +2543,16 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>1326.89</v>
       </c>
     </row>
     <row r="107">
@@ -2563,16 +2563,16 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>1326.89</v>
       </c>
     </row>
     <row r="108">
@@ -2583,16 +2583,16 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>1326.89</v>
       </c>
     </row>
     <row r="109">
@@ -2603,16 +2603,16 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>1326.89</v>
       </c>
     </row>
     <row r="110">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D111" t="n">
@@ -2668,7 +2668,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D112" t="n">
@@ -2688,7 +2688,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D113" t="n">
@@ -2708,7 +2708,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D115" t="n">
@@ -2748,7 +2748,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D116" t="n">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D117" t="n">
@@ -2788,7 +2788,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D118" t="n">
@@ -2808,11 +2808,11 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -2828,7 +2828,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D120" t="n">
@@ -2843,12 +2843,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D121" t="n">
@@ -2863,16 +2863,16 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>8551.860000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -2883,16 +2883,16 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>8551.860000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -2903,16 +2903,16 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>9733.940000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -2923,16 +2923,16 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>10305.48</v>
+        <v>152</v>
       </c>
     </row>
     <row r="126">
@@ -2943,16 +2943,16 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>10305.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -2963,16 +2963,16 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>10838.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -2988,11 +2988,11 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>5494.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -3008,11 +3008,11 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>5560.28</v>
+        <v>8551.860000000001</v>
       </c>
     </row>
     <row r="130">
@@ -3028,11 +3028,11 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>6666.51</v>
+        <v>8551.860000000001</v>
       </c>
     </row>
     <row r="131">
@@ -3048,11 +3048,11 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>7793.3</v>
+        <v>9733.940000000001</v>
       </c>
     </row>
     <row r="132">
@@ -3068,11 +3068,11 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>7793.3</v>
+        <v>10305.48</v>
       </c>
     </row>
     <row r="133">
@@ -3088,11 +3088,11 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>7260.75</v>
+        <v>10305.48</v>
       </c>
     </row>
     <row r="134">
@@ -3108,11 +3108,11 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>5727.71</v>
+        <v>10838.03</v>
       </c>
     </row>
     <row r="135">
@@ -3128,11 +3128,11 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>5661.94</v>
+        <v>5494.51</v>
       </c>
     </row>
     <row r="136">
@@ -3148,11 +3148,11 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>3373.63</v>
+        <v>5560.28</v>
       </c>
     </row>
     <row r="137">
@@ -3168,11 +3168,171 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>6666.51</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>7793.3</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>7793.3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>7260.75</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>5733.6</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>5667.83</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>3379.52</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
           <t>2025-04-08</t>
         </is>
       </c>
-      <c r="D137" t="n">
-        <v>1675.3</v>
+      <c r="D144" t="n">
+        <v>1681.19</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>2018.13</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_diario_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_diario_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D145"/>
+  <dimension ref="A1:D153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7339.54</v>
+        <v>7337.23</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7877.68</v>
+        <v>7875.2</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5309.91</v>
+        <v>5307.43</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7117.16</v>
+        <v>7114.68</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8872.780000000001</v>
+        <v>8852.450000000001</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9442.059999999999</v>
+        <v>9415.33</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8823.32</v>
+        <v>8796.58</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8098.82</v>
+        <v>8040.28</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>11310.03</v>
+        <v>11224.23</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>11146.25</v>
+        <v>11041.03</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8744.59</v>
+        <v>8587.620000000001</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>13096.19</v>
+        <v>12936.36</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>19506.56</v>
+        <v>19620.36</v>
       </c>
     </row>
     <row r="15">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>19828.31</v>
+        <v>19982.03</v>
       </c>
     </row>
     <row r="16">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>23179.48</v>
+        <v>22709.62</v>
       </c>
     </row>
     <row r="17">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>31215.15</v>
+        <v>30667.33</v>
       </c>
     </row>
     <row r="18">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>34593.1</v>
+        <v>39328.7</v>
       </c>
     </row>
     <row r="19">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>13429.6</v>
+        <v>48654.39</v>
       </c>
     </row>
     <row r="20">
@@ -823,16 +823,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>11085.04</v>
+        <v>4587.16</v>
       </c>
     </row>
     <row r="21">
@@ -848,11 +848,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>18955.44</v>
+        <v>11082.73</v>
       </c>
     </row>
     <row r="22">
@@ -868,11 +868,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>15029.07</v>
+        <v>18950.05</v>
       </c>
     </row>
     <row r="23">
@@ -888,11 +888,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>8690.07</v>
+        <v>15023.32</v>
       </c>
     </row>
     <row r="24">
@@ -908,11 +908,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>10379.69</v>
+        <v>8684.32</v>
       </c>
     </row>
     <row r="25">
@@ -928,11 +928,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>10948.97</v>
+        <v>10356.09</v>
       </c>
     </row>
     <row r="26">
@@ -948,11 +948,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>11079.73</v>
+        <v>10918.96</v>
       </c>
     </row>
     <row r="27">
@@ -968,11 +968,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>9855.49</v>
+        <v>11049.72</v>
       </c>
     </row>
     <row r="28">
@@ -988,11 +988,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>14533.06</v>
+        <v>9793.66</v>
       </c>
     </row>
     <row r="29">
@@ -1008,11 +1008,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>13023.94</v>
+        <v>14411.68</v>
       </c>
     </row>
     <row r="30">
@@ -1028,11 +1028,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10622.28</v>
+        <v>12883.14</v>
       </c>
     </row>
     <row r="31">
@@ -1048,11 +1048,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>15379.78</v>
+        <v>10429.72</v>
       </c>
     </row>
     <row r="32">
@@ -1068,11 +1068,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>21344.66</v>
+        <v>15171.99</v>
       </c>
     </row>
     <row r="33">
@@ -1088,11 +1088,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>21626.8</v>
+        <v>21410.5</v>
       </c>
     </row>
     <row r="34">
@@ -1108,11 +1108,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>24977.98</v>
+        <v>21732.57</v>
       </c>
     </row>
     <row r="35">
@@ -1128,11 +1128,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>32155.07</v>
+        <v>24460.16</v>
       </c>
     </row>
     <row r="36">
@@ -1148,11 +1148,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>34539.73</v>
+        <v>31343.29</v>
       </c>
     </row>
     <row r="37">
@@ -1168,11 +1168,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>13315.72</v>
+        <v>39011.37</v>
       </c>
     </row>
     <row r="38">
@@ -1183,16 +1183,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>48573.55</v>
       </c>
     </row>
     <row r="39">
@@ -1203,16 +1203,16 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2002.5</v>
+        <v>5697.2</v>
       </c>
     </row>
     <row r="40">
@@ -1228,11 +1228,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>7502.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1248,11 +1248,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7502.5</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="42">
@@ -1268,11 +1268,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>13002.5</v>
+        <v>7508</v>
       </c>
     </row>
     <row r="43">
@@ -1288,11 +1288,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>7986.5</v>
+        <v>7508</v>
       </c>
     </row>
     <row r="44">
@@ -1308,11 +1308,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>18865.5</v>
+        <v>13008</v>
       </c>
     </row>
     <row r="45">
@@ -1328,11 +1328,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>21436.5</v>
+        <v>7986.5</v>
       </c>
     </row>
     <row r="46">
@@ -1348,11 +1348,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>27982.5</v>
+        <v>18865.5</v>
       </c>
     </row>
     <row r="47">
@@ -1368,11 +1368,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>30762</v>
+        <v>21442</v>
       </c>
     </row>
     <row r="48">
@@ -1388,11 +1388,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>44809.5</v>
+        <v>27988</v>
       </c>
     </row>
     <row r="49">
@@ -1408,11 +1408,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>54734.5</v>
+        <v>30767.5</v>
       </c>
     </row>
     <row r="50">
@@ -1428,11 +1428,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>73741</v>
+        <v>44815</v>
       </c>
     </row>
     <row r="51">
@@ -1448,11 +1448,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>73809.5</v>
+        <v>54740</v>
       </c>
     </row>
     <row r="52">
@@ -1468,11 +1468,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>69748.5</v>
+        <v>73746.5</v>
       </c>
     </row>
     <row r="53">
@@ -1488,11 +1488,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>73809.5</v>
+        <v>73815</v>
       </c>
     </row>
     <row r="54">
@@ -1508,11 +1508,11 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>88323</v>
+        <v>69754</v>
       </c>
     </row>
     <row r="55">
@@ -1528,11 +1528,11 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>7502.5</v>
+        <v>73815</v>
       </c>
     </row>
     <row r="56">
@@ -1543,16 +1543,16 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>88328.5</v>
       </c>
     </row>
     <row r="57">
@@ -1563,16 +1563,16 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1580.85</v>
+        <v>7508</v>
       </c>
     </row>
     <row r="58">
@@ -1583,16 +1583,16 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1580.85</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="59">
@@ -1608,11 +1608,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1580.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -1688,11 +1688,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>8294.629999999999</v>
+        <v>1580.85</v>
       </c>
     </row>
     <row r="64">
@@ -1708,11 +1708,11 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>10903.14</v>
+        <v>1580.85</v>
       </c>
     </row>
     <row r="65">
@@ -1728,11 +1728,11 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>10903.14</v>
+        <v>1580.85</v>
       </c>
     </row>
     <row r="66">
@@ -1748,11 +1748,11 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>10903.14</v>
+        <v>8294.629999999999</v>
       </c>
     </row>
     <row r="67">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -1808,11 +1808,11 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>4026</v>
+        <v>10903.14</v>
       </c>
     </row>
     <row r="70">
@@ -1828,11 +1828,11 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1417.49</v>
+        <v>10903.14</v>
       </c>
     </row>
     <row r="71">
@@ -1848,11 +1848,11 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1970.78</v>
+        <v>10903.14</v>
       </c>
     </row>
     <row r="72">
@@ -1868,11 +1868,11 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3409.36</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="73">
@@ -1888,91 +1888,91 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>4636.32</v>
+        <v>1417.49</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>1970.78</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>24.75</v>
+        <v>3409.36</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>63.64</v>
+        <v>4636.32</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>126.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -1988,11 +1988,11 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>136.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -2008,11 +2008,11 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>259.99</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="80">
@@ -2028,11 +2028,11 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>309.49</v>
+        <v>63.64</v>
       </c>
     </row>
     <row r="81">
@@ -2048,11 +2048,11 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>497.6</v>
+        <v>126.34</v>
       </c>
     </row>
     <row r="82">
@@ -2068,11 +2068,11 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>488.52</v>
+        <v>136.24</v>
       </c>
     </row>
     <row r="83">
@@ -2088,11 +2088,11 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>258.23</v>
+        <v>259.99</v>
       </c>
     </row>
     <row r="84">
@@ -2108,11 +2108,11 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1057.98</v>
+        <v>309.49</v>
       </c>
     </row>
     <row r="85">
@@ -2128,11 +2128,11 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>987.85</v>
+        <v>499.49</v>
       </c>
     </row>
     <row r="86">
@@ -2148,11 +2148,11 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1326.89</v>
+        <v>490.42</v>
       </c>
     </row>
     <row r="87">
@@ -2168,11 +2168,11 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1326.89</v>
+        <v>260.12</v>
       </c>
     </row>
     <row r="88">
@@ -2188,11 +2188,11 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1326.89</v>
+        <v>1315.44</v>
       </c>
     </row>
     <row r="89">
@@ -2208,11 +2208,11 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1326.89</v>
+        <v>1245.32</v>
       </c>
     </row>
     <row r="90">
@@ -2228,11 +2228,11 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1326.89</v>
+        <v>1667.69</v>
       </c>
     </row>
     <row r="91">
@@ -2248,11 +2248,11 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1326.89</v>
+        <v>1667.69</v>
       </c>
     </row>
     <row r="92">
@@ -2263,16 +2263,16 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>1667.69</v>
       </c>
     </row>
     <row r="93">
@@ -2283,16 +2283,16 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>24.75</v>
+        <v>1667.69</v>
       </c>
     </row>
     <row r="94">
@@ -2303,16 +2303,16 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>63.64</v>
+        <v>1667.69</v>
       </c>
     </row>
     <row r="95">
@@ -2323,16 +2323,16 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>165.94</v>
+        <v>1667.69</v>
       </c>
     </row>
     <row r="96">
@@ -2343,16 +2343,16 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>175.84</v>
+        <v>84.56999999999999</v>
       </c>
     </row>
     <row r="97">
@@ -2368,11 +2368,11 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>299.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2388,11 +2388,11 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>349.09</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="99">
@@ -2408,11 +2408,11 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>601.75</v>
+        <v>63.64</v>
       </c>
     </row>
     <row r="100">
@@ -2428,11 +2428,11 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>602.8200000000001</v>
+        <v>165.94</v>
       </c>
     </row>
     <row r="101">
@@ -2448,11 +2448,11 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>372.53</v>
+        <v>175.84</v>
       </c>
     </row>
     <row r="102">
@@ -2468,11 +2468,11 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1172.28</v>
+        <v>299.59</v>
       </c>
     </row>
     <row r="103">
@@ -2488,11 +2488,11 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1077.4</v>
+        <v>349.09</v>
       </c>
     </row>
     <row r="104">
@@ -2508,11 +2508,11 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1326.89</v>
+        <v>603.64</v>
       </c>
     </row>
     <row r="105">
@@ -2528,11 +2528,11 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1326.89</v>
+        <v>604.72</v>
       </c>
     </row>
     <row r="106">
@@ -2548,11 +2548,11 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1326.89</v>
+        <v>374.42</v>
       </c>
     </row>
     <row r="107">
@@ -2568,11 +2568,11 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1326.89</v>
+        <v>1429.74</v>
       </c>
     </row>
     <row r="108">
@@ -2588,11 +2588,11 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1326.89</v>
+        <v>1334.87</v>
       </c>
     </row>
     <row r="109">
@@ -2608,11 +2608,11 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1326.89</v>
+        <v>1667.69</v>
       </c>
     </row>
     <row r="110">
@@ -2623,16 +2623,16 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>1667.69</v>
       </c>
     </row>
     <row r="111">
@@ -2643,16 +2643,16 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>1667.69</v>
       </c>
     </row>
     <row r="112">
@@ -2663,16 +2663,16 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>1667.69</v>
       </c>
     </row>
     <row r="113">
@@ -2683,16 +2683,16 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>1667.69</v>
       </c>
     </row>
     <row r="114">
@@ -2703,16 +2703,16 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>1667.69</v>
       </c>
     </row>
     <row r="115">
@@ -2723,16 +2723,16 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>84.56999999999999</v>
       </c>
     </row>
     <row r="116">
@@ -2748,7 +2748,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D116" t="n">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D117" t="n">
@@ -2788,7 +2788,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D118" t="n">
@@ -2808,7 +2808,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D119" t="n">
@@ -2828,7 +2828,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D120" t="n">
@@ -2848,7 +2848,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D121" t="n">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D122" t="n">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -2908,7 +2908,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D124" t="n">
@@ -2928,11 +2928,11 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -2948,7 +2948,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="D126" t="n">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D127" t="n">
@@ -2983,12 +2983,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="D128" t="n">
@@ -3003,16 +3003,16 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>8551.860000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -3023,16 +3023,16 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>8551.860000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -3043,16 +3043,16 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>9733.940000000001</v>
+        <v>152</v>
       </c>
     </row>
     <row r="132">
@@ -3063,16 +3063,16 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>10305.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -3083,16 +3083,16 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>10305.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -3103,16 +3103,16 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>10838.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -3128,11 +3128,11 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>5494.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -3148,11 +3148,11 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>5560.28</v>
+        <v>8551.860000000001</v>
       </c>
     </row>
     <row r="137">
@@ -3168,11 +3168,11 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>6666.51</v>
+        <v>8551.860000000001</v>
       </c>
     </row>
     <row r="138">
@@ -3188,11 +3188,11 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>7793.3</v>
+        <v>9733.940000000001</v>
       </c>
     </row>
     <row r="139">
@@ -3208,11 +3208,11 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>7793.3</v>
+        <v>10305.48</v>
       </c>
     </row>
     <row r="140">
@@ -3228,11 +3228,11 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>7260.75</v>
+        <v>10305.48</v>
       </c>
     </row>
     <row r="141">
@@ -3248,11 +3248,11 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>5733.6</v>
+        <v>10838.03</v>
       </c>
     </row>
     <row r="142">
@@ -3268,11 +3268,11 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>5667.83</v>
+        <v>5494.51</v>
       </c>
     </row>
     <row r="143">
@@ -3288,11 +3288,11 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>3379.52</v>
+        <v>5560.28</v>
       </c>
     </row>
     <row r="144">
@@ -3308,11 +3308,11 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1681.19</v>
+        <v>6666.51</v>
       </c>
     </row>
     <row r="145">
@@ -3328,11 +3328,171 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>7793.3</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>7793.3</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>7260.75</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>5733.6</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>5667.83</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>3379.52</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>1681.19</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
           <t>2025-04-09</t>
         </is>
       </c>
-      <c r="D145" t="n">
+      <c r="D152" t="n">
         <v>2018.13</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
